--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1792" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24DCDF51-AE18-41CC-A807-F911C03328D4}"/>
+  <xr:revisionPtr revIDLastSave="1836" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{335CDB16-30AC-48F1-BF42-AA40AE0C9628}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Women's Singles GS Champs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>WINS</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Na Li (CHINA)</t>
+  </si>
+  <si>
+    <t>Aryna Sabalenka (BELARUS)</t>
   </si>
 </sst>
 </file>
@@ -192,6 +195,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,20 +504,20 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -531,7 +538,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -548,12 +555,12 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F26" si="0">(D2-E2)/D2</f>
+        <f>(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -570,34 +577,34 @@
         <v>129</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f>(D3-E3)/D3</f>
         <v>0.75096525096525102</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>11</v>
       </c>
       <c r="D4">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.74038461538461542</v>
+        <f>(D4-E4)/D4</f>
+        <v>0.73831775700934577</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -614,34 +621,34 @@
         <v>168</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f>(D5-E5)/D5</f>
         <v>0.73626373626373631</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C6">
         <v>49</v>
       </c>
       <c r="D6">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E6">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.67116564417177915</v>
+        <f>(D6-E6)/D6</f>
+        <v>0.66911764705882348</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -658,12 +665,12 @@
         <v>101</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f>(D7-E7)/D7</f>
         <v>0.66885245901639345</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -680,34 +687,34 @@
         <v>181</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f>(D8-E8)/D8</f>
         <v>0.62133891213389125</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E9">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.61217391304347823</v>
+        <f>(D9-E9)/D9</f>
+        <v>0.61168384879725091</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -724,12 +731,12 @@
         <v>265</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
+        <f>(D10-E10)/D10</f>
         <v>0.58528951486697967</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -746,165 +753,165 @@
         <v>239</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f>(D11-E11)/D11</f>
         <v>0.58434782608695657</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E12">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5722543352601156</v>
+        <f>(D12-E12)/D12</f>
+        <v>0.56741573033707871</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C13">
         <v>29</v>
       </c>
       <c r="D13">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="E13">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.55074875207986684</v>
+        <f>(D13-E13)/D13</f>
+        <v>0.54966887417218546</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E14">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.53688524590163933</v>
+        <f>(D14-E14)/D14</f>
+        <v>0.53784860557768921</v>
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>239</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>464</v>
+      </c>
+      <c r="E15">
+        <v>220</v>
+      </c>
+      <c r="F15" s="2">
+        <f>(D15-E15)/D15</f>
+        <v>0.52586206896551724</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
+      <c r="B16">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>95</v>
+      </c>
+      <c r="E16">
         <v>46</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>93</v>
-      </c>
-      <c r="E15">
-        <v>44</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5268817204301075</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16">
-        <v>239</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>464</v>
-      </c>
-      <c r="E16">
-        <v>220</v>
-      </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.52586206896551724</v>
+        <f>(D16-E16)/D16</f>
+        <v>0.51578947368421058</v>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>170</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>307</v>
+      </c>
+      <c r="E17">
+        <v>151</v>
+      </c>
+      <c r="F17" s="2">
+        <f>(D17-E17)/D17</f>
+        <v>0.50814332247557004</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>367</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>18</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>668</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>344</v>
       </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
+      <c r="F18" s="2">
+        <f>(D18-E18)/D18</f>
         <v>0.48502994011976047</v>
       </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>254</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>448</v>
-      </c>
-      <c r="E18">
-        <v>237</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.47098214285714285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -921,207 +928,226 @@
         <v>361</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
+        <f>(D19-E19)/D19</f>
         <v>0.46359583952451711</v>
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>258</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>448</v>
+      </c>
+      <c r="E20">
+        <v>241</v>
+      </c>
+      <c r="F20" s="2">
+        <f>(D20-E20)/D20</f>
+        <v>0.46205357142857145</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B20">
-        <v>202</v>
-      </c>
-      <c r="C20">
+      <c r="B21">
+        <v>204</v>
+      </c>
+      <c r="C21">
         <v>5</v>
       </c>
-      <c r="D20">
-        <v>343</v>
-      </c>
-      <c r="E20">
-        <v>185</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.46064139941690962</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D21">
+        <v>347</v>
+      </c>
+      <c r="E21">
+        <v>187</v>
+      </c>
+      <c r="F21" s="2">
+        <f>(D21-E21)/D21</f>
+        <v>0.4610951008645533</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>161</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>7</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>264</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>148</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" si="0"/>
+      <c r="F22" s="2">
+        <f>(D22-E22)/D22</f>
         <v>0.43939393939393939</v>
       </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B22">
-        <v>199</v>
-      </c>
-      <c r="C22">
+      <c r="B23">
+        <v>203</v>
+      </c>
+      <c r="C23">
         <v>5</v>
       </c>
-      <c r="D22">
-        <v>306</v>
-      </c>
-      <c r="E22">
-        <v>186</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.39215686274509803</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D23">
+        <v>313</v>
+      </c>
+      <c r="E23">
+        <v>189</v>
+      </c>
+      <c r="F23" s="2">
+        <f>(D23-E23)/D23</f>
+        <v>0.3961661341853035</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>311</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>8</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>473</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>292</v>
       </c>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
+      <c r="F24" s="2">
+        <f>(D24-E24)/D24</f>
         <v>0.38266384778012685</v>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B24">
-        <v>154</v>
-      </c>
-      <c r="C24">
+      <c r="B25">
+        <v>158</v>
+      </c>
+      <c r="C25">
         <v>5</v>
       </c>
-      <c r="D24">
-        <v>233</v>
-      </c>
-      <c r="E24">
-        <v>145</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.37768240343347642</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D25">
+        <v>237</v>
+      </c>
+      <c r="E25">
+        <v>149</v>
+      </c>
+      <c r="F25" s="2">
+        <f>(D25-E25)/D25</f>
+        <v>0.37130801687763715</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B25">
-        <v>246</v>
-      </c>
-      <c r="C25">
+      <c r="B26">
+        <v>251</v>
+      </c>
+      <c r="C26">
         <v>7</v>
       </c>
-      <c r="D25">
-        <v>331</v>
-      </c>
-      <c r="E25">
-        <v>237</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="0"/>
-        <v>0.28398791540785501</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D26">
+        <v>335</v>
+      </c>
+      <c r="E26">
+        <v>241</v>
+      </c>
+      <c r="F26" s="2">
+        <f>(D26-E26)/D26</f>
+        <v>0.28059701492537314</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>456</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>9</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>612</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>447</v>
       </c>
-      <c r="F26" s="2">
-        <f t="shared" si="0"/>
+      <c r="F27" s="2">
+        <f>(D27-E27)/D27</f>
         <v>0.26960784313725489</v>
       </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G39" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{886A4C9F-69C7-4226-BCD2-6825075A697E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F26">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
@@ -1134,7 +1160,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F26">
+  <conditionalFormatting sqref="F2:F27">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1836" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{335CDB16-30AC-48F1-BF42-AA40AE0C9628}"/>
+  <xr:revisionPtr revIDLastSave="1890" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89F8F100-659F-4376-B91A-28514565DB58}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,20 +587,20 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2">
         <f>(D4-E4)/D4</f>
-        <v>0.73831775700934577</v>
+        <v>0.74090909090909096</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -697,20 +697,20 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E9">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F9" s="2">
         <f>(D9-E9)/D9</f>
-        <v>0.61168384879725091</v>
+        <v>0.61025641025641031</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -763,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -772,11 +772,11 @@
         <v>178</v>
       </c>
       <c r="E12">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="2">
         <f>(D12-E12)/D12</f>
-        <v>0.56741573033707871</v>
+        <v>0.5561797752808989</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -785,20 +785,20 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C13">
         <v>29</v>
       </c>
       <c r="D13">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E13">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F13" s="2">
         <f>(D13-E13)/D13</f>
-        <v>0.54966887417218546</v>
+        <v>0.54859967051070835</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -807,20 +807,20 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E14">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F14" s="2">
         <f>(D14-E14)/D14</f>
-        <v>0.53784860557768921</v>
+        <v>0.53937007874015752</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -913,67 +913,67 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>385</v>
+        <v>207</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>673</v>
+        <v>354</v>
       </c>
       <c r="E19">
-        <v>361</v>
+        <v>189</v>
       </c>
       <c r="F19" s="2">
         <f>(D19-E19)/D19</f>
-        <v>0.46359583952451711</v>
+        <v>0.46610169491525422</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>258</v>
+        <v>385</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>448</v>
+        <v>673</v>
       </c>
       <c r="E20">
-        <v>241</v>
+        <v>361</v>
       </c>
       <c r="F20" s="2">
         <f>(D20-E20)/D20</f>
-        <v>0.46205357142857145</v>
+        <v>0.46359583952451711</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>347</v>
+        <v>448</v>
       </c>
       <c r="E21">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="F21" s="2">
         <f>(D21-E21)/D21</f>
-        <v>0.4610951008645533</v>
+        <v>0.46205357142857145</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1004,20 +1004,20 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C23">
         <v>5</v>
       </c>
       <c r="D23">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E23">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F23" s="2">
         <f>(D23-E23)/D23</f>
-        <v>0.3961661341853035</v>
+        <v>0.39432176656151419</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1048,20 +1048,20 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C25">
         <v>5</v>
       </c>
       <c r="D25">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E25">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F25" s="2">
         <f>(D25-E25)/D25</f>
-        <v>0.37130801687763715</v>
+        <v>0.36134453781512604</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1070,20 +1070,20 @@
         <v>14</v>
       </c>
       <c r="B26">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
       <c r="D26">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E26">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F26" s="2">
         <f>(D26-E26)/D26</f>
-        <v>0.28059701492537314</v>
+        <v>0.28189910979228489</v>
       </c>
       <c r="G26" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1890" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89F8F100-659F-4376-B91A-28514565DB58}"/>
+  <xr:revisionPtr revIDLastSave="1893" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E5D07A3-C143-4D3A-9E57-12C64016CD27}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -503,8 +503,8 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +555,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F27" si="0">(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -577,7 +577,7 @@
         <v>129</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.75096525096525102</v>
       </c>
       <c r="G3" s="1"/>
@@ -599,7 +599,7 @@
         <v>57</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.74090909090909096</v>
       </c>
       <c r="G4" s="1"/>
@@ -621,7 +621,7 @@
         <v>168</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.73626373626373631</v>
       </c>
       <c r="G5" s="1"/>
@@ -643,7 +643,7 @@
         <v>270</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.66911764705882348</v>
       </c>
       <c r="G6" s="1"/>
@@ -665,7 +665,7 @@
         <v>101</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="0"/>
         <v>0.66885245901639345</v>
       </c>
       <c r="G7" s="1"/>
@@ -687,7 +687,7 @@
         <v>181</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.62133891213389125</v>
       </c>
       <c r="G8" s="1"/>
@@ -709,7 +709,7 @@
         <v>228</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="0"/>
         <v>0.61025641025641031</v>
       </c>
       <c r="G9" s="1"/>
@@ -731,7 +731,7 @@
         <v>265</v>
       </c>
       <c r="F10" s="2">
-        <f>(D10-E10)/D10</f>
+        <f t="shared" si="0"/>
         <v>0.58528951486697967</v>
       </c>
       <c r="G10" s="1"/>
@@ -753,7 +753,7 @@
         <v>239</v>
       </c>
       <c r="F11" s="2">
-        <f>(D11-E11)/D11</f>
+        <f t="shared" si="0"/>
         <v>0.58434782608695657</v>
       </c>
       <c r="G11" s="1"/>
@@ -775,7 +775,7 @@
         <v>79</v>
       </c>
       <c r="F12" s="2">
-        <f>(D12-E12)/D12</f>
+        <f t="shared" si="0"/>
         <v>0.5561797752808989</v>
       </c>
       <c r="G12" s="1"/>
@@ -797,7 +797,7 @@
         <v>274</v>
       </c>
       <c r="F13" s="2">
-        <f>(D13-E13)/D13</f>
+        <f t="shared" si="0"/>
         <v>0.54859967051070835</v>
       </c>
       <c r="G13" s="1"/>
@@ -819,7 +819,7 @@
         <v>117</v>
       </c>
       <c r="F14" s="2">
-        <f>(D14-E14)/D14</f>
+        <f t="shared" si="0"/>
         <v>0.53937007874015752</v>
       </c>
       <c r="G14" s="1"/>
@@ -841,7 +841,7 @@
         <v>220</v>
       </c>
       <c r="F15" s="2">
-        <f>(D15-E15)/D15</f>
+        <f t="shared" si="0"/>
         <v>0.52586206896551724</v>
       </c>
       <c r="G15" s="1"/>
@@ -863,7 +863,7 @@
         <v>46</v>
       </c>
       <c r="F16" s="2">
-        <f>(D16-E16)/D16</f>
+        <f t="shared" si="0"/>
         <v>0.51578947368421058</v>
       </c>
       <c r="G16" s="1"/>
@@ -885,7 +885,7 @@
         <v>151</v>
       </c>
       <c r="F17" s="2">
-        <f>(D17-E17)/D17</f>
+        <f t="shared" si="0"/>
         <v>0.50814332247557004</v>
       </c>
       <c r="G17" s="1"/>
@@ -907,7 +907,7 @@
         <v>344</v>
       </c>
       <c r="F18" s="2">
-        <f>(D18-E18)/D18</f>
+        <f t="shared" si="0"/>
         <v>0.48502994011976047</v>
       </c>
     </row>
@@ -928,7 +928,7 @@
         <v>189</v>
       </c>
       <c r="F19" s="2">
-        <f>(D19-E19)/D19</f>
+        <f t="shared" si="0"/>
         <v>0.46610169491525422</v>
       </c>
       <c r="G19" s="1"/>
@@ -950,7 +950,7 @@
         <v>361</v>
       </c>
       <c r="F20" s="2">
-        <f>(D20-E20)/D20</f>
+        <f t="shared" si="0"/>
         <v>0.46359583952451711</v>
       </c>
       <c r="G20" s="1"/>
@@ -972,7 +972,7 @@
         <v>241</v>
       </c>
       <c r="F21" s="2">
-        <f>(D21-E21)/D21</f>
+        <f t="shared" si="0"/>
         <v>0.46205357142857145</v>
       </c>
       <c r="G21" s="1"/>
@@ -994,7 +994,7 @@
         <v>148</v>
       </c>
       <c r="F22" s="2">
-        <f>(D22-E22)/D22</f>
+        <f t="shared" si="0"/>
         <v>0.43939393939393939</v>
       </c>
       <c r="G22" s="1"/>
@@ -1016,7 +1016,7 @@
         <v>192</v>
       </c>
       <c r="F23" s="2">
-        <f>(D23-E23)/D23</f>
+        <f t="shared" si="0"/>
         <v>0.39432176656151419</v>
       </c>
       <c r="G23" s="1"/>
@@ -1038,7 +1038,7 @@
         <v>292</v>
       </c>
       <c r="F24" s="2">
-        <f>(D24-E24)/D24</f>
+        <f t="shared" si="0"/>
         <v>0.38266384778012685</v>
       </c>
       <c r="G24" s="1"/>
@@ -1060,7 +1060,7 @@
         <v>152</v>
       </c>
       <c r="F25" s="2">
-        <f>(D25-E25)/D25</f>
+        <f t="shared" si="0"/>
         <v>0.36134453781512604</v>
       </c>
       <c r="G25" s="1"/>
@@ -1070,20 +1070,20 @@
         <v>14</v>
       </c>
       <c r="B26">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
       <c r="D26">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E26">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F26" s="2">
-        <f>(D26-E26)/D26</f>
-        <v>0.28189910979228489</v>
+        <f t="shared" si="0"/>
+        <v>0.2831858407079646</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1104,7 +1104,7 @@
         <v>447</v>
       </c>
       <c r="F27" s="2">
-        <f>(D27-E27)/D27</f>
+        <f t="shared" si="0"/>
         <v>0.26960784313725489</v>
       </c>
       <c r="G27" s="1"/>
@@ -1151,7 +1151,7 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F43 F2:F20">
+  <conditionalFormatting sqref="F2:F20 F43">
     <cfRule type="iconSet" priority="61">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1893" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E5D07A3-C143-4D3A-9E57-12C64016CD27}"/>
+  <xr:revisionPtr revIDLastSave="1951" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE0434F1-F2B0-4640-BD4B-A7279322DC20}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -503,8 +503,8 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,20 +587,20 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.74090909090909096</v>
+        <v>0.7410714285714286</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -697,20 +697,20 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E9">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.61025641025641031</v>
+        <v>0.60750853242320824</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -763,64 +763,64 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E12">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.5561797752808989</v>
+        <v>0.55494505494505497</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>317</v>
+        <v>131</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>607</v>
+        <v>260</v>
       </c>
       <c r="E13">
-        <v>274</v>
+        <v>117</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.54859967051070835</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>318</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>254</v>
+        <v>610</v>
       </c>
       <c r="E14">
-        <v>117</v>
+        <v>275</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.53937007874015752</v>
+        <v>0.54918032786885251</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -848,45 +848,45 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B16">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>95</v>
+        <v>316</v>
       </c>
       <c r="E16">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>0.51578947368421058</v>
+        <v>0.51265822784810122</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>307</v>
+        <v>98</v>
       </c>
       <c r="E17">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0.50814332247557004</v>
+        <v>0.51020408163265307</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -916,20 +916,20 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
       <c r="D19">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E19">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>0.46610169491525422</v>
+        <v>0.46648044692737428</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1004,20 +1004,20 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C23">
         <v>5</v>
       </c>
       <c r="D23">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E23">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.39432176656151419</v>
+        <v>0.39374999999999999</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1048,20 +1048,20 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C25">
         <v>5</v>
       </c>
       <c r="D25">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E25">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>0.36134453781512604</v>
+        <v>0.36099585062240663</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1070,7 +1070,7 @@
         <v>14</v>
       </c>
       <c r="B26">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -1079,11 +1079,11 @@
         <v>339</v>
       </c>
       <c r="E26">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>0.2831858407079646</v>
+        <v>0.27728613569321536</v>
       </c>
       <c r="G26" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1951" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE0434F1-F2B0-4640-BD4B-A7279322DC20}"/>
+  <xr:revisionPtr revIDLastSave="1957" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{341D7951-6AEA-45D2-B1BC-4D1171103BFF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,20 +785,20 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E13">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.55471698113207546</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -807,20 +807,20 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="E14">
         <v>275</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.54918032786885251</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="G14" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1957" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{341D7951-6AEA-45D2-B1BC-4D1171103BFF}"/>
+  <xr:revisionPtr revIDLastSave="1966" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39FC5FDA-DB2D-4970-8CAB-17C12EB58E5C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,20 +697,20 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E9">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.60750853242320824</v>
+        <v>0.60647359454855199</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -1048,20 +1048,20 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C25">
         <v>5</v>
       </c>
       <c r="D25">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E25">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>0.36099585062240663</v>
+        <v>0.35950413223140498</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1070,20 +1070,20 @@
         <v>14</v>
       </c>
       <c r="B26">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
       <c r="D26">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E26">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>0.27728613569321536</v>
+        <v>0.27647058823529413</v>
       </c>
       <c r="G26" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1966" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39FC5FDA-DB2D-4970-8CAB-17C12EB58E5C}"/>
+  <xr:revisionPtr revIDLastSave="1972" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E57B2472-8EF8-484F-9545-59BE936DFAFD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +555,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F27" si="0">(D2-E2)/D2</f>
+        <f>(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -577,7 +577,7 @@
         <v>129</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f>(D3-E3)/D3</f>
         <v>0.75096525096525102</v>
       </c>
       <c r="G3" s="1"/>
@@ -599,7 +599,7 @@
         <v>58</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>(D4-E4)/D4</f>
         <v>0.7410714285714286</v>
       </c>
       <c r="G4" s="1"/>
@@ -621,7 +621,7 @@
         <v>168</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f>(D5-E5)/D5</f>
         <v>0.73626373626373631</v>
       </c>
       <c r="G5" s="1"/>
@@ -643,7 +643,7 @@
         <v>270</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f>(D6-E6)/D6</f>
         <v>0.66911764705882348</v>
       </c>
       <c r="G6" s="1"/>
@@ -665,7 +665,7 @@
         <v>101</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f>(D7-E7)/D7</f>
         <v>0.66885245901639345</v>
       </c>
       <c r="G7" s="1"/>
@@ -687,7 +687,7 @@
         <v>181</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f>(D8-E8)/D8</f>
         <v>0.62133891213389125</v>
       </c>
       <c r="G8" s="1"/>
@@ -709,7 +709,7 @@
         <v>231</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
+        <f>(D9-E9)/D9</f>
         <v>0.60647359454855199</v>
       </c>
       <c r="G9" s="1"/>
@@ -731,7 +731,7 @@
         <v>265</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
+        <f>(D10-E10)/D10</f>
         <v>0.58528951486697967</v>
       </c>
       <c r="G10" s="1"/>
@@ -753,52 +753,52 @@
         <v>239</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f>(D11-E11)/D11</f>
         <v>0.58434782608695657</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>182</v>
+        <v>267</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.55494505494505497</v>
+        <f>(D12-E12)/D12</f>
+        <v>0.55805243445692887</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>265</v>
+        <v>182</v>
       </c>
       <c r="E13">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.55471698113207546</v>
+        <f>(D13-E13)/D13</f>
+        <v>0.55494505494505497</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -819,7 +819,7 @@
         <v>275</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
+        <f>(D14-E14)/D14</f>
         <v>0.5535714285714286</v>
       </c>
       <c r="G14" s="1"/>
@@ -841,7 +841,7 @@
         <v>220</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
+        <f>(D15-E15)/D15</f>
         <v>0.52586206896551724</v>
       </c>
       <c r="G15" s="1"/>
@@ -863,7 +863,7 @@
         <v>154</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
+        <f>(D16-E16)/D16</f>
         <v>0.51265822784810122</v>
       </c>
       <c r="G16" s="1"/>
@@ -885,7 +885,7 @@
         <v>48</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
+        <f>(D17-E17)/D17</f>
         <v>0.51020408163265307</v>
       </c>
       <c r="G17" s="1"/>
@@ -907,7 +907,7 @@
         <v>344</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
+        <f>(D18-E18)/D18</f>
         <v>0.48502994011976047</v>
       </c>
     </row>
@@ -916,20 +916,20 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
       <c r="D19">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E19">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.46648044692737428</v>
+        <f>(D19-E19)/D19</f>
+        <v>0.46518105849582175</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -950,7 +950,7 @@
         <v>361</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
+        <f>(D20-E20)/D20</f>
         <v>0.46359583952451711</v>
       </c>
       <c r="G20" s="1"/>
@@ -972,7 +972,7 @@
         <v>241</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f>(D21-E21)/D21</f>
         <v>0.46205357142857145</v>
       </c>
       <c r="G21" s="1"/>
@@ -994,7 +994,7 @@
         <v>148</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
+        <f>(D22-E22)/D22</f>
         <v>0.43939393939393939</v>
       </c>
       <c r="G22" s="1"/>
@@ -1016,7 +1016,7 @@
         <v>194</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
+        <f>(D23-E23)/D23</f>
         <v>0.39374999999999999</v>
       </c>
       <c r="G23" s="1"/>
@@ -1038,7 +1038,7 @@
         <v>292</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
+        <f>(D24-E24)/D24</f>
         <v>0.38266384778012685</v>
       </c>
       <c r="G24" s="1"/>
@@ -1060,7 +1060,7 @@
         <v>155</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="0"/>
+        <f>(D25-E25)/D25</f>
         <v>0.35950413223140498</v>
       </c>
       <c r="G25" s="1"/>
@@ -1082,7 +1082,7 @@
         <v>246</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="0"/>
+        <f>(D26-E26)/D26</f>
         <v>0.27647058823529413</v>
       </c>
       <c r="G26" s="1"/>
@@ -1104,7 +1104,7 @@
         <v>447</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="0"/>
+        <f>(D27-E27)/D27</f>
         <v>0.26960784313725489</v>
       </c>
       <c r="G27" s="1"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1972" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E57B2472-8EF8-484F-9545-59BE936DFAFD}"/>
+  <xr:revisionPtr revIDLastSave="1980" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE964EFB-AA9F-48EB-9293-448395FBDEA3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +555,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F27" si="0">(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -577,7 +577,7 @@
         <v>129</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.75096525096525102</v>
       </c>
       <c r="G3" s="1"/>
@@ -599,7 +599,7 @@
         <v>58</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.7410714285714286</v>
       </c>
       <c r="G4" s="1"/>
@@ -621,7 +621,7 @@
         <v>168</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.73626373626373631</v>
       </c>
       <c r="G5" s="1"/>
@@ -643,7 +643,7 @@
         <v>270</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.66911764705882348</v>
       </c>
       <c r="G6" s="1"/>
@@ -665,7 +665,7 @@
         <v>101</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="0"/>
         <v>0.66885245901639345</v>
       </c>
       <c r="G7" s="1"/>
@@ -687,7 +687,7 @@
         <v>181</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.62133891213389125</v>
       </c>
       <c r="G8" s="1"/>
@@ -709,7 +709,7 @@
         <v>231</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="0"/>
         <v>0.60647359454855199</v>
       </c>
       <c r="G9" s="1"/>
@@ -731,7 +731,7 @@
         <v>265</v>
       </c>
       <c r="F10" s="2">
-        <f>(D10-E10)/D10</f>
+        <f t="shared" si="0"/>
         <v>0.58528951486697967</v>
       </c>
       <c r="G10" s="1"/>
@@ -753,7 +753,7 @@
         <v>239</v>
       </c>
       <c r="F11" s="2">
-        <f>(D11-E11)/D11</f>
+        <f t="shared" si="0"/>
         <v>0.58434782608695657</v>
       </c>
       <c r="G11" s="1"/>
@@ -775,7 +775,7 @@
         <v>118</v>
       </c>
       <c r="F12" s="2">
-        <f>(D12-E12)/D12</f>
+        <f t="shared" si="0"/>
         <v>0.55805243445692887</v>
       </c>
       <c r="G12" s="1"/>
@@ -797,7 +797,7 @@
         <v>81</v>
       </c>
       <c r="F13" s="2">
-        <f>(D13-E13)/D13</f>
+        <f t="shared" si="0"/>
         <v>0.55494505494505497</v>
       </c>
       <c r="G13" s="1"/>
@@ -819,7 +819,7 @@
         <v>275</v>
       </c>
       <c r="F14" s="2">
-        <f>(D14-E14)/D14</f>
+        <f t="shared" si="0"/>
         <v>0.5535714285714286</v>
       </c>
       <c r="G14" s="1"/>
@@ -841,7 +841,7 @@
         <v>220</v>
       </c>
       <c r="F15" s="2">
-        <f>(D15-E15)/D15</f>
+        <f t="shared" si="0"/>
         <v>0.52586206896551724</v>
       </c>
       <c r="G15" s="1"/>
@@ -863,7 +863,7 @@
         <v>154</v>
       </c>
       <c r="F16" s="2">
-        <f>(D16-E16)/D16</f>
+        <f t="shared" si="0"/>
         <v>0.51265822784810122</v>
       </c>
       <c r="G16" s="1"/>
@@ -873,7 +873,7 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -882,11 +882,11 @@
         <v>98</v>
       </c>
       <c r="E17">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" s="2">
-        <f>(D17-E17)/D17</f>
-        <v>0.51020408163265307</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -907,7 +907,7 @@
         <v>344</v>
       </c>
       <c r="F18" s="2">
-        <f>(D18-E18)/D18</f>
+        <f t="shared" si="0"/>
         <v>0.48502994011976047</v>
       </c>
     </row>
@@ -916,20 +916,20 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
       <c r="D19">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E19">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F19" s="2">
-        <f>(D19-E19)/D19</f>
-        <v>0.46518105849582175</v>
+        <f t="shared" si="0"/>
+        <v>0.46388888888888891</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -950,7 +950,7 @@
         <v>361</v>
       </c>
       <c r="F20" s="2">
-        <f>(D20-E20)/D20</f>
+        <f t="shared" si="0"/>
         <v>0.46359583952451711</v>
       </c>
       <c r="G20" s="1"/>
@@ -972,7 +972,7 @@
         <v>241</v>
       </c>
       <c r="F21" s="2">
-        <f>(D21-E21)/D21</f>
+        <f t="shared" si="0"/>
         <v>0.46205357142857145</v>
       </c>
       <c r="G21" s="1"/>
@@ -994,7 +994,7 @@
         <v>148</v>
       </c>
       <c r="F22" s="2">
-        <f>(D22-E22)/D22</f>
+        <f t="shared" si="0"/>
         <v>0.43939393939393939</v>
       </c>
       <c r="G22" s="1"/>
@@ -1004,20 +1004,20 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C23">
         <v>5</v>
       </c>
       <c r="D23">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E23">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F23" s="2">
-        <f>(D23-E23)/D23</f>
-        <v>0.39374999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.3925233644859813</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1038,7 +1038,7 @@
         <v>292</v>
       </c>
       <c r="F24" s="2">
-        <f>(D24-E24)/D24</f>
+        <f t="shared" si="0"/>
         <v>0.38266384778012685</v>
       </c>
       <c r="G24" s="1"/>
@@ -1060,7 +1060,7 @@
         <v>155</v>
       </c>
       <c r="F25" s="2">
-        <f>(D25-E25)/D25</f>
+        <f t="shared" si="0"/>
         <v>0.35950413223140498</v>
       </c>
       <c r="G25" s="1"/>
@@ -1082,7 +1082,7 @@
         <v>246</v>
       </c>
       <c r="F26" s="2">
-        <f>(D26-E26)/D26</f>
+        <f t="shared" si="0"/>
         <v>0.27647058823529413</v>
       </c>
       <c r="G26" s="1"/>
@@ -1104,7 +1104,7 @@
         <v>447</v>
       </c>
       <c r="F27" s="2">
-        <f>(D27-E27)/D27</f>
+        <f t="shared" si="0"/>
         <v>0.26960784313725489</v>
       </c>
       <c r="G27" s="1"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1980" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE964EFB-AA9F-48EB-9293-448395FBDEA3}"/>
+  <xr:revisionPtr revIDLastSave="1986" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DC4070D-699B-4298-BEC8-61CA83DF07E1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,20 +587,20 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E4">
         <v>58</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.7410714285714286</v>
+        <v>0.74561403508771928</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -851,20 +851,20 @@
         <v>31</v>
       </c>
       <c r="B16">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E16">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>0.51265822784810122</v>
+        <v>0.51410658307210033</v>
       </c>
       <c r="G16" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1986" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DC4070D-699B-4298-BEC8-61CA83DF07E1}"/>
+  <xr:revisionPtr revIDLastSave="1988" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F9D0AD9-AE61-444E-8565-3B40A30AA7B0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,7 +1070,7 @@
         <v>14</v>
       </c>
       <c r="B26">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -1079,11 +1079,11 @@
         <v>340</v>
       </c>
       <c r="E26">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>0.27647058823529413</v>
+        <v>0.27352941176470591</v>
       </c>
       <c r="G26" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1988" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F9D0AD9-AE61-444E-8565-3B40A30AA7B0}"/>
+  <xr:revisionPtr revIDLastSave="1996" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36D347BF-9ECE-423B-AD9B-27C9969E987D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>WINS</t>
   </si>
@@ -72,24 +72,15 @@
     <t>Victória Azárenka (BELARUS)</t>
   </si>
   <si>
-    <t>Iga Świątek (POLAND)</t>
-  </si>
-  <si>
     <t>Angelique Kerber (GERMANY)</t>
   </si>
   <si>
-    <t>Jeļena Ostapenko (LATVIA)</t>
-  </si>
-  <si>
     <t>Sloane Stephens (USA)</t>
   </si>
   <si>
     <t>PLAYER</t>
   </si>
   <si>
-    <t>Barbora Krejčíková (CZECH REPUBLIC)</t>
-  </si>
-  <si>
     <t>NUMBER OF TOURNAMENTS PLAYED</t>
   </si>
   <si>
@@ -121,9 +112,6 @@
   </si>
   <si>
     <t>Caroline Wozniacki (DENMARK)</t>
-  </si>
-  <si>
-    <t>Ana Ivanović (SERBIA)</t>
   </si>
   <si>
     <t>Marion Bartoli (FRANCE)</t>
@@ -501,31 +489,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -555,14 +543,14 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F27" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F23" si="0">(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>184</v>
@@ -584,45 +572,45 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>228</v>
+        <v>637</v>
       </c>
       <c r="E4">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.74561403508771928</v>
+        <v>0.73626373626373631</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>218</v>
+        <v>333</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>637</v>
+        <v>816</v>
       </c>
       <c r="E5">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.73626373626373631</v>
+        <v>0.66911764705882348</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -631,482 +619,406 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>333</v>
+        <v>125</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>816</v>
+        <v>305</v>
       </c>
       <c r="E6">
-        <v>270</v>
+        <v>101</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.66911764705882348</v>
+        <v>0.66885245901639345</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>305</v>
+        <v>478</v>
       </c>
       <c r="E7">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.66885245901639345</v>
+        <v>0.62133891213389125</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>478</v>
+        <v>587</v>
       </c>
       <c r="E8">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.62133891213389125</v>
+        <v>0.60647359454855199</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>587</v>
+        <v>639</v>
       </c>
       <c r="E9">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.60647359454855199</v>
+        <v>0.58528951486697967</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="E10">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.58528951486697967</v>
+        <v>0.58434782608695657</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>133</v>
+      </c>
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="B11">
-        <v>276</v>
-      </c>
-      <c r="C11">
-        <v>24</v>
-      </c>
       <c r="D11">
-        <v>575</v>
+        <v>267</v>
       </c>
       <c r="E11">
-        <v>239</v>
+        <v>118</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.58434782608695657</v>
+        <v>0.55805243445692887</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>267</v>
+        <v>182</v>
       </c>
       <c r="E12">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.55805243445692887</v>
+        <v>0.55494505494505497</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>182</v>
+        <v>616</v>
       </c>
       <c r="E13">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.55494505494505497</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B14">
+        <v>174</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
         <v>319</v>
       </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <v>616</v>
-      </c>
       <c r="E14">
-        <v>275</v>
+        <v>155</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.5535714285714286</v>
+        <v>0.51410658307210033</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>464</v>
+        <v>98</v>
       </c>
       <c r="E15">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0.52586206896551724</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>174</v>
+        <v>367</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>319</v>
+        <v>668</v>
       </c>
       <c r="E16">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>0.51410658307210033</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>0.48502994011976047</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>51</v>
+        <v>385</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>98</v>
+        <v>673</v>
       </c>
       <c r="E17">
-        <v>49</v>
+        <v>361</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.46359583952451711</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>367</v>
+        <v>258</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>668</v>
+        <v>448</v>
       </c>
       <c r="E18">
-        <v>344</v>
+        <v>241</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>0.48502994011976047</v>
-      </c>
+        <v>0.46205357142857145</v>
+      </c>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>360</v>
+        <v>264</v>
       </c>
       <c r="E19">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>0.46388888888888891</v>
+        <v>0.43939393939393939</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>385</v>
+        <v>311</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>673</v>
+        <v>473</v>
       </c>
       <c r="E20">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.46359583952451711</v>
+        <v>0.38266384778012685</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>448</v>
+        <v>242</v>
       </c>
       <c r="E21">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>0.46205357142857145</v>
+        <v>0.35950413223140498</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
       <c r="D22">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="E22">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.43939393939393939</v>
+        <v>0.27352941176470591</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>209</v>
+        <v>456</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>321</v>
+        <v>612</v>
       </c>
       <c r="E23">
-        <v>195</v>
+        <v>447</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.3925233644859813</v>
+        <v>0.26960784313725489</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>311</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>473</v>
-      </c>
-      <c r="E24">
-        <v>292</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.38266384778012685</v>
-      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25">
-        <v>164</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>242</v>
-      </c>
-      <c r="E25">
-        <v>155</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="0"/>
-        <v>0.35950413223140498</v>
-      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26">
-        <v>257</v>
-      </c>
-      <c r="C26">
-        <v>7</v>
-      </c>
-      <c r="D26">
-        <v>340</v>
-      </c>
-      <c r="E26">
-        <v>247</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="0"/>
-        <v>0.27352941176470591</v>
-      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>456</v>
-      </c>
-      <c r="C27">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>612</v>
-      </c>
-      <c r="E27">
-        <v>447</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="0"/>
-        <v>0.26960784313725489</v>
-      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1133,26 +1045,14 @@
     <row r="35" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G39" s="1"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{886A4C9F-69C7-4226-BCD2-6825075A697E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F25">
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F2:F20 F43">
-    <cfRule type="iconSet" priority="61">
+  <conditionalFormatting sqref="F39">
+    <cfRule type="iconSet" priority="62">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1160,8 +1060,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F27">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="F2:F23">
+    <cfRule type="iconSet" priority="64">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1996" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36D347BF-9ECE-423B-AD9B-27C9969E987D}"/>
+  <xr:revisionPtr revIDLastSave="1998" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8791B3DF-9DAE-48F1-BE86-B84D57382680}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,7 +773,7 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C13">
         <v>30</v>
@@ -782,11 +782,11 @@
         <v>616</v>
       </c>
       <c r="E13">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.5535714285714286</v>
+        <v>0.55194805194805197</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1051,8 +1051,8 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="iconSet" priority="62">
+  <conditionalFormatting sqref="F2:F23">
+    <cfRule type="iconSet" priority="64">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1060,8 +1060,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F23">
-    <cfRule type="iconSet" priority="64">
+  <conditionalFormatting sqref="F39">
+    <cfRule type="iconSet" priority="62">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1998" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8791B3DF-9DAE-48F1-BE86-B84D57382680}"/>
+  <xr:revisionPtr revIDLastSave="2006" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5289C3AA-E755-4C1B-BC12-A7253D9D9354}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Women's Singles GS Champs" sheetId="1" r:id="rId1"/>
+    <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Women''s Singles GS Champs'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WTA YTD Leaderboard'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -183,10 +183,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,7 +488,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C8">
         <v>21</v>
@@ -672,11 +668,11 @@
         <v>587</v>
       </c>
       <c r="E8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.60647359454855199</v>
+        <v>0.60477001703577515</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -729,20 +725,20 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.55805243445692887</v>
+        <v>0.55223880597014929</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -751,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -760,11 +756,11 @@
         <v>182</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.55494505494505497</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="G12" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2006" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5289C3AA-E755-4C1B-BC12-A7253D9D9354}"/>
+  <xr:revisionPtr revIDLastSave="2019" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7898AF7-B62D-4156-8A5F-6D91856D902B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -183,6 +183,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,45 +748,45 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>94</v>
+        <v>320</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>182</v>
+        <v>616</v>
       </c>
       <c r="E12">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.5494505494505495</v>
+        <v>0.55194805194805197</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>320</v>
+        <v>94</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>616</v>
+        <v>182</v>
       </c>
       <c r="E13">
-        <v>276</v>
+        <v>82</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.55194805194805197</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -791,20 +795,20 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E14">
         <v>155</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.51410658307210033</v>
+        <v>0.52307692307692311</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -828,7 +832,6 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -850,6 +853,7 @@
         <f t="shared" si="0"/>
         <v>0.48502994011976047</v>
       </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -966,20 +970,20 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
       <c r="D22">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E22">
         <v>247</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.27352941176470591</v>
+        <v>0.28405797101449276</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1038,17 +1042,14 @@
     <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G35" s="1"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{886A4C9F-69C7-4226-BCD2-6825075A697E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F25">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F24">
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F2:F23">
-    <cfRule type="iconSet" priority="64">
+  <conditionalFormatting sqref="F38">
+    <cfRule type="iconSet" priority="62">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1056,8 +1057,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="iconSet" priority="62">
+  <conditionalFormatting sqref="F2:F23">
+    <cfRule type="iconSet" priority="65">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2019" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7898AF7-B62D-4156-8A5F-6D91856D902B}"/>
+  <xr:revisionPtr revIDLastSave="2026" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F73FA602-A44B-4A0A-95F7-0954F8466C7D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -782,11 +782,11 @@
         <v>182</v>
       </c>
       <c r="E13">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.5494505494505495</v>
+        <v>0.54395604395604391</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -795,7 +795,7 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -804,11 +804,11 @@
         <v>325</v>
       </c>
       <c r="E14">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.52307692307692311</v>
+        <v>0.52</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -970,20 +970,20 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
       <c r="D22">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E22">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.28405797101449276</v>
+        <v>0.2832369942196532</v>
       </c>
       <c r="G22" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2026" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F73FA602-A44B-4A0A-95F7-0954F8466C7D}"/>
+  <xr:revisionPtr revIDLastSave="2032" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E378C2EC-4F6F-4181-A043-526B60A22AA5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,7 +948,7 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -957,11 +957,11 @@
         <v>242</v>
       </c>
       <c r="E21">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>0.35950413223140498</v>
+        <v>0.3512396694214876</v>
       </c>
       <c r="G21" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2032" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E378C2EC-4F6F-4181-A043-526B60A22AA5}"/>
+  <xr:revisionPtr revIDLastSave="2039" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2D071E-A290-4118-91DC-217DB53985E9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -729,10 +729,10 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>268</v>
@@ -948,7 +948,7 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -957,11 +957,11 @@
         <v>242</v>
       </c>
       <c r="E21">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>0.3512396694214876</v>
+        <v>0.34710743801652894</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -970,20 +970,20 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
       <c r="D22">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E22">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.2832369942196532</v>
+        <v>0.28653295128939826</v>
       </c>
       <c r="G22" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2039" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2D071E-A290-4118-91DC-217DB53985E9}"/>
+  <xr:revisionPtr revIDLastSave="2041" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{973B4631-2D30-4BE3-AC85-AE0533E38B68}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C12">
         <v>30</v>
@@ -760,11 +760,11 @@
         <v>616</v>
       </c>
       <c r="E12">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.55194805194805197</v>
+        <v>0.55032467532467533</v>
       </c>
       <c r="G12" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2041" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{973B4631-2D30-4BE3-AC85-AE0533E38B68}"/>
+  <xr:revisionPtr revIDLastSave="2044" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8FF3661-065F-4D22-94BC-D995497DCB2B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,20 +663,20 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C8">
         <v>21</v>
       </c>
       <c r="D8">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.60477001703577515</v>
+        <v>0.6037414965986394</v>
       </c>
       <c r="G8" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2044" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8FF3661-065F-4D22-94BC-D995497DCB2B}"/>
+  <xr:revisionPtr revIDLastSave="2047" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4673DFCE-9F9A-44E4-91AA-2F3D4AD79CCA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,20 +729,20 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E11">
         <v>120</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.55223880597014929</v>
+        <v>0.56521739130434778</v>
       </c>
       <c r="G11" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2047" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4673DFCE-9F9A-44E4-91AA-2F3D4AD79CCA}"/>
+  <xr:revisionPtr revIDLastSave="2050" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17DF3696-0831-4A9E-A952-E64DBA3F7408}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,20 +773,20 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E13">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.54395604395604391</v>
+        <v>0.54347826086956519</v>
       </c>
       <c r="G13" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2050" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17DF3696-0831-4A9E-A952-E64DBA3F7408}"/>
+  <xr:revisionPtr revIDLastSave="2053" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB7D973D-1F5C-49F1-A7DA-7F3E55C40B45}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -970,20 +970,20 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
       <c r="D22">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E22">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.28653295128939826</v>
+        <v>0.28977272727272729</v>
       </c>
       <c r="G22" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2053" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB7D973D-1F5C-49F1-A7DA-7F3E55C40B45}"/>
+  <xr:revisionPtr revIDLastSave="2056" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91C7C0AC-D8F8-4C4A-9CF0-6FB0120551E9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,20 +795,20 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E14">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>0.52424242424242429</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1048,8 +1048,8 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="iconSet" priority="62">
+  <conditionalFormatting sqref="F2:F23">
+    <cfRule type="iconSet" priority="65">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1057,8 +1057,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F23">
-    <cfRule type="iconSet" priority="65">
+  <conditionalFormatting sqref="F38">
+    <cfRule type="iconSet" priority="62">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2056" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91C7C0AC-D8F8-4C4A-9CF0-6FB0120551E9}"/>
+  <xr:revisionPtr revIDLastSave="2058" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{615D1EA8-227E-47A5-95A3-492B14B1FA37}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +597,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C5">
         <v>49</v>
@@ -606,11 +606,11 @@
         <v>816</v>
       </c>
       <c r="E5">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66911764705882348</v>
+        <v>0.66789215686274506</v>
       </c>
       <c r="G5" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2058" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{615D1EA8-227E-47A5-95A3-492B14B1FA37}"/>
+  <xr:revisionPtr revIDLastSave="2061" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8571B0D-71F6-44B9-ABF1-C3CC107A2CE6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,20 +663,20 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C8">
         <v>21</v>
       </c>
       <c r="D8">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.6037414965986394</v>
+        <v>0.60271646859083194</v>
       </c>
       <c r="G8" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2061" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8571B0D-71F6-44B9-ABF1-C3CC107A2CE6}"/>
+  <xr:revisionPtr revIDLastSave="2064" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{110A6565-937D-4E95-B1D6-0F82E44F2941}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,20 +773,20 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E13">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.54347826086956519</v>
+        <v>0.54054054054054057</v>
       </c>
       <c r="G13" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2064" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{110A6565-937D-4E95-B1D6-0F82E44F2941}"/>
+  <xr:revisionPtr revIDLastSave="2071" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{485F5C55-7CA1-472C-9A3E-F9B04D72A712}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,7 +663,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C8">
         <v>21</v>
@@ -672,11 +672,11 @@
         <v>589</v>
       </c>
       <c r="E8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.60271646859083194</v>
+        <v>0.60101867572156198</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -729,20 +729,20 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.56521739130434778</v>
+        <v>0.56317689530685922</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -773,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -782,11 +782,11 @@
         <v>185</v>
       </c>
       <c r="E13">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.54054054054054057</v>
+        <v>0.53513513513513511</v>
       </c>
       <c r="G13" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2071" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{485F5C55-7CA1-472C-9A3E-F9B04D72A712}"/>
+  <xr:revisionPtr revIDLastSave="2078" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32E3BBF2-7018-4D86-847E-EFD6A89F30D8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,20 +597,20 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C5">
         <v>49</v>
       </c>
       <c r="D5">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E5">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66789215686274506</v>
+        <v>0.66707466340269272</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -795,20 +795,20 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E14">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.52424242424242429</v>
+        <v>0.5226586102719033</v>
       </c>
       <c r="G14" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2078" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32E3BBF2-7018-4D86-847E-EFD6A89F30D8}"/>
+  <xr:revisionPtr revIDLastSave="2081" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5E95FF0-3B69-4A0A-9676-C2A8090A134A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,20 +751,20 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="E12">
         <v>277</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.55032467532467533</v>
+        <v>0.55394524959742353</v>
       </c>
       <c r="G12" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2081" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5E95FF0-3B69-4A0A-9676-C2A8090A134A}"/>
+  <xr:revisionPtr revIDLastSave="2084" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7624D2CE-0E1B-43FC-8E4F-FD07E864D766}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,20 +773,20 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E13">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.53513513513513511</v>
+        <v>0.532258064516129</v>
       </c>
       <c r="G13" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2084" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7624D2CE-0E1B-43FC-8E4F-FD07E864D766}"/>
+  <xr:revisionPtr revIDLastSave="2090" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B05EFFDB-5882-404A-B3FA-3756F8DE941B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,20 +948,20 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E21">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>0.34710743801652894</v>
+        <v>0.3588709677419355</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -970,20 +970,20 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
       <c r="D22">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E22">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.28977272727272729</v>
+        <v>0.28895184135977336</v>
       </c>
       <c r="G22" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2039" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2D071E-A290-4118-91DC-217DB53985E9}"/>
+  <xr:revisionPtr revIDLastSave="2096" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A6C186B-4216-4A04-95B9-75A78F256E1B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,20 +597,20 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C5">
         <v>49</v>
       </c>
       <c r="D5">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E5">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66911764705882348</v>
+        <v>0.66707466340269272</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -663,20 +663,20 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C8">
         <v>21</v>
       </c>
       <c r="D8">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="E8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.60477001703577515</v>
+        <v>0.60135135135135132</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -729,20 +729,20 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="E11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.55223880597014929</v>
+        <v>0.56317689530685922</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -751,20 +751,20 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="E12">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.55194805194805197</v>
+        <v>0.55394524959742353</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -773,20 +773,20 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E13">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.54395604395604391</v>
+        <v>0.53191489361702127</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -795,20 +795,20 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E14">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>0.5226586102719033</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -948,20 +948,20 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E21">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>0.34710743801652894</v>
+        <v>0.3588709677419355</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -970,20 +970,20 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
       <c r="D22">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E22">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.28653295128939826</v>
+        <v>0.28895184135977336</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1048,8 +1048,8 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="iconSet" priority="62">
+  <conditionalFormatting sqref="F2:F23">
+    <cfRule type="iconSet" priority="65">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1057,8 +1057,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F23">
-    <cfRule type="iconSet" priority="65">
+  <conditionalFormatting sqref="F38">
+    <cfRule type="iconSet" priority="62">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2096" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A6C186B-4216-4A04-95B9-75A78F256E1B}"/>
+  <xr:revisionPtr revIDLastSave="2099" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DA73C30-9B82-4E67-B9E1-226CD2568517}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,20 +751,20 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C12">
         <v>31</v>
       </c>
       <c r="D12">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="E12">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.55394524959742353</v>
+        <v>0.55448717948717952</v>
       </c>
       <c r="G12" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2099" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DA73C30-9B82-4E67-B9E1-226CD2568517}"/>
+  <xr:revisionPtr revIDLastSave="2102" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C59695AA-D3F5-4C32-82CC-B4424848B5FC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,20 +729,20 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.56317689530685922</v>
+        <v>0.5658362989323843</v>
       </c>
       <c r="G11" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2102" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C59695AA-D3F5-4C32-82CC-B4424848B5FC}"/>
+  <xr:revisionPtr revIDLastSave="2105" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1377AC0B-C217-4061-9813-05E3E486DEDC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,20 +795,20 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E14">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.5226586102719033</v>
+        <v>0.5267857142857143</v>
       </c>
       <c r="G14" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2105" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1377AC0B-C217-4061-9813-05E3E486DEDC}"/>
+  <xr:revisionPtr revIDLastSave="2117" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB7D4683-E578-4C7B-A144-1761CB0A257A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>WINS</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Aryna Sabalenka (BELARUS)</t>
+  </si>
+  <si>
+    <t>Markéta Vondroušová (CZECH REPUBLIC)</t>
   </si>
 </sst>
 </file>
@@ -492,12 +495,12 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
@@ -543,7 +546,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F23" si="0">(D2-E2)/D2</f>
+        <f>(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -565,7 +568,7 @@
         <v>129</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f>(D3-E3)/D3</f>
         <v>0.75096525096525102</v>
       </c>
       <c r="G3" s="1"/>
@@ -587,52 +590,52 @@
         <v>168</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>(D4-E4)/D4</f>
         <v>0.73626373626373631</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>335</v>
+        <v>125</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>817</v>
+        <v>305</v>
       </c>
       <c r="E5">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.66707466340269272</v>
+        <f>(D5-E5)/D5</f>
+        <v>0.66885245901639345</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>125</v>
+        <v>335</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>305</v>
+        <v>817</v>
       </c>
       <c r="E6">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.66885245901639345</v>
+        <f>(D6-E6)/D6</f>
+        <v>0.66707466340269272</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -641,20 +644,20 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="E7">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.62133891213389125</v>
+        <f>(D7-E7)/D7</f>
+        <v>0.63636363636363635</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -675,7 +678,7 @@
         <v>236</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f>(D8-E8)/D8</f>
         <v>0.60135135135135132</v>
       </c>
       <c r="G8" s="1"/>
@@ -697,7 +700,7 @@
         <v>265</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
+        <f>(D9-E9)/D9</f>
         <v>0.58528951486697967</v>
       </c>
       <c r="G9" s="1"/>
@@ -719,7 +722,7 @@
         <v>239</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
+        <f>(D10-E10)/D10</f>
         <v>0.58434782608695657</v>
       </c>
       <c r="G10" s="1"/>
@@ -741,275 +744,294 @@
         <v>122</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f>(D11-E11)/D11</f>
         <v>0.5658362989323843</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>323</v>
+        <v>116</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>624</v>
+        <v>225</v>
       </c>
       <c r="E12">
-        <v>278</v>
+        <v>99</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.55448717948717952</v>
+        <f>(D12-E12)/D12</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>323</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>188</v>
+        <v>624</v>
       </c>
       <c r="E13">
-        <v>88</v>
+        <v>278</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.53191489361702127</v>
+        <f>(D13-E13)/D13</f>
+        <v>0.55448717948717952</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>336</v>
+        <v>188</v>
       </c>
       <c r="E14">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5267857142857143</v>
+        <f>(D14-E14)/D14</f>
+        <v>0.53191489361702127</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B15">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>98</v>
+        <v>336</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>(D15-E15)/D15</f>
+        <v>0.5267857142857143</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>367</v>
+        <v>51</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>668</v>
+        <v>98</v>
       </c>
       <c r="E16">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.48502994011976047</v>
+        <f>(D16-E16)/D16</f>
+        <v>0.5</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E17">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.46359583952451711</v>
+        <f>(D17-E17)/D17</f>
+        <v>0.48502994011976047</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>258</v>
+        <v>385</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>448</v>
+        <v>673</v>
       </c>
       <c r="E18">
-        <v>241</v>
+        <v>361</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.46205357142857145</v>
+        <f>(D18-E18)/D18</f>
+        <v>0.46359583952451711</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>264</v>
+        <v>448</v>
       </c>
       <c r="E19">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.43939393939393939</v>
+        <f>(D19-E19)/D19</f>
+        <v>0.46205357142857145</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>311</v>
+        <v>161</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>473</v>
+        <v>264</v>
       </c>
       <c r="E20">
-        <v>292</v>
+        <v>148</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.38266384778012685</v>
+        <f>(D20-E20)/D20</f>
+        <v>0.43939393939393939</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>168</v>
+        <v>311</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>248</v>
+        <v>473</v>
       </c>
       <c r="E21">
-        <v>159</v>
+        <v>292</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.3588709677419355</v>
+        <f>(D21-E21)/D21</f>
+        <v>0.38266384778012685</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>353</v>
+        <v>248</v>
       </c>
       <c r="E22">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.28895184135977336</v>
+        <f>(D22-E22)/D22</f>
+        <v>0.3588709677419355</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>262</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>353</v>
+      </c>
+      <c r="E23">
+        <v>251</v>
+      </c>
+      <c r="F23" s="2">
+        <f>(D23-E23)/D23</f>
+        <v>0.28895184135977336</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>456</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>612</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>447</v>
       </c>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
+      <c r="F24" s="2">
+        <f>(D24-E24)/D24</f>
         <v>0.26960784313725489</v>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1048,7 +1070,7 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F2:F23">
+  <conditionalFormatting sqref="F2:F24">
     <cfRule type="iconSet" priority="65">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2117" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB7D4683-E578-4C7B-A144-1761CB0A257A}"/>
+  <xr:revisionPtr revIDLastSave="2119" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF3B970D-290A-404A-A4CE-18205E958799}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F24" si="0">(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -568,7 +568,7 @@
         <v>129</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.75096525096525102</v>
       </c>
       <c r="G3" s="1"/>
@@ -590,7 +590,7 @@
         <v>168</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.73626373626373631</v>
       </c>
       <c r="G4" s="1"/>
@@ -612,7 +612,7 @@
         <v>101</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.66885245901639345</v>
       </c>
       <c r="G5" s="1"/>
@@ -634,7 +634,7 @@
         <v>272</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.66707466340269272</v>
       </c>
       <c r="G6" s="1"/>
@@ -656,7 +656,7 @@
         <v>184</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="0"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="G7" s="1"/>
@@ -678,7 +678,7 @@
         <v>236</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.60135135135135132</v>
       </c>
       <c r="G8" s="1"/>
@@ -700,7 +700,7 @@
         <v>265</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="0"/>
         <v>0.58528951486697967</v>
       </c>
       <c r="G9" s="1"/>
@@ -722,7 +722,7 @@
         <v>239</v>
       </c>
       <c r="F10" s="2">
-        <f>(D10-E10)/D10</f>
+        <f t="shared" si="0"/>
         <v>0.58434782608695657</v>
       </c>
       <c r="G10" s="1"/>
@@ -744,7 +744,7 @@
         <v>122</v>
       </c>
       <c r="F11" s="2">
-        <f>(D11-E11)/D11</f>
+        <f t="shared" si="0"/>
         <v>0.5658362989323843</v>
       </c>
       <c r="G11" s="1"/>
@@ -766,7 +766,7 @@
         <v>99</v>
       </c>
       <c r="F12" s="2">
-        <f>(D12-E12)/D12</f>
+        <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="G12" s="1"/>
@@ -788,7 +788,7 @@
         <v>278</v>
       </c>
       <c r="F13" s="2">
-        <f>(D13-E13)/D13</f>
+        <f t="shared" si="0"/>
         <v>0.55448717948717952</v>
       </c>
       <c r="G13" s="1"/>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -807,11 +807,11 @@
         <v>188</v>
       </c>
       <c r="E14">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="2">
-        <f>(D14-E14)/D14</f>
-        <v>0.53191489361702127</v>
+        <f t="shared" si="0"/>
+        <v>0.52659574468085102</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -832,7 +832,7 @@
         <v>159</v>
       </c>
       <c r="F15" s="2">
-        <f>(D15-E15)/D15</f>
+        <f t="shared" si="0"/>
         <v>0.5267857142857143</v>
       </c>
     </row>
@@ -853,7 +853,7 @@
         <v>49</v>
       </c>
       <c r="F16" s="2">
-        <f>(D16-E16)/D16</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="G16" s="1"/>
@@ -875,7 +875,7 @@
         <v>344</v>
       </c>
       <c r="F17" s="2">
-        <f>(D17-E17)/D17</f>
+        <f t="shared" si="0"/>
         <v>0.48502994011976047</v>
       </c>
       <c r="G17" s="1"/>
@@ -897,7 +897,7 @@
         <v>361</v>
       </c>
       <c r="F18" s="2">
-        <f>(D18-E18)/D18</f>
+        <f t="shared" si="0"/>
         <v>0.46359583952451711</v>
       </c>
       <c r="G18" s="1"/>
@@ -919,7 +919,7 @@
         <v>241</v>
       </c>
       <c r="F19" s="2">
-        <f>(D19-E19)/D19</f>
+        <f t="shared" si="0"/>
         <v>0.46205357142857145</v>
       </c>
       <c r="G19" s="1"/>
@@ -941,7 +941,7 @@
         <v>148</v>
       </c>
       <c r="F20" s="2">
-        <f>(D20-E20)/D20</f>
+        <f t="shared" si="0"/>
         <v>0.43939393939393939</v>
       </c>
       <c r="G20" s="1"/>
@@ -963,7 +963,7 @@
         <v>292</v>
       </c>
       <c r="F21" s="2">
-        <f>(D21-E21)/D21</f>
+        <f t="shared" si="0"/>
         <v>0.38266384778012685</v>
       </c>
       <c r="G21" s="1"/>
@@ -985,7 +985,7 @@
         <v>159</v>
       </c>
       <c r="F22" s="2">
-        <f>(D22-E22)/D22</f>
+        <f t="shared" si="0"/>
         <v>0.3588709677419355</v>
       </c>
       <c r="G22" s="1"/>
@@ -1007,7 +1007,7 @@
         <v>251</v>
       </c>
       <c r="F23" s="2">
-        <f>(D23-E23)/D23</f>
+        <f t="shared" si="0"/>
         <v>0.28895184135977336</v>
       </c>
       <c r="G23" s="1"/>
@@ -1029,7 +1029,7 @@
         <v>447</v>
       </c>
       <c r="F24" s="2">
-        <f>(D24-E24)/D24</f>
+        <f t="shared" si="0"/>
         <v>0.26960784313725489</v>
       </c>
       <c r="G24" s="1"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2119" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF3B970D-290A-404A-A4CE-18205E958799}"/>
+  <xr:revisionPtr revIDLastSave="2123" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48E9D96F-9B74-4523-9EA1-3254F768FDAE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,7 +666,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C8">
         <v>21</v>
@@ -675,11 +675,11 @@
         <v>592</v>
       </c>
       <c r="E8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.60135135135135132</v>
+        <v>0.59966216216216217</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -995,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -1004,11 +1004,11 @@
         <v>353</v>
       </c>
       <c r="E23">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.28895184135977336</v>
+        <v>0.28611898016997167</v>
       </c>
       <c r="G23" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2123" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48E9D96F-9B74-4523-9EA1-3254F768FDAE}"/>
+  <xr:revisionPtr revIDLastSave="2128" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1B3B963-4616-49F5-B6AB-896CDC9AAC34}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F24" si="0">(D2-E2)/D2</f>
+        <f>(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -568,7 +568,7 @@
         <v>129</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f>(D3-E3)/D3</f>
         <v>0.75096525096525102</v>
       </c>
       <c r="G3" s="1"/>
@@ -590,7 +590,7 @@
         <v>168</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>(D4-E4)/D4</f>
         <v>0.73626373626373631</v>
       </c>
       <c r="G4" s="1"/>
@@ -612,7 +612,7 @@
         <v>101</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f>(D5-E5)/D5</f>
         <v>0.66885245901639345</v>
       </c>
       <c r="G5" s="1"/>
@@ -634,7 +634,7 @@
         <v>272</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f>(D6-E6)/D6</f>
         <v>0.66707466340269272</v>
       </c>
       <c r="G6" s="1"/>
@@ -656,7 +656,7 @@
         <v>184</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f>(D7-E7)/D7</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="G7" s="1"/>
@@ -666,20 +666,20 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C8">
         <v>21</v>
       </c>
       <c r="D8">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E8">
         <v>237</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.59966216216216217</v>
+        <f>(D8-E8)/D8</f>
+        <v>0.6003372681281619</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -700,7 +700,7 @@
         <v>265</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
+        <f>(D9-E9)/D9</f>
         <v>0.58528951486697967</v>
       </c>
       <c r="G9" s="1"/>
@@ -722,7 +722,7 @@
         <v>239</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
+        <f>(D10-E10)/D10</f>
         <v>0.58434782608695657</v>
       </c>
       <c r="G10" s="1"/>
@@ -744,7 +744,7 @@
         <v>122</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f>(D11-E11)/D11</f>
         <v>0.5658362989323843</v>
       </c>
       <c r="G11" s="1"/>
@@ -766,7 +766,7 @@
         <v>99</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
+        <f>(D12-E12)/D12</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="G12" s="1"/>
@@ -788,52 +788,52 @@
         <v>278</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
+        <f>(D13-E13)/D13</f>
         <v>0.55448717948717952</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>188</v>
+        <v>336</v>
       </c>
       <c r="E14">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.52659574468085102</v>
+        <f>(D14-E14)/D14</f>
+        <v>0.5267857142857143</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>336</v>
+        <v>188</v>
       </c>
       <c r="E15">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5267857142857143</v>
+        <f>(D15-E15)/D15</f>
+        <v>0.52127659574468088</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -853,7 +853,7 @@
         <v>49</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
+        <f>(D16-E16)/D16</f>
         <v>0.5</v>
       </c>
       <c r="G16" s="1"/>
@@ -875,7 +875,7 @@
         <v>344</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
+        <f>(D17-E17)/D17</f>
         <v>0.48502994011976047</v>
       </c>
       <c r="G17" s="1"/>
@@ -897,7 +897,7 @@
         <v>361</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
+        <f>(D18-E18)/D18</f>
         <v>0.46359583952451711</v>
       </c>
       <c r="G18" s="1"/>
@@ -919,7 +919,7 @@
         <v>241</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
+        <f>(D19-E19)/D19</f>
         <v>0.46205357142857145</v>
       </c>
       <c r="G19" s="1"/>
@@ -941,7 +941,7 @@
         <v>148</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
+        <f>(D20-E20)/D20</f>
         <v>0.43939393939393939</v>
       </c>
       <c r="G20" s="1"/>
@@ -963,7 +963,7 @@
         <v>292</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f>(D21-E21)/D21</f>
         <v>0.38266384778012685</v>
       </c>
       <c r="G21" s="1"/>
@@ -985,7 +985,7 @@
         <v>159</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
+        <f>(D22-E22)/D22</f>
         <v>0.3588709677419355</v>
       </c>
       <c r="G22" s="1"/>
@@ -1007,7 +1007,7 @@
         <v>252</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
+        <f>(D23-E23)/D23</f>
         <v>0.28611898016997167</v>
       </c>
       <c r="G23" s="1"/>
@@ -1029,7 +1029,7 @@
         <v>447</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
+        <f>(D24-E24)/D24</f>
         <v>0.26960784313725489</v>
       </c>
       <c r="G24" s="1"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2128" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1B3B963-4616-49F5-B6AB-896CDC9AAC34}"/>
+  <xr:revisionPtr revIDLastSave="2131" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C19E8C58-FF21-489B-8597-F1F39C9EE7FA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F24" si="0">(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -568,7 +568,7 @@
         <v>129</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.75096525096525102</v>
       </c>
       <c r="G3" s="1"/>
@@ -590,7 +590,7 @@
         <v>168</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.73626373626373631</v>
       </c>
       <c r="G4" s="1"/>
@@ -612,7 +612,7 @@
         <v>101</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.66885245901639345</v>
       </c>
       <c r="G5" s="1"/>
@@ -634,7 +634,7 @@
         <v>272</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.66707466340269272</v>
       </c>
       <c r="G6" s="1"/>
@@ -656,7 +656,7 @@
         <v>184</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="0"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="G7" s="1"/>
@@ -678,7 +678,7 @@
         <v>237</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.6003372681281619</v>
       </c>
       <c r="G8" s="1"/>
@@ -688,20 +688,20 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C9">
         <v>30</v>
       </c>
       <c r="D9">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E9">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9-E9)/D9</f>
-        <v>0.58528951486697967</v>
+        <f t="shared" si="0"/>
+        <v>0.58437499999999998</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -722,7 +722,7 @@
         <v>239</v>
       </c>
       <c r="F10" s="2">
-        <f>(D10-E10)/D10</f>
+        <f t="shared" si="0"/>
         <v>0.58434782608695657</v>
       </c>
       <c r="G10" s="1"/>
@@ -744,7 +744,7 @@
         <v>122</v>
       </c>
       <c r="F11" s="2">
-        <f>(D11-E11)/D11</f>
+        <f t="shared" si="0"/>
         <v>0.5658362989323843</v>
       </c>
       <c r="G11" s="1"/>
@@ -766,7 +766,7 @@
         <v>99</v>
       </c>
       <c r="F12" s="2">
-        <f>(D12-E12)/D12</f>
+        <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="G12" s="1"/>
@@ -788,7 +788,7 @@
         <v>278</v>
       </c>
       <c r="F13" s="2">
-        <f>(D13-E13)/D13</f>
+        <f t="shared" si="0"/>
         <v>0.55448717948717952</v>
       </c>
       <c r="G13" s="1"/>
@@ -810,7 +810,7 @@
         <v>159</v>
       </c>
       <c r="F14" s="2">
-        <f>(D14-E14)/D14</f>
+        <f t="shared" si="0"/>
         <v>0.5267857142857143</v>
       </c>
       <c r="G14" s="1"/>
@@ -832,7 +832,7 @@
         <v>90</v>
       </c>
       <c r="F15" s="2">
-        <f>(D15-E15)/D15</f>
+        <f t="shared" si="0"/>
         <v>0.52127659574468088</v>
       </c>
     </row>
@@ -853,7 +853,7 @@
         <v>49</v>
       </c>
       <c r="F16" s="2">
-        <f>(D16-E16)/D16</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="G16" s="1"/>
@@ -875,7 +875,7 @@
         <v>344</v>
       </c>
       <c r="F17" s="2">
-        <f>(D17-E17)/D17</f>
+        <f t="shared" si="0"/>
         <v>0.48502994011976047</v>
       </c>
       <c r="G17" s="1"/>
@@ -897,7 +897,7 @@
         <v>361</v>
       </c>
       <c r="F18" s="2">
-        <f>(D18-E18)/D18</f>
+        <f t="shared" si="0"/>
         <v>0.46359583952451711</v>
       </c>
       <c r="G18" s="1"/>
@@ -919,7 +919,7 @@
         <v>241</v>
       </c>
       <c r="F19" s="2">
-        <f>(D19-E19)/D19</f>
+        <f t="shared" si="0"/>
         <v>0.46205357142857145</v>
       </c>
       <c r="G19" s="1"/>
@@ -941,7 +941,7 @@
         <v>148</v>
       </c>
       <c r="F20" s="2">
-        <f>(D20-E20)/D20</f>
+        <f t="shared" si="0"/>
         <v>0.43939393939393939</v>
       </c>
       <c r="G20" s="1"/>
@@ -963,7 +963,7 @@
         <v>292</v>
       </c>
       <c r="F21" s="2">
-        <f>(D21-E21)/D21</f>
+        <f t="shared" si="0"/>
         <v>0.38266384778012685</v>
       </c>
       <c r="G21" s="1"/>
@@ -985,7 +985,7 @@
         <v>159</v>
       </c>
       <c r="F22" s="2">
-        <f>(D22-E22)/D22</f>
+        <f t="shared" si="0"/>
         <v>0.3588709677419355</v>
       </c>
       <c r="G22" s="1"/>
@@ -1007,7 +1007,7 @@
         <v>252</v>
       </c>
       <c r="F23" s="2">
-        <f>(D23-E23)/D23</f>
+        <f t="shared" si="0"/>
         <v>0.28611898016997167</v>
       </c>
       <c r="G23" s="1"/>
@@ -1029,7 +1029,7 @@
         <v>447</v>
       </c>
       <c r="F24" s="2">
-        <f>(D24-E24)/D24</f>
+        <f t="shared" si="0"/>
         <v>0.26960784313725489</v>
       </c>
       <c r="G24" s="1"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2131" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C19E8C58-FF21-489B-8597-F1F39C9EE7FA}"/>
+  <xr:revisionPtr revIDLastSave="2137" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14B8A93B-D8BF-4FD4-AFD4-CF436B165F5E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,20 +754,20 @@
         <v>28</v>
       </c>
       <c r="B12">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E12">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>0.55947136563876654</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -995,20 +995,20 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E23">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.28611898016997167</v>
+        <v>0.28531073446327682</v>
       </c>
       <c r="G23" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2137" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14B8A93B-D8BF-4FD4-AFD4-CF436B165F5E}"/>
+  <xr:revisionPtr revIDLastSave="2143" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B588B9E-DCC8-43EA-8686-DFB9CE6A8B26}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,20 +776,20 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C13">
         <v>31</v>
       </c>
       <c r="D13">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E13">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.55448717948717952</v>
+        <v>0.55359999999999998</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -798,20 +798,20 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E14">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.5267857142857143</v>
+        <v>0.52522255192878342</v>
       </c>
       <c r="G14" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2143" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B588B9E-DCC8-43EA-8686-DFB9CE6A8B26}"/>
+  <xr:revisionPtr revIDLastSave="2146" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46E064D5-7088-4A50-AEF8-685D157D7D17}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,20 +732,20 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.5658362989323843</v>
+        <v>0.56690140845070425</v>
       </c>
       <c r="G11" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2146" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46E064D5-7088-4A50-AEF8-685D157D7D17}"/>
+  <xr:revisionPtr revIDLastSave="2148" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4989CC7A-49AF-41D8-B87F-FB9D43FD6661}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,7 +688,7 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -697,11 +697,11 @@
         <v>640</v>
       </c>
       <c r="E9">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.58437499999999998</v>
+        <v>0.58281249999999996</v>
       </c>
       <c r="G9" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2148" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4989CC7A-49AF-41D8-B87F-FB9D43FD6661}"/>
+  <xr:revisionPtr revIDLastSave="2150" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D7D89B6-5301-4039-9BF7-7D594D80035B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,7 +622,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C6">
         <v>49</v>
@@ -631,11 +631,11 @@
         <v>817</v>
       </c>
       <c r="E6">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.66707466340269272</v>
+        <v>0.66462668298653615</v>
       </c>
       <c r="G6" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2150" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D7D89B6-5301-4039-9BF7-7D594D80035B}"/>
+  <xr:revisionPtr revIDLastSave="2162" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1814EE8-46CC-4D68-949D-542C666CCA8F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,20 +666,20 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C8">
         <v>21</v>
       </c>
       <c r="D8">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.6003372681281619</v>
+        <v>0.59932659932659937</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -732,20 +732,20 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.56690140845070425</v>
+        <v>0.56491228070175437</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -776,20 +776,20 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C13">
         <v>31</v>
       </c>
       <c r="D13">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E13">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.55359999999999998</v>
+        <v>0.55271565495207664</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -995,20 +995,20 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E23">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.28531073446327682</v>
+        <v>0.28651685393258425</v>
       </c>
       <c r="G23" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2162" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1814EE8-46CC-4D68-949D-542C666CCA8F}"/>
+  <xr:revisionPtr revIDLastSave="2165" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60065C0A-E9D1-41C4-BCFD-62EE5D5934B0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,20 +754,20 @@
         <v>28</v>
       </c>
       <c r="B12">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.55947136563876654</v>
+        <v>0.56086956521739129</v>
       </c>
       <c r="G12" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2165" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60065C0A-E9D1-41C4-BCFD-62EE5D5934B0}"/>
+  <xr:revisionPtr revIDLastSave="2168" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6794CA03-5B45-42C0-818C-D656A6DBA431}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -798,20 +798,20 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E14">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.52522255192878342</v>
+        <v>0.52647058823529413</v>
       </c>
       <c r="G14" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2168" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6794CA03-5B45-42C0-818C-D656A6DBA431}"/>
+  <xr:revisionPtr revIDLastSave="2171" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFB9C42B-4586-43C6-9A78-A92AE1F3BDD3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,20 +995,20 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E23">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.28651685393258425</v>
+        <v>0.28770949720670391</v>
       </c>
       <c r="G23" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2171" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFB9C42B-4586-43C6-9A78-A92AE1F3BDD3}"/>
+  <xr:revisionPtr revIDLastSave="2173" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{189E9961-7CE9-412E-BE0F-47B9DA6E58B8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -995,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -1004,11 +1004,11 @@
         <v>358</v>
       </c>
       <c r="E23">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.28770949720670391</v>
+        <v>0.28491620111731841</v>
       </c>
       <c r="G23" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2173" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{189E9961-7CE9-412E-BE0F-47B9DA6E58B8}"/>
+  <xr:revisionPtr revIDLastSave="2181" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1593CD5-8882-425F-93A7-E82706681FAD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,7 +622,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C6">
         <v>49</v>
@@ -631,11 +631,11 @@
         <v>817</v>
       </c>
       <c r="E6">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.66462668298653615</v>
+        <v>0.66340269277845776</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -666,20 +666,20 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C8">
         <v>21</v>
       </c>
       <c r="D8">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.59932659932659937</v>
+        <v>0.59831932773109242</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -776,20 +776,20 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C13">
         <v>31</v>
       </c>
       <c r="D13">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E13">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.55271565495207664</v>
+        <v>0.55183413078149923</v>
       </c>
       <c r="G13" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2181" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1593CD5-8882-425F-93A7-E82706681FAD}"/>
+  <xr:revisionPtr revIDLastSave="2184" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06F77038-DFCF-4D26-A4CC-F1A373509DBA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,20 +973,20 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E22">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.3588709677419355</v>
+        <v>0.35742971887550201</v>
       </c>
       <c r="G22" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2184" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06F77038-DFCF-4D26-A4CC-F1A373509DBA}"/>
+  <xr:revisionPtr revIDLastSave="2190" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C4DF0F1-7C83-4406-9825-9CCE586DA73A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,20 +688,20 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C9">
         <v>30</v>
       </c>
       <c r="D9">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="E9">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.58281249999999996</v>
+        <v>0.58320373250388802</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -732,20 +732,20 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.56491228070175437</v>
+        <v>0.56293706293706292</v>
       </c>
       <c r="G11" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2190" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C4DF0F1-7C83-4406-9825-9CCE586DA73A}"/>
+  <xr:revisionPtr revIDLastSave="2193" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB3BD62F-B971-427C-99C2-DD62D9265628}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,20 +754,20 @@
         <v>28</v>
       </c>
       <c r="B12">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E12">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.56086956521739129</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="G12" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2193" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB3BD62F-B971-427C-99C2-DD62D9265628}"/>
+  <xr:revisionPtr revIDLastSave="2202" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9075E68-AF42-404B-9636-0923AD1E3DB3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>WINS</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Markéta Vondroušová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Coco Gauff (USA)</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +549,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F24" si="0">(D2-E2)/D2</f>
+        <f>(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -568,7 +571,7 @@
         <v>129</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f>(D3-E3)/D3</f>
         <v>0.75096525096525102</v>
       </c>
       <c r="G3" s="1"/>
@@ -590,7 +593,7 @@
         <v>168</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>(D4-E4)/D4</f>
         <v>0.73626373626373631</v>
       </c>
       <c r="G4" s="1"/>
@@ -612,7 +615,7 @@
         <v>101</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f>(D5-E5)/D5</f>
         <v>0.66885245901639345</v>
       </c>
       <c r="G5" s="1"/>
@@ -634,7 +637,7 @@
         <v>275</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f>(D6-E6)/D6</f>
         <v>0.66340269277845776</v>
       </c>
       <c r="G6" s="1"/>
@@ -656,7 +659,7 @@
         <v>184</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f>(D7-E7)/D7</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="G7" s="1"/>
@@ -678,96 +681,96 @@
         <v>239</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f>(D8-E8)/D8</f>
         <v>0.59831932773109242</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>276</v>
+      </c>
+      <c r="C9">
         <v>24</v>
       </c>
-      <c r="B9">
-        <v>300</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
       <c r="D9">
-        <v>643</v>
+        <v>575</v>
       </c>
       <c r="E9">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58320373250388802</v>
+        <f>(D9-E9)/D9</f>
+        <v>0.58434782608695657</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>575</v>
+        <v>643</v>
       </c>
       <c r="E10">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58434782608695657</v>
+        <f>(D10-E10)/D10</f>
+        <v>0.58320373250388802</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="E11">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.56293706293706292</v>
+        <f>(D11-E11)/D11</f>
+        <v>0.5641025641025641</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="E12">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5641025641025641</v>
+        <f>(D12-E12)/D12</f>
+        <v>0.56293706293706292</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -788,7 +791,7 @@
         <v>281</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
+        <f>(D13-E13)/D13</f>
         <v>0.55183413078149923</v>
       </c>
       <c r="G13" s="1"/>
@@ -798,243 +801,262 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E14">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.52647058823529413</v>
+        <f>(D14-E14)/D14</f>
+        <v>0.53179190751445082</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>82</v>
+      </c>
+      <c r="C15">
         <v>6</v>
       </c>
-      <c r="B15">
-        <v>102</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
       <c r="D15">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E15">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.52127659574468088</v>
+        <f>(D15-E15)/D15</f>
+        <v>0.52760736196319014</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>(D16-E16)/D16</f>
+        <v>0.52127659574468088</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>367</v>
+        <v>51</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>668</v>
+        <v>98</v>
       </c>
       <c r="E17">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.48502994011976047</v>
+        <f>(D17-E17)/D17</f>
+        <v>0.5</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E18">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.46359583952451711</v>
+        <f>(D18-E18)/D18</f>
+        <v>0.48502994011976047</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>258</v>
+        <v>385</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>448</v>
+        <v>673</v>
       </c>
       <c r="E19">
-        <v>241</v>
+        <v>361</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.46205357142857145</v>
+        <f>(D19-E19)/D19</f>
+        <v>0.46359583952451711</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>264</v>
+        <v>448</v>
       </c>
       <c r="E20">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.43939393939393939</v>
+        <f>(D20-E20)/D20</f>
+        <v>0.46205357142857145</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>311</v>
+        <v>161</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>473</v>
+        <v>264</v>
       </c>
       <c r="E21">
-        <v>292</v>
+        <v>148</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.38266384778012685</v>
+        <f>(D21-E21)/D21</f>
+        <v>0.43939393939393939</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>249</v>
+        <v>473</v>
       </c>
       <c r="E22">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.35742971887550201</v>
+        <f>(D22-E22)/D22</f>
+        <v>0.38266384778012685</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>267</v>
+        <v>169</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>358</v>
+        <v>249</v>
       </c>
       <c r="E23">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>0.28491620111731841</v>
+        <f>(D23-E23)/D23</f>
+        <v>0.35742971887550201</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>267</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>358</v>
+      </c>
+      <c r="E24">
+        <v>256</v>
+      </c>
+      <c r="F24" s="2">
+        <f>(D24-E24)/D24</f>
+        <v>0.28491620111731841</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>456</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>9</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>612</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>447</v>
       </c>
-      <c r="F24" s="2">
-        <f t="shared" si="0"/>
+      <c r="F25" s="2">
+        <f>(D25-E25)/D25</f>
         <v>0.26960784313725489</v>
       </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1066,11 +1088,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{886A4C9F-69C7-4226-BCD2-6825075A697E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F24">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F25">
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F2:F24">
+  <conditionalFormatting sqref="F2:F25">
     <cfRule type="iconSet" priority="65">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2202" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9075E68-AF42-404B-9636-0923AD1E3DB3}"/>
+  <xr:revisionPtr revIDLastSave="2216" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6196B503-9946-4AE9-8141-92FC36126A43}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +549,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F25" si="0">(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -571,7 +571,7 @@
         <v>129</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.75096525096525102</v>
       </c>
       <c r="G3" s="1"/>
@@ -593,7 +593,7 @@
         <v>168</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.73626373626373631</v>
       </c>
       <c r="G4" s="1"/>
@@ -615,7 +615,7 @@
         <v>101</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.66885245901639345</v>
       </c>
       <c r="G5" s="1"/>
@@ -637,7 +637,7 @@
         <v>275</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.66340269277845776</v>
       </c>
       <c r="G6" s="1"/>
@@ -659,7 +659,7 @@
         <v>184</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="0"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="G7" s="1"/>
@@ -669,20 +669,20 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C8">
         <v>21</v>
       </c>
       <c r="D8">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
-        <v>0.59831932773109242</v>
+        <f t="shared" si="0"/>
+        <v>0.59866220735785958</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -703,7 +703,7 @@
         <v>239</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="0"/>
         <v>0.58434782608695657</v>
       </c>
       <c r="G9" s="1"/>
@@ -725,7 +725,7 @@
         <v>268</v>
       </c>
       <c r="F10" s="2">
-        <f>(D10-E10)/D10</f>
+        <f t="shared" si="0"/>
         <v>0.58320373250388802</v>
       </c>
       <c r="G10" s="1"/>
@@ -735,7 +735,7 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -744,11 +744,11 @@
         <v>234</v>
       </c>
       <c r="E11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2">
-        <f>(D11-E11)/D11</f>
-        <v>0.5641025641025641</v>
+        <f t="shared" si="0"/>
+        <v>0.55982905982905984</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -769,7 +769,7 @@
         <v>125</v>
       </c>
       <c r="F12" s="2">
-        <f>(D12-E12)/D12</f>
+        <f t="shared" si="0"/>
         <v>0.56293706293706292</v>
       </c>
       <c r="G12" s="1"/>
@@ -779,20 +779,20 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C13">
         <v>31</v>
       </c>
       <c r="D13">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E13">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F13" s="2">
-        <f>(D13-E13)/D13</f>
-        <v>0.55183413078149923</v>
+        <f t="shared" si="0"/>
+        <v>0.55095541401273884</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -813,7 +813,7 @@
         <v>162</v>
       </c>
       <c r="F14" s="2">
-        <f>(D14-E14)/D14</f>
+        <f t="shared" si="0"/>
         <v>0.53179190751445082</v>
       </c>
       <c r="G14" s="1"/>
@@ -835,7 +835,7 @@
         <v>77</v>
       </c>
       <c r="F15" s="2">
-        <f>(D15-E15)/D15</f>
+        <f t="shared" si="0"/>
         <v>0.52760736196319014</v>
       </c>
     </row>
@@ -856,7 +856,7 @@
         <v>90</v>
       </c>
       <c r="F16" s="2">
-        <f>(D16-E16)/D16</f>
+        <f t="shared" si="0"/>
         <v>0.52127659574468088</v>
       </c>
       <c r="G16" s="1"/>
@@ -878,7 +878,7 @@
         <v>49</v>
       </c>
       <c r="F17" s="2">
-        <f>(D17-E17)/D17</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="G17" s="1"/>
@@ -900,7 +900,7 @@
         <v>344</v>
       </c>
       <c r="F18" s="2">
-        <f>(D18-E18)/D18</f>
+        <f t="shared" si="0"/>
         <v>0.48502994011976047</v>
       </c>
       <c r="G18" s="1"/>
@@ -922,7 +922,7 @@
         <v>361</v>
       </c>
       <c r="F19" s="2">
-        <f>(D19-E19)/D19</f>
+        <f t="shared" si="0"/>
         <v>0.46359583952451711</v>
       </c>
       <c r="G19" s="1"/>
@@ -944,7 +944,7 @@
         <v>241</v>
       </c>
       <c r="F20" s="2">
-        <f>(D20-E20)/D20</f>
+        <f t="shared" si="0"/>
         <v>0.46205357142857145</v>
       </c>
       <c r="G20" s="1"/>
@@ -966,7 +966,7 @@
         <v>148</v>
       </c>
       <c r="F21" s="2">
-        <f>(D21-E21)/D21</f>
+        <f t="shared" si="0"/>
         <v>0.43939393939393939</v>
       </c>
       <c r="G21" s="1"/>
@@ -988,7 +988,7 @@
         <v>292</v>
       </c>
       <c r="F22" s="2">
-        <f>(D22-E22)/D22</f>
+        <f t="shared" si="0"/>
         <v>0.38266384778012685</v>
       </c>
       <c r="G22" s="1"/>
@@ -998,20 +998,20 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C23">
         <v>5</v>
       </c>
       <c r="D23">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E23">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F23" s="2">
-        <f>(D23-E23)/D23</f>
-        <v>0.35742971887550201</v>
+        <f t="shared" si="0"/>
+        <v>0.36575875486381321</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1020,20 +1020,20 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C24">
         <v>7</v>
       </c>
       <c r="D24">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E24">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F24" s="2">
-        <f>(D24-E24)/D24</f>
-        <v>0.28491620111731841</v>
+        <f t="shared" si="0"/>
+        <v>0.28412256267409469</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1054,7 +1054,7 @@
         <v>447</v>
       </c>
       <c r="F25" s="2">
-        <f>(D25-E25)/D25</f>
+        <f t="shared" si="0"/>
         <v>0.26960784313725489</v>
       </c>
       <c r="G25" s="1"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2216" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6196B503-9946-4AE9-8141-92FC36126A43}"/>
+  <xr:revisionPtr revIDLastSave="2219" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CE8C483-0AB9-4451-818A-B4F7C5C98D76}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,20 +779,20 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C13">
         <v>31</v>
       </c>
       <c r="D13">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E13">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.55095541401273884</v>
+        <v>0.55007949125596189</v>
       </c>
       <c r="G13" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2219" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CE8C483-0AB9-4451-818A-B4F7C5C98D76}"/>
+  <xr:revisionPtr revIDLastSave="2228" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB772658-DA4C-4E3B-962A-9539568AAC25}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,20 +801,20 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E14">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.53179190751445082</v>
+        <v>0.53295128939828085</v>
       </c>
       <c r="G14" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2228" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB772658-DA4C-4E3B-962A-9539568AAC25}"/>
+  <xr:revisionPtr revIDLastSave="2235" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75ED40D4-ED7B-41F3-8F54-63BEA1D991B1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +549,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F25" si="0">(D2-E2)/D2</f>
+        <f>(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -571,7 +571,7 @@
         <v>129</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f>(D3-E3)/D3</f>
         <v>0.75096525096525102</v>
       </c>
       <c r="G3" s="1"/>
@@ -593,7 +593,7 @@
         <v>168</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>(D4-E4)/D4</f>
         <v>0.73626373626373631</v>
       </c>
       <c r="G4" s="1"/>
@@ -615,7 +615,7 @@
         <v>101</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f>(D5-E5)/D5</f>
         <v>0.66885245901639345</v>
       </c>
       <c r="G5" s="1"/>
@@ -637,7 +637,7 @@
         <v>275</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f>(D6-E6)/D6</f>
         <v>0.66340269277845776</v>
       </c>
       <c r="G6" s="1"/>
@@ -659,7 +659,7 @@
         <v>184</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f>(D7-E7)/D7</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="G7" s="1"/>
@@ -681,7 +681,7 @@
         <v>240</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f>(D8-E8)/D8</f>
         <v>0.59866220735785958</v>
       </c>
       <c r="G8" s="1"/>
@@ -703,7 +703,7 @@
         <v>239</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
+        <f>(D9-E9)/D9</f>
         <v>0.58434782608695657</v>
       </c>
       <c r="G9" s="1"/>
@@ -725,52 +725,52 @@
         <v>268</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
+        <f>(D10-E10)/D10</f>
         <v>0.58320373250388802</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="E11">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.55982905982905984</v>
+        <f>(D11-E11)/D11</f>
+        <v>0.56551724137931036</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="E12">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.56293706293706292</v>
+        <f>(D12-E12)/D12</f>
+        <v>0.55982905982905984</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -791,7 +791,7 @@
         <v>283</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
+        <f>(D13-E13)/D13</f>
         <v>0.55007949125596189</v>
       </c>
       <c r="G13" s="1"/>
@@ -813,7 +813,7 @@
         <v>163</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
+        <f>(D14-E14)/D14</f>
         <v>0.53295128939828085</v>
       </c>
       <c r="G14" s="1"/>
@@ -823,20 +823,20 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E15">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.52760736196319014</v>
+        <f>(D15-E15)/D15</f>
+        <v>0.53293413173652693</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -856,7 +856,7 @@
         <v>90</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
+        <f>(D16-E16)/D16</f>
         <v>0.52127659574468088</v>
       </c>
       <c r="G16" s="1"/>
@@ -878,7 +878,7 @@
         <v>49</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
+        <f>(D17-E17)/D17</f>
         <v>0.5</v>
       </c>
       <c r="G17" s="1"/>
@@ -900,7 +900,7 @@
         <v>344</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
+        <f>(D18-E18)/D18</f>
         <v>0.48502994011976047</v>
       </c>
       <c r="G18" s="1"/>
@@ -922,7 +922,7 @@
         <v>361</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
+        <f>(D19-E19)/D19</f>
         <v>0.46359583952451711</v>
       </c>
       <c r="G19" s="1"/>
@@ -944,7 +944,7 @@
         <v>241</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
+        <f>(D20-E20)/D20</f>
         <v>0.46205357142857145</v>
       </c>
       <c r="G20" s="1"/>
@@ -966,7 +966,7 @@
         <v>148</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f>(D21-E21)/D21</f>
         <v>0.43939393939393939</v>
       </c>
       <c r="G21" s="1"/>
@@ -988,7 +988,7 @@
         <v>292</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
+        <f>(D22-E22)/D22</f>
         <v>0.38266384778012685</v>
       </c>
       <c r="G22" s="1"/>
@@ -1010,7 +1010,7 @@
         <v>163</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
+        <f>(D23-E23)/D23</f>
         <v>0.36575875486381321</v>
       </c>
       <c r="G23" s="1"/>
@@ -1032,7 +1032,7 @@
         <v>257</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
+        <f>(D24-E24)/D24</f>
         <v>0.28412256267409469</v>
       </c>
       <c r="G24" s="1"/>
@@ -1054,7 +1054,7 @@
         <v>447</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="0"/>
+        <f>(D25-E25)/D25</f>
         <v>0.26960784313725489</v>
       </c>
       <c r="G25" s="1"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2235" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75ED40D4-ED7B-41F3-8F54-63BEA1D991B1}"/>
+  <xr:revisionPtr revIDLastSave="2238" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A4891F0-3225-45D1-B4F0-1714E60E0B77}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -498,20 +498,20 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -532,7 +532,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -549,12 +549,12 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F25" si="0">(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -571,12 +571,12 @@
         <v>129</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.75096525096525102</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -593,12 +593,12 @@
         <v>168</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.73626373626373631</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -615,12 +615,12 @@
         <v>101</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.66885245901639345</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -637,12 +637,12 @@
         <v>275</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.66340269277845776</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -659,17 +659,17 @@
         <v>184</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="0"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C8">
         <v>21</v>
@@ -678,15 +678,15 @@
         <v>598</v>
       </c>
       <c r="E8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
-        <v>0.59866220735785958</v>
+        <f t="shared" si="0"/>
+        <v>0.59698996655518399</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -703,12 +703,12 @@
         <v>239</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="0"/>
         <v>0.58434782608695657</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -725,12 +725,12 @@
         <v>268</v>
       </c>
       <c r="F10" s="2">
-        <f>(D10-E10)/D10</f>
+        <f t="shared" si="0"/>
         <v>0.58320373250388802</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -747,12 +747,12 @@
         <v>126</v>
       </c>
       <c r="F11" s="2">
-        <f>(D11-E11)/D11</f>
+        <f t="shared" si="0"/>
         <v>0.56551724137931036</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -769,12 +769,12 @@
         <v>103</v>
       </c>
       <c r="F12" s="2">
-        <f>(D12-E12)/D12</f>
+        <f t="shared" si="0"/>
         <v>0.55982905982905984</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -791,12 +791,12 @@
         <v>283</v>
       </c>
       <c r="F13" s="2">
-        <f>(D13-E13)/D13</f>
+        <f t="shared" si="0"/>
         <v>0.55007949125596189</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -813,12 +813,12 @@
         <v>163</v>
       </c>
       <c r="F14" s="2">
-        <f>(D14-E14)/D14</f>
+        <f t="shared" si="0"/>
         <v>0.53295128939828085</v>
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -835,11 +835,11 @@
         <v>78</v>
       </c>
       <c r="F15" s="2">
-        <f>(D15-E15)/D15</f>
+        <f t="shared" si="0"/>
         <v>0.53293413173652693</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -856,12 +856,12 @@
         <v>90</v>
       </c>
       <c r="F16" s="2">
-        <f>(D16-E16)/D16</f>
+        <f t="shared" si="0"/>
         <v>0.52127659574468088</v>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -878,12 +878,12 @@
         <v>49</v>
       </c>
       <c r="F17" s="2">
-        <f>(D17-E17)/D17</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -900,12 +900,12 @@
         <v>344</v>
       </c>
       <c r="F18" s="2">
-        <f>(D18-E18)/D18</f>
+        <f t="shared" si="0"/>
         <v>0.48502994011976047</v>
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -922,12 +922,12 @@
         <v>361</v>
       </c>
       <c r="F19" s="2">
-        <f>(D19-E19)/D19</f>
+        <f t="shared" si="0"/>
         <v>0.46359583952451711</v>
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -944,12 +944,12 @@
         <v>241</v>
       </c>
       <c r="F20" s="2">
-        <f>(D20-E20)/D20</f>
+        <f t="shared" si="0"/>
         <v>0.46205357142857145</v>
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -966,12 +966,12 @@
         <v>148</v>
       </c>
       <c r="F21" s="2">
-        <f>(D21-E21)/D21</f>
+        <f t="shared" si="0"/>
         <v>0.43939393939393939</v>
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -988,12 +988,12 @@
         <v>292</v>
       </c>
       <c r="F22" s="2">
-        <f>(D22-E22)/D22</f>
+        <f t="shared" si="0"/>
         <v>0.38266384778012685</v>
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1010,12 +1010,12 @@
         <v>163</v>
       </c>
       <c r="F23" s="2">
-        <f>(D23-E23)/D23</f>
+        <f t="shared" si="0"/>
         <v>0.36575875486381321</v>
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1032,12 +1032,12 @@
         <v>257</v>
       </c>
       <c r="F24" s="2">
-        <f>(D24-E24)/D24</f>
+        <f t="shared" si="0"/>
         <v>0.28412256267409469</v>
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1054,36 +1054,36 @@
         <v>447</v>
       </c>
       <c r="F25" s="2">
-        <f>(D25-E25)/D25</f>
+        <f t="shared" si="0"/>
         <v>0.26960784313725489</v>
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2238" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A4891F0-3225-45D1-B4F0-1714E60E0B77}"/>
+  <xr:revisionPtr revIDLastSave="2243" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF77D58A-1AA1-4A28-8DA0-5EB31EF78340}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,20 +735,20 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.56551724137931036</v>
+        <v>0.56357388316151202</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -757,7 +757,7 @@
         <v>28</v>
       </c>
       <c r="B12">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -766,11 +766,11 @@
         <v>234</v>
       </c>
       <c r="E12">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.55982905982905984</v>
+        <v>0.54700854700854706</v>
       </c>
       <c r="G12" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2243" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF77D58A-1AA1-4A28-8DA0-5EB31EF78340}"/>
+  <xr:revisionPtr revIDLastSave="2246" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C843F3D5-3879-4504-835E-8DA4BC11CC32}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,20 +823,20 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E15">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0.53293413173652693</v>
+        <v>0.53254437869822491</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2246" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C843F3D5-3879-4504-835E-8DA4BC11CC32}"/>
+  <xr:revisionPtr revIDLastSave="2250" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0999C581-7CDC-416F-B9F5-AE689CE2C333}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F25" si="0">(D2-E2)/D2</f>
+        <f>(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -571,7 +571,7 @@
         <v>129</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f>(D3-E3)/D3</f>
         <v>0.75096525096525102</v>
       </c>
       <c r="G3" s="1"/>
@@ -593,7 +593,7 @@
         <v>168</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>(D4-E4)/D4</f>
         <v>0.73626373626373631</v>
       </c>
       <c r="G4" s="1"/>
@@ -615,7 +615,7 @@
         <v>101</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f>(D5-E5)/D5</f>
         <v>0.66885245901639345</v>
       </c>
       <c r="G5" s="1"/>
@@ -637,7 +637,7 @@
         <v>275</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f>(D6-E6)/D6</f>
         <v>0.66340269277845776</v>
       </c>
       <c r="G6" s="1"/>
@@ -659,7 +659,7 @@
         <v>184</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f>(D7-E7)/D7</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="G7" s="1"/>
@@ -681,7 +681,7 @@
         <v>241</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f>(D8-E8)/D8</f>
         <v>0.59698996655518399</v>
       </c>
       <c r="G8" s="1"/>
@@ -703,7 +703,7 @@
         <v>239</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
+        <f>(D9-E9)/D9</f>
         <v>0.58434782608695657</v>
       </c>
       <c r="G9" s="1"/>
@@ -725,7 +725,7 @@
         <v>268</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
+        <f>(D10-E10)/D10</f>
         <v>0.58320373250388802</v>
       </c>
       <c r="G10" s="1"/>
@@ -747,96 +747,96 @@
         <v>127</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f>(D11-E11)/D11</f>
         <v>0.56357388316151202</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>121</v>
+        <v>328</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>234</v>
+        <v>629</v>
       </c>
       <c r="E12">
-        <v>106</v>
+        <v>283</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54700854700854706</v>
+        <f>(D12-E12)/D12</f>
+        <v>0.55007949125596189</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>328</v>
+        <v>121</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>629</v>
+        <v>234</v>
       </c>
       <c r="E13">
-        <v>283</v>
+        <v>106</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.55007949125596189</v>
+        <f>(D13-E13)/D13</f>
+        <v>0.54700854700854706</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>349</v>
+        <v>169</v>
       </c>
       <c r="E14">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.53295128939828085</v>
+        <f>(D14-E14)/D14</f>
+        <v>0.53254437869822491</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>169</v>
+        <v>351</v>
       </c>
       <c r="E15">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.53254437869822491</v>
+        <f>(D15-E15)/D15</f>
+        <v>0.52991452991452992</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -856,7 +856,7 @@
         <v>90</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
+        <f>(D16-E16)/D16</f>
         <v>0.52127659574468088</v>
       </c>
       <c r="G16" s="1"/>
@@ -878,7 +878,7 @@
         <v>49</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
+        <f>(D17-E17)/D17</f>
         <v>0.5</v>
       </c>
       <c r="G17" s="1"/>
@@ -900,7 +900,7 @@
         <v>344</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
+        <f>(D18-E18)/D18</f>
         <v>0.48502994011976047</v>
       </c>
       <c r="G18" s="1"/>
@@ -922,7 +922,7 @@
         <v>361</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
+        <f>(D19-E19)/D19</f>
         <v>0.46359583952451711</v>
       </c>
       <c r="G19" s="1"/>
@@ -944,7 +944,7 @@
         <v>241</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
+        <f>(D20-E20)/D20</f>
         <v>0.46205357142857145</v>
       </c>
       <c r="G20" s="1"/>
@@ -966,7 +966,7 @@
         <v>148</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f>(D21-E21)/D21</f>
         <v>0.43939393939393939</v>
       </c>
       <c r="G21" s="1"/>
@@ -988,7 +988,7 @@
         <v>292</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
+        <f>(D22-E22)/D22</f>
         <v>0.38266384778012685</v>
       </c>
       <c r="G22" s="1"/>
@@ -1010,7 +1010,7 @@
         <v>163</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
+        <f>(D23-E23)/D23</f>
         <v>0.36575875486381321</v>
       </c>
       <c r="G23" s="1"/>
@@ -1032,7 +1032,7 @@
         <v>257</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
+        <f>(D24-E24)/D24</f>
         <v>0.28412256267409469</v>
       </c>
       <c r="G24" s="1"/>
@@ -1054,7 +1054,7 @@
         <v>447</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="0"/>
+        <f>(D25-E25)/D25</f>
         <v>0.26960784313725489</v>
       </c>
       <c r="G25" s="1"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2250" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0999C581-7CDC-416F-B9F5-AE689CE2C333}"/>
+  <xr:revisionPtr revIDLastSave="2257" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD558056-8857-48F1-B2F7-AD0175B78DDB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,20 +779,20 @@
         <v>28</v>
       </c>
       <c r="B13">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E13">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F13" s="2">
         <f>(D13-E13)/D13</f>
-        <v>0.54700854700854706</v>
+        <v>0.5446808510638298</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -998,20 +998,20 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C23">
         <v>5</v>
       </c>
       <c r="D23">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E23">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F23" s="2">
         <f>(D23-E23)/D23</f>
-        <v>0.36575875486381321</v>
+        <v>0.36434108527131781</v>
       </c>
       <c r="G23" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2257" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD558056-8857-48F1-B2F7-AD0175B78DDB}"/>
+  <xr:revisionPtr revIDLastSave="2258" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA9274D5-E856-4066-9CBD-8BC6B6B94FA6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -498,20 +498,20 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -532,7 +532,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -549,12 +549,12 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F25" si="0">(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -571,12 +571,12 @@
         <v>129</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.75096525096525102</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -593,12 +593,12 @@
         <v>168</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.73626373626373631</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -615,12 +615,12 @@
         <v>101</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.66885245901639345</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -637,12 +637,12 @@
         <v>275</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.66340269277845776</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -659,12 +659,12 @@
         <v>184</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="0"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -681,12 +681,12 @@
         <v>241</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.59698996655518399</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -703,12 +703,12 @@
         <v>239</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="0"/>
         <v>0.58434782608695657</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -725,12 +725,12 @@
         <v>268</v>
       </c>
       <c r="F10" s="2">
-        <f>(D10-E10)/D10</f>
+        <f t="shared" si="0"/>
         <v>0.58320373250388802</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -747,12 +747,12 @@
         <v>127</v>
       </c>
       <c r="F11" s="2">
-        <f>(D11-E11)/D11</f>
+        <f t="shared" si="0"/>
         <v>0.56357388316151202</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -769,12 +769,12 @@
         <v>283</v>
       </c>
       <c r="F12" s="2">
-        <f>(D12-E12)/D12</f>
+        <f t="shared" si="0"/>
         <v>0.55007949125596189</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -791,12 +791,12 @@
         <v>107</v>
       </c>
       <c r="F13" s="2">
-        <f>(D13-E13)/D13</f>
+        <f t="shared" si="0"/>
         <v>0.5446808510638298</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -813,12 +813,12 @@
         <v>79</v>
       </c>
       <c r="F14" s="2">
-        <f>(D14-E14)/D14</f>
+        <f t="shared" si="0"/>
         <v>0.53254437869822491</v>
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -835,11 +835,11 @@
         <v>165</v>
       </c>
       <c r="F15" s="2">
-        <f>(D15-E15)/D15</f>
+        <f t="shared" si="0"/>
         <v>0.52991452991452992</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -856,12 +856,12 @@
         <v>90</v>
       </c>
       <c r="F16" s="2">
-        <f>(D16-E16)/D16</f>
+        <f t="shared" si="0"/>
         <v>0.52127659574468088</v>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -878,12 +878,12 @@
         <v>49</v>
       </c>
       <c r="F17" s="2">
-        <f>(D17-E17)/D17</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -900,12 +900,12 @@
         <v>344</v>
       </c>
       <c r="F18" s="2">
-        <f>(D18-E18)/D18</f>
+        <f t="shared" si="0"/>
         <v>0.48502994011976047</v>
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -922,12 +922,12 @@
         <v>361</v>
       </c>
       <c r="F19" s="2">
-        <f>(D19-E19)/D19</f>
+        <f t="shared" si="0"/>
         <v>0.46359583952451711</v>
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -944,12 +944,12 @@
         <v>241</v>
       </c>
       <c r="F20" s="2">
-        <f>(D20-E20)/D20</f>
+        <f t="shared" si="0"/>
         <v>0.46205357142857145</v>
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -966,12 +966,12 @@
         <v>148</v>
       </c>
       <c r="F21" s="2">
-        <f>(D21-E21)/D21</f>
+        <f t="shared" si="0"/>
         <v>0.43939393939393939</v>
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -988,12 +988,12 @@
         <v>292</v>
       </c>
       <c r="F22" s="2">
-        <f>(D22-E22)/D22</f>
+        <f t="shared" si="0"/>
         <v>0.38266384778012685</v>
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1010,12 +1010,12 @@
         <v>164</v>
       </c>
       <c r="F23" s="2">
-        <f>(D23-E23)/D23</f>
+        <f t="shared" si="0"/>
         <v>0.36434108527131781</v>
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1032,12 +1032,12 @@
         <v>257</v>
       </c>
       <c r="F24" s="2">
-        <f>(D24-E24)/D24</f>
+        <f t="shared" si="0"/>
         <v>0.28412256267409469</v>
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1054,36 +1054,36 @@
         <v>447</v>
       </c>
       <c r="F25" s="2">
-        <f>(D25-E25)/D25</f>
+        <f t="shared" si="0"/>
         <v>0.26960784313725489</v>
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2258" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA9274D5-E856-4066-9CBD-8BC6B6B94FA6}"/>
+  <xr:revisionPtr revIDLastSave="2263" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7CFBDD1-827B-49FB-9A3F-D9CD8179BF11}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>WINS</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Elena Rybakina (KAZAKHSTAN)</t>
-  </si>
-  <si>
-    <t>Kim Clijsters (BELGIUM)</t>
   </si>
   <si>
     <t>Ashleigh Barty (AUSTRALIA)</t>
@@ -189,10 +186,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,10 +488,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,228 +542,228 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F25" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F24" si="0">(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>518</v>
+        <v>637</v>
       </c>
       <c r="E3">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>0.75096525096525102</v>
+        <v>0.73626373626373631</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>637</v>
+        <v>305</v>
       </c>
       <c r="E4">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.73626373626373631</v>
+        <v>0.66885245901639345</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>125</v>
+        <v>338</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>305</v>
+        <v>817</v>
       </c>
       <c r="E5">
-        <v>101</v>
+        <v>275</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66885245901639345</v>
+        <v>0.66340269277845776</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>338</v>
+        <v>221</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>817</v>
+        <v>506</v>
       </c>
       <c r="E6">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.66340269277845776</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>506</v>
+        <v>598</v>
       </c>
       <c r="E7">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.63636363636363635</v>
+        <v>0.59698996655518399</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="E8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.59698996655518399</v>
+        <v>0.58434782608695657</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>575</v>
+        <v>643</v>
       </c>
       <c r="E9">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.58434782608695657</v>
+        <v>0.58320373250388802</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>300</v>
+        <v>144</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>643</v>
+        <v>291</v>
       </c>
       <c r="E10">
-        <v>268</v>
+        <v>127</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.58320373250388802</v>
+        <v>0.56357388316151202</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>144</v>
+        <v>328</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>291</v>
+        <v>629</v>
       </c>
       <c r="E11">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.56357388316151202</v>
+        <v>0.55007949125596189</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>328</v>
+        <v>122</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>629</v>
+        <v>235</v>
       </c>
       <c r="E12">
-        <v>283</v>
+        <v>107</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.55007949125596189</v>
+        <v>0.5446808510638298</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -779,284 +772,265 @@
         <v>28</v>
       </c>
       <c r="B13">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="E13">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.5446808510638298</v>
+        <v>0.53254437869822491</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>169</v>
+        <v>351</v>
       </c>
       <c r="E14">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.53254437869822491</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>0.52991452991452992</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>351</v>
+        <v>188</v>
       </c>
       <c r="E15">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0.52991452991452992</v>
-      </c>
+        <v>0.52127659574468088</v>
+      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="E16">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>0.52127659574468088</v>
+        <v>0.5</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>51</v>
+        <v>365</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>98</v>
+        <v>667</v>
       </c>
       <c r="E17">
-        <v>49</v>
+        <v>342</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.48725637181409298</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="E18">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>0.48502994011976047</v>
+        <v>0.46359583952451711</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>385</v>
+        <v>258</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>673</v>
+        <v>448</v>
       </c>
       <c r="E19">
-        <v>361</v>
+        <v>241</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>0.46359583952451711</v>
+        <v>0.46205357142857145</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>448</v>
+        <v>264</v>
       </c>
       <c r="E20">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.46205357142857145</v>
+        <v>0.43939393939393939</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>161</v>
+        <v>311</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>264</v>
+        <v>473</v>
       </c>
       <c r="E21">
-        <v>148</v>
+        <v>292</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>0.43939393939393939</v>
+        <v>0.38266384778012685</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>311</v>
+        <v>173</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>473</v>
+        <v>258</v>
       </c>
       <c r="E22">
-        <v>292</v>
+        <v>164</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.38266384778012685</v>
+        <v>0.36434108527131781</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>258</v>
+        <v>359</v>
       </c>
       <c r="E23">
-        <v>164</v>
+        <v>257</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.36434108527131781</v>
+        <v>0.28412256267409469</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>268</v>
+        <v>456</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>359</v>
+        <v>612</v>
       </c>
       <c r="E24">
-        <v>257</v>
+        <v>447</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>0.28412256267409469</v>
+        <v>0.26960784313725489</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>456</v>
-      </c>
-      <c r="C25">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>612</v>
-      </c>
-      <c r="E25">
-        <v>447</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="0"/>
-        <v>0.26960784313725489</v>
-      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1083,17 +1057,14 @@
     <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G34" s="1"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{886A4C9F-69C7-4226-BCD2-6825075A697E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F25">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F24">
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F2:F25">
-    <cfRule type="iconSet" priority="65">
+  <conditionalFormatting sqref="F2:F24">
+    <cfRule type="iconSet" priority="66">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1101,7 +1072,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+  <conditionalFormatting sqref="F37">
     <cfRule type="iconSet" priority="62">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2263" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7CFBDD1-827B-49FB-9A3F-D9CD8179BF11}"/>
+  <xr:revisionPtr revIDLastSave="2265" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7048DBF-9333-4E9D-AAAD-AE3B024AD3A9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2265" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7048DBF-9333-4E9D-AAAD-AE3B024AD3A9}"/>
+  <xr:revisionPtr revIDLastSave="2269" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10D1D613-146B-4A29-BC64-2645556585E4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -186,6 +186,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -684,7 +688,7 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -693,11 +697,11 @@
         <v>643</v>
       </c>
       <c r="E9">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.58320373250388802</v>
+        <v>0.58164852255054433</v>
       </c>
       <c r="G9" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2269" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10D1D613-146B-4A29-BC64-2645556585E4}"/>
+  <xr:revisionPtr revIDLastSave="2278" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99FCF5DF-EE43-4714-B19F-468ED3A77AC4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,20 +841,20 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.49494949494949497</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -929,20 +929,20 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E20">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.43939393939393939</v>
+        <v>0.43773584905660379</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -995,20 +995,20 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E23">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.28412256267409469</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="G23" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2278" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99FCF5DF-EE43-4714-B19F-468ED3A77AC4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2278" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99FCF5DF-EE43-4714-B19F-468ED3A77AC4}"/>
+  <xr:revisionPtr revIDLastSave="2295" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D2B6B20-D8C6-4F7E-8E17-E64496C58627}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -186,10 +186,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,17 +494,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -529,7 +525,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -551,7 +547,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -573,7 +569,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -595,7 +591,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -617,7 +613,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -639,29 +635,29 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="E7">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.59698996655518399</v>
+        <v>0.59933774834437081</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -683,7 +679,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -705,29 +701,29 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E10">
         <v>127</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.56357388316151202</v>
+        <v>0.57094594594594594</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -749,7 +745,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -771,50 +767,50 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E13">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.53254437869822491</v>
+        <v>0.54022988505747127</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E14">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.52991452991452992</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.53239436619718306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -836,7 +832,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -858,7 +854,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -880,7 +876,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -902,7 +898,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -924,7 +920,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -946,7 +942,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -968,7 +964,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -990,7 +986,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1008,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1034,31 +1030,31 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2295" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D2B6B20-D8C6-4F7E-8E17-E64496C58627}"/>
+  <xr:revisionPtr revIDLastSave="2305" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21E33650-6842-42DA-8580-DA4A53528D2E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -188,10 +188,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -229,7 +233,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -335,7 +339,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -477,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,7 +495,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,14 +650,14 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E7">
         <v>242</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.59933774834437081</v>
+        <v>0.59733777038269553</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -706,20 +710,20 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.57094594594594594</v>
+        <v>0.56902356902356899</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -969,20 +973,20 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E22">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.36434108527131781</v>
+        <v>0.35907335907335908</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -991,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -1000,11 +1004,11 @@
         <v>360</v>
       </c>
       <c r="E23">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.28333333333333333</v>
+        <v>0.28055555555555556</v>
       </c>
       <c r="G23" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2305" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21E33650-6842-42DA-8580-DA4A53528D2E}"/>
+  <xr:revisionPtr revIDLastSave="2314" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12649677-0850-4888-B755-C9356BAD9A36}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +754,7 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -763,11 +763,11 @@
         <v>235</v>
       </c>
       <c r="E12">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.5446808510638298</v>
+        <v>0.54042553191489362</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -885,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C18">
         <v>14</v>
@@ -894,11 +894,11 @@
         <v>673</v>
       </c>
       <c r="E18">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>0.46359583952451711</v>
+        <v>0.46210995542347699</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -929,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -938,11 +938,11 @@
         <v>265</v>
       </c>
       <c r="E20">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.43773584905660379</v>
+        <v>0.43396226415094341</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -973,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -982,11 +982,11 @@
         <v>259</v>
       </c>
       <c r="E22">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.35907335907335908</v>
+        <v>0.35521235521235522</v>
       </c>
       <c r="G22" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2314" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12649677-0850-4888-B755-C9356BAD9A36}"/>
+  <xr:revisionPtr revIDLastSave="2317" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{523FE37D-E8B3-4794-9349-6EABFC27154E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,20 +688,20 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C9">
         <v>30</v>
       </c>
       <c r="D9">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E9">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.58164852255054433</v>
+        <v>0.58074534161490687</v>
       </c>
       <c r="G9" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2317" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{523FE37D-E8B3-4794-9349-6EABFC27154E}"/>
+  <xr:revisionPtr revIDLastSave="2323" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E54E1141-D363-419E-BD2C-D21D235CD019}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,20 +710,20 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.56902356902356899</v>
+        <v>0.56711409395973156</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -841,20 +841,20 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>0.49494949494949497</v>
+        <v>0.49</v>
       </c>
       <c r="G16" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2323" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E54E1141-D363-419E-BD2C-D21D235CD019}"/>
+  <xr:revisionPtr revIDLastSave="2326" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68E443FB-EAB1-4631-AF49-EF863E04ACAA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,20 +995,20 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E23">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.28055555555555556</v>
+        <v>0.28176795580110497</v>
       </c>
       <c r="G23" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2326" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68E443FB-EAB1-4631-AF49-EF863E04ACAA}"/>
+  <xr:revisionPtr revIDLastSave="2329" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C78C577A-85D9-4835-8850-16373C146FC3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="10260" yWindow="3015" windowWidth="17535" windowHeight="15285" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,20 +644,20 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="E7">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.59733777038269553</v>
+        <v>0.59768211920529801</v>
       </c>
       <c r="G7" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2329" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C78C577A-85D9-4835-8850-16373C146FC3}"/>
+  <xr:revisionPtr revIDLastSave="2333" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9865A836-F973-4F57-B2B1-BC366B3C5AA0}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="3015" windowWidth="17535" windowHeight="15285" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="19065" yWindow="345" windowWidth="14385" windowHeight="15285" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F24" si="0">(D2-E2)/D2</f>
+        <f>(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -568,7 +568,7 @@
         <v>168</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f>(D3-E3)/D3</f>
         <v>0.73626373626373631</v>
       </c>
       <c r="G3" s="1"/>
@@ -590,7 +590,7 @@
         <v>101</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>(D4-E4)/D4</f>
         <v>0.66885245901639345</v>
       </c>
       <c r="G4" s="1"/>
@@ -612,7 +612,7 @@
         <v>275</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f>(D5-E5)/D5</f>
         <v>0.66340269277845776</v>
       </c>
       <c r="G5" s="1"/>
@@ -634,7 +634,7 @@
         <v>184</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f>(D6-E6)/D6</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="G6" s="1"/>
@@ -656,7 +656,7 @@
         <v>243</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f>(D7-E7)/D7</f>
         <v>0.59768211920529801</v>
       </c>
       <c r="G7" s="1"/>
@@ -678,7 +678,7 @@
         <v>239</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f>(D8-E8)/D8</f>
         <v>0.58434782608695657</v>
       </c>
       <c r="G8" s="1"/>
@@ -700,7 +700,7 @@
         <v>270</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
+        <f>(D9-E9)/D9</f>
         <v>0.58074534161490687</v>
       </c>
       <c r="G9" s="1"/>
@@ -722,7 +722,7 @@
         <v>129</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
+        <f>(D10-E10)/D10</f>
         <v>0.56711409395973156</v>
       </c>
       <c r="G10" s="1"/>
@@ -744,52 +744,52 @@
         <v>283</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f>(D11-E11)/D11</f>
         <v>0.55007949125596189</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="E12">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54042553191489362</v>
+        <f>(D12-E12)/D12</f>
+        <v>0.54748603351955305</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="E13">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54022988505747127</v>
+        <f>(D13-E13)/D13</f>
+        <v>0.54042553191489362</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -810,7 +810,7 @@
         <v>166</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
+        <f>(D14-E14)/D14</f>
         <v>0.53239436619718306</v>
       </c>
     </row>
@@ -831,7 +831,7 @@
         <v>90</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
+        <f>(D15-E15)/D15</f>
         <v>0.52127659574468088</v>
       </c>
       <c r="G15" s="1"/>
@@ -853,7 +853,7 @@
         <v>51</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
+        <f>(D16-E16)/D16</f>
         <v>0.49</v>
       </c>
       <c r="G16" s="1"/>
@@ -875,7 +875,7 @@
         <v>342</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
+        <f>(D17-E17)/D17</f>
         <v>0.48725637181409298</v>
       </c>
       <c r="G17" s="1"/>
@@ -897,7 +897,7 @@
         <v>362</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
+        <f>(D18-E18)/D18</f>
         <v>0.46210995542347699</v>
       </c>
       <c r="G18" s="1"/>
@@ -919,7 +919,7 @@
         <v>241</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
+        <f>(D19-E19)/D19</f>
         <v>0.46205357142857145</v>
       </c>
       <c r="G19" s="1"/>
@@ -941,7 +941,7 @@
         <v>150</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
+        <f>(D20-E20)/D20</f>
         <v>0.43396226415094341</v>
       </c>
       <c r="G20" s="1"/>
@@ -963,7 +963,7 @@
         <v>292</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f>(D21-E21)/D21</f>
         <v>0.38266384778012685</v>
       </c>
       <c r="G21" s="1"/>
@@ -985,7 +985,7 @@
         <v>167</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
+        <f>(D22-E22)/D22</f>
         <v>0.35521235521235522</v>
       </c>
       <c r="G22" s="1"/>
@@ -1007,7 +1007,7 @@
         <v>260</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
+        <f>(D23-E23)/D23</f>
         <v>0.28176795580110497</v>
       </c>
       <c r="G23" s="1"/>
@@ -1029,7 +1029,7 @@
         <v>447</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
+        <f>(D24-E24)/D24</f>
         <v>0.26960784313725489</v>
       </c>
       <c r="G24" s="1"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2333" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9865A836-F973-4F57-B2B1-BC366B3C5AA0}"/>
+  <xr:revisionPtr revIDLastSave="2335" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{431480DA-2DC8-4A18-B43F-F835E533655B}"/>
   <bookViews>
-    <workbookView xWindow="19065" yWindow="345" windowWidth="14385" windowHeight="15285" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>WINS</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Caroline Wozniacki (DENMARK)</t>
-  </si>
-  <si>
-    <t>Marion Bartoli (FRANCE)</t>
   </si>
   <si>
     <t>Na Li (CHINA)</t>
@@ -186,10 +183,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,10 +485,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +539,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F23" si="0">(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -568,7 +561,7 @@
         <v>168</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.73626373626373631</v>
       </c>
       <c r="G3" s="1"/>
@@ -590,7 +583,7 @@
         <v>101</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.66885245901639345</v>
       </c>
       <c r="G4" s="1"/>
@@ -612,14 +605,14 @@
         <v>275</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.66340269277845776</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>221</v>
@@ -634,7 +627,7 @@
         <v>184</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="G6" s="1"/>
@@ -656,7 +649,7 @@
         <v>243</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="0"/>
         <v>0.59768211920529801</v>
       </c>
       <c r="G7" s="1"/>
@@ -678,7 +671,7 @@
         <v>239</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.58434782608695657</v>
       </c>
       <c r="G8" s="1"/>
@@ -700,7 +693,7 @@
         <v>270</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="0"/>
         <v>0.58074534161490687</v>
       </c>
       <c r="G9" s="1"/>
@@ -722,7 +715,7 @@
         <v>129</v>
       </c>
       <c r="F10" s="2">
-        <f>(D10-E10)/D10</f>
+        <f t="shared" si="0"/>
         <v>0.56711409395973156</v>
       </c>
       <c r="G10" s="1"/>
@@ -744,14 +737,14 @@
         <v>283</v>
       </c>
       <c r="F11" s="2">
-        <f>(D11-E11)/D11</f>
+        <f t="shared" si="0"/>
         <v>0.55007949125596189</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>86</v>
@@ -766,14 +759,14 @@
         <v>81</v>
       </c>
       <c r="F12" s="2">
-        <f>(D12-E12)/D12</f>
+        <f t="shared" si="0"/>
         <v>0.54748603351955305</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>123</v>
@@ -788,14 +781,14 @@
         <v>108</v>
       </c>
       <c r="F13" s="2">
-        <f>(D13-E13)/D13</f>
+        <f t="shared" si="0"/>
         <v>0.54042553191489362</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>185</v>
@@ -810,7 +803,7 @@
         <v>166</v>
       </c>
       <c r="F14" s="2">
-        <f>(D14-E14)/D14</f>
+        <f t="shared" si="0"/>
         <v>0.53239436619718306</v>
       </c>
     </row>
@@ -831,7 +824,7 @@
         <v>90</v>
       </c>
       <c r="F15" s="2">
-        <f>(D15-E15)/D15</f>
+        <f t="shared" si="0"/>
         <v>0.52127659574468088</v>
       </c>
       <c r="G15" s="1"/>
@@ -853,7 +846,7 @@
         <v>51</v>
       </c>
       <c r="F16" s="2">
-        <f>(D16-E16)/D16</f>
+        <f t="shared" si="0"/>
         <v>0.49</v>
       </c>
       <c r="G16" s="1"/>
@@ -875,7 +868,7 @@
         <v>342</v>
       </c>
       <c r="F17" s="2">
-        <f>(D17-E17)/D17</f>
+        <f t="shared" si="0"/>
         <v>0.48725637181409298</v>
       </c>
       <c r="G17" s="1"/>
@@ -897,7 +890,7 @@
         <v>362</v>
       </c>
       <c r="F18" s="2">
-        <f>(D18-E18)/D18</f>
+        <f t="shared" si="0"/>
         <v>0.46210995542347699</v>
       </c>
       <c r="G18" s="1"/>
@@ -919,7 +912,7 @@
         <v>241</v>
       </c>
       <c r="F19" s="2">
-        <f>(D19-E19)/D19</f>
+        <f t="shared" si="0"/>
         <v>0.46205357142857145</v>
       </c>
       <c r="G19" s="1"/>
@@ -941,97 +934,78 @@
         <v>150</v>
       </c>
       <c r="F20" s="2">
-        <f>(D20-E20)/D20</f>
+        <f t="shared" si="0"/>
         <v>0.43396226415094341</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>311</v>
+        <v>176</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>473</v>
+        <v>259</v>
       </c>
       <c r="E21">
-        <v>292</v>
+        <v>167</v>
       </c>
       <c r="F21" s="2">
-        <f>(D21-E21)/D21</f>
-        <v>0.38266384778012685</v>
+        <f t="shared" si="0"/>
+        <v>0.35521235521235522</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>259</v>
+        <v>362</v>
       </c>
       <c r="E22">
-        <v>167</v>
+        <v>260</v>
       </c>
       <c r="F22" s="2">
-        <f>(D22-E22)/D22</f>
-        <v>0.35521235521235522</v>
+        <f t="shared" si="0"/>
+        <v>0.28176795580110497</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>271</v>
+        <v>456</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>362</v>
+        <v>612</v>
       </c>
       <c r="E23">
-        <v>260</v>
+        <v>447</v>
       </c>
       <c r="F23" s="2">
-        <f>(D23-E23)/D23</f>
-        <v>0.28176795580110497</v>
+        <f t="shared" si="0"/>
+        <v>0.26960784313725489</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>456</v>
-      </c>
-      <c r="C24">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>612</v>
-      </c>
-      <c r="E24">
-        <v>447</v>
-      </c>
-      <c r="F24" s="2">
-        <f>(D24-E24)/D24</f>
-        <v>0.26960784313725489</v>
-      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1057,9 +1031,6 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{886A4C9F-69C7-4226-BCD2-6825075A697E}">
@@ -1067,8 +1038,8 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F2:F24">
-    <cfRule type="iconSet" priority="66">
+  <conditionalFormatting sqref="F36">
+    <cfRule type="iconSet" priority="62">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1076,8 +1047,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="iconSet" priority="62">
+  <conditionalFormatting sqref="F2:F23">
+    <cfRule type="iconSet" priority="67">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2335" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{431480DA-2DC8-4A18-B43F-F835E533655B}"/>
+  <xr:revisionPtr revIDLastSave="2338" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E329A402-8399-4E9A-9761-D11D12C8DF31}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -183,6 +183,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,7 +492,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,20 +795,20 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E14">
         <v>166</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.53239436619718306</v>
+        <v>0.54143646408839774</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1038,8 +1042,8 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="iconSet" priority="62">
+  <conditionalFormatting sqref="F2:F23">
+    <cfRule type="iconSet" priority="67">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1047,8 +1051,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F23">
-    <cfRule type="iconSet" priority="67">
+  <conditionalFormatting sqref="F36">
+    <cfRule type="iconSet" priority="62">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2338" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E329A402-8399-4E9A-9761-D11D12C8DF31}"/>
+  <xr:revisionPtr revIDLastSave="2340" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60777D5D-9A95-4E3B-BAFC-BBFC58A9E608}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -190,9 +190,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -230,7 +230,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -336,7 +336,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -478,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C18">
         <v>14</v>
@@ -891,11 +891,11 @@
         <v>673</v>
       </c>
       <c r="E18">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>0.46210995542347699</v>
+        <v>0.46062407132243682</v>
       </c>
       <c r="G18" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2340" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60777D5D-9A95-4E3B-BAFC-BBFC58A9E608}"/>
+  <xr:revisionPtr revIDLastSave="2346" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08C1DC81-9093-4C1C-A6C7-EC6A151DA087}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>WINS</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Coco Gauff (USA)</t>
+  </si>
+  <si>
+    <t>Marion Bartoli (FRANCE)</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +546,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F23" si="0">(D2-E2)/D2</f>
+        <f>(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -565,7 +568,7 @@
         <v>168</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f>(D3-E3)/D3</f>
         <v>0.73626373626373631</v>
       </c>
       <c r="G3" s="1"/>
@@ -587,7 +590,7 @@
         <v>101</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>(D4-E4)/D4</f>
         <v>0.66885245901639345</v>
       </c>
       <c r="G4" s="1"/>
@@ -609,7 +612,7 @@
         <v>275</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f>(D5-E5)/D5</f>
         <v>0.66340269277845776</v>
       </c>
       <c r="G5" s="1"/>
@@ -631,7 +634,7 @@
         <v>184</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f>(D6-E6)/D6</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="G6" s="1"/>
@@ -653,7 +656,7 @@
         <v>243</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f>(D7-E7)/D7</f>
         <v>0.59768211920529801</v>
       </c>
       <c r="G7" s="1"/>
@@ -675,7 +678,7 @@
         <v>239</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f>(D8-E8)/D8</f>
         <v>0.58434782608695657</v>
       </c>
       <c r="G8" s="1"/>
@@ -697,7 +700,7 @@
         <v>270</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
+        <f>(D9-E9)/D9</f>
         <v>0.58074534161490687</v>
       </c>
       <c r="G9" s="1"/>
@@ -719,7 +722,7 @@
         <v>129</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
+        <f>(D10-E10)/D10</f>
         <v>0.56711409395973156</v>
       </c>
       <c r="G10" s="1"/>
@@ -741,7 +744,7 @@
         <v>283</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f>(D11-E11)/D11</f>
         <v>0.55007949125596189</v>
       </c>
       <c r="G11" s="1"/>
@@ -763,52 +766,52 @@
         <v>81</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
+        <f>(D12-E12)/D12</f>
         <v>0.54748603351955305</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>235</v>
+        <v>362</v>
       </c>
       <c r="E13">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54042553191489362</v>
+        <f>(D13-E13)/D13</f>
+        <v>0.54143646408839774</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>362</v>
+        <v>235</v>
       </c>
       <c r="E14">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54143646408839774</v>
+        <f>(D14-E14)/D14</f>
+        <v>0.54042553191489362</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -828,7 +831,7 @@
         <v>90</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
+        <f>(D15-E15)/D15</f>
         <v>0.52127659574468088</v>
       </c>
       <c r="G15" s="1"/>
@@ -850,7 +853,7 @@
         <v>51</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
+        <f>(D16-E16)/D16</f>
         <v>0.49</v>
       </c>
       <c r="G16" s="1"/>
@@ -872,52 +875,52 @@
         <v>342</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
+        <f>(D17-E17)/D17</f>
         <v>0.48725637181409298</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>387</v>
+        <v>258</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>673</v>
+        <v>448</v>
       </c>
       <c r="E18">
-        <v>363</v>
+        <v>241</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.46062407132243682</v>
+        <f>(D18-E18)/D18</f>
+        <v>0.46205357142857145</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>258</v>
+        <v>387</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>448</v>
+        <v>673</v>
       </c>
       <c r="E19">
-        <v>241</v>
+        <v>363</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.46205357142857145</v>
+        <f>(D19-E19)/D19</f>
+        <v>0.46062407132243682</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -938,78 +941,97 @@
         <v>150</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
+        <f>(D20-E20)/D20</f>
         <v>0.43396226415094341</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>176</v>
+        <v>311</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>259</v>
+        <v>473</v>
       </c>
       <c r="E21">
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.35521235521235522</v>
+        <f>(D21-E21)/D21</f>
+        <v>0.38266384778012685</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>271</v>
+        <v>176</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>362</v>
+        <v>259</v>
       </c>
       <c r="E22">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.28176795580110497</v>
+        <f>(D22-E22)/D22</f>
+        <v>0.35521235521235522</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>271</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>362</v>
+      </c>
+      <c r="E23">
+        <v>260</v>
+      </c>
+      <c r="F23" s="2">
+        <f>(D23-E23)/D23</f>
+        <v>0.28176795580110497</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>456</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>612</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>447</v>
       </c>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
+      <c r="F24" s="2">
+        <f>(D24-E24)/D24</f>
         <v>0.26960784313725489</v>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1042,7 +1064,7 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F2:F23">
+  <conditionalFormatting sqref="F2:F24">
     <cfRule type="iconSet" priority="67">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2346" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08C1DC81-9093-4C1C-A6C7-EC6A151DA087}"/>
+  <xr:revisionPtr revIDLastSave="2348" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22E3D9BB-5D4E-4082-87E9-9D3245FF5272}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F24" si="0">(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -568,7 +568,7 @@
         <v>168</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.73626373626373631</v>
       </c>
       <c r="G3" s="1"/>
@@ -590,7 +590,7 @@
         <v>101</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.66885245901639345</v>
       </c>
       <c r="G4" s="1"/>
@@ -612,7 +612,7 @@
         <v>275</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.66340269277845776</v>
       </c>
       <c r="G5" s="1"/>
@@ -634,7 +634,7 @@
         <v>184</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="G6" s="1"/>
@@ -656,7 +656,7 @@
         <v>243</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="0"/>
         <v>0.59768211920529801</v>
       </c>
       <c r="G7" s="1"/>
@@ -678,7 +678,7 @@
         <v>239</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.58434782608695657</v>
       </c>
       <c r="G8" s="1"/>
@@ -700,7 +700,7 @@
         <v>270</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="0"/>
         <v>0.58074534161490687</v>
       </c>
       <c r="G9" s="1"/>
@@ -722,7 +722,7 @@
         <v>129</v>
       </c>
       <c r="F10" s="2">
-        <f>(D10-E10)/D10</f>
+        <f t="shared" si="0"/>
         <v>0.56711409395973156</v>
       </c>
       <c r="G10" s="1"/>
@@ -744,7 +744,7 @@
         <v>283</v>
       </c>
       <c r="F11" s="2">
-        <f>(D11-E11)/D11</f>
+        <f t="shared" si="0"/>
         <v>0.55007949125596189</v>
       </c>
       <c r="G11" s="1"/>
@@ -766,7 +766,7 @@
         <v>81</v>
       </c>
       <c r="F12" s="2">
-        <f>(D12-E12)/D12</f>
+        <f t="shared" si="0"/>
         <v>0.54748603351955305</v>
       </c>
       <c r="G12" s="1"/>
@@ -788,7 +788,7 @@
         <v>166</v>
       </c>
       <c r="F13" s="2">
-        <f>(D13-E13)/D13</f>
+        <f t="shared" si="0"/>
         <v>0.54143646408839774</v>
       </c>
       <c r="G13" s="1"/>
@@ -810,7 +810,7 @@
         <v>108</v>
       </c>
       <c r="F14" s="2">
-        <f>(D14-E14)/D14</f>
+        <f t="shared" si="0"/>
         <v>0.54042553191489362</v>
       </c>
     </row>
@@ -831,7 +831,7 @@
         <v>90</v>
       </c>
       <c r="F15" s="2">
-        <f>(D15-E15)/D15</f>
+        <f t="shared" si="0"/>
         <v>0.52127659574468088</v>
       </c>
       <c r="G15" s="1"/>
@@ -853,7 +853,7 @@
         <v>51</v>
       </c>
       <c r="F16" s="2">
-        <f>(D16-E16)/D16</f>
+        <f t="shared" si="0"/>
         <v>0.49</v>
       </c>
       <c r="G16" s="1"/>
@@ -875,7 +875,7 @@
         <v>342</v>
       </c>
       <c r="F17" s="2">
-        <f>(D17-E17)/D17</f>
+        <f t="shared" si="0"/>
         <v>0.48725637181409298</v>
       </c>
       <c r="G17" s="1"/>
@@ -897,7 +897,7 @@
         <v>241</v>
       </c>
       <c r="F18" s="2">
-        <f>(D18-E18)/D18</f>
+        <f t="shared" si="0"/>
         <v>0.46205357142857145</v>
       </c>
       <c r="G18" s="1"/>
@@ -919,7 +919,7 @@
         <v>363</v>
       </c>
       <c r="F19" s="2">
-        <f>(D19-E19)/D19</f>
+        <f t="shared" si="0"/>
         <v>0.46062407132243682</v>
       </c>
       <c r="G19" s="1"/>
@@ -941,7 +941,7 @@
         <v>150</v>
       </c>
       <c r="F20" s="2">
-        <f>(D20-E20)/D20</f>
+        <f t="shared" si="0"/>
         <v>0.43396226415094341</v>
       </c>
       <c r="G20" s="1"/>
@@ -963,7 +963,7 @@
         <v>292</v>
       </c>
       <c r="F21" s="2">
-        <f>(D21-E21)/D21</f>
+        <f t="shared" si="0"/>
         <v>0.38266384778012685</v>
       </c>
       <c r="G21" s="1"/>
@@ -973,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -982,11 +982,11 @@
         <v>259</v>
       </c>
       <c r="E22">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F22" s="2">
-        <f>(D22-E22)/D22</f>
-        <v>0.35521235521235522</v>
+        <f t="shared" si="0"/>
+        <v>0.35135135135135137</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1007,7 +1007,7 @@
         <v>260</v>
       </c>
       <c r="F23" s="2">
-        <f>(D23-E23)/D23</f>
+        <f t="shared" si="0"/>
         <v>0.28176795580110497</v>
       </c>
       <c r="G23" s="1"/>
@@ -1029,7 +1029,7 @@
         <v>447</v>
       </c>
       <c r="F24" s="2">
-        <f>(D24-E24)/D24</f>
+        <f t="shared" si="0"/>
         <v>0.26960784313725489</v>
       </c>
       <c r="G24" s="1"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2348" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22E3D9BB-5D4E-4082-87E9-9D3245FF5272}"/>
+  <xr:revisionPtr revIDLastSave="2355" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA3495CA-7EF5-42CB-8D8C-A63DACC1C4AB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="19305" windowHeight="17130" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,20 +841,20 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>0.49</v>
+        <v>0.48514851485148514</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -929,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -938,11 +938,11 @@
         <v>265</v>
       </c>
       <c r="E20">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.43396226415094341</v>
+        <v>0.43018867924528303</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -1065,7 +1065,7 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F2:F24">
-    <cfRule type="iconSet" priority="67">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1074,7 +1074,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="iconSet" priority="62">
+    <cfRule type="iconSet" priority="63">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2355" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA3495CA-7EF5-42CB-8D8C-A63DACC1C4AB}"/>
+  <xr:revisionPtr revIDLastSave="2362" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E695EF64-0A38-4011-BA14-75E84EE96D63}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="19305" windowHeight="17130" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -186,10 +186,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,7 +491,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +542,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F24" si="0">(D2-E2)/D2</f>
+        <f>(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -568,7 +564,7 @@
         <v>168</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f>(D3-E3)/D3</f>
         <v>0.73626373626373631</v>
       </c>
       <c r="G3" s="1"/>
@@ -590,7 +586,7 @@
         <v>101</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>(D4-E4)/D4</f>
         <v>0.66885245901639345</v>
       </c>
       <c r="G4" s="1"/>
@@ -612,7 +608,7 @@
         <v>275</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f>(D5-E5)/D5</f>
         <v>0.66340269277845776</v>
       </c>
       <c r="G5" s="1"/>
@@ -634,7 +630,7 @@
         <v>184</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f>(D6-E6)/D6</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="G6" s="1"/>
@@ -656,7 +652,7 @@
         <v>243</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f>(D7-E7)/D7</f>
         <v>0.59768211920529801</v>
       </c>
       <c r="G7" s="1"/>
@@ -678,7 +674,7 @@
         <v>239</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f>(D8-E8)/D8</f>
         <v>0.58434782608695657</v>
       </c>
       <c r="G8" s="1"/>
@@ -700,7 +696,7 @@
         <v>270</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
+        <f>(D9-E9)/D9</f>
         <v>0.58074534161490687</v>
       </c>
       <c r="G9" s="1"/>
@@ -710,20 +706,20 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E10">
         <v>129</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.56711409395973156</v>
+        <f>(D10-E10)/D10</f>
+        <v>0.57284768211920534</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -744,7 +740,7 @@
         <v>283</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f>(D11-E11)/D11</f>
         <v>0.55007949125596189</v>
       </c>
       <c r="G11" s="1"/>
@@ -766,7 +762,7 @@
         <v>81</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
+        <f>(D12-E12)/D12</f>
         <v>0.54748603351955305</v>
       </c>
       <c r="G12" s="1"/>
@@ -788,7 +784,7 @@
         <v>166</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
+        <f>(D13-E13)/D13</f>
         <v>0.54143646408839774</v>
       </c>
       <c r="G13" s="1"/>
@@ -810,7 +806,7 @@
         <v>108</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
+        <f>(D14-E14)/D14</f>
         <v>0.54042553191489362</v>
       </c>
     </row>
@@ -831,52 +827,52 @@
         <v>90</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
+        <f>(D15-E15)/D15</f>
         <v>0.52127659574468088</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>54</v>
+        <v>365</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>101</v>
+        <v>667</v>
       </c>
       <c r="E16">
-        <v>52</v>
+        <v>342</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.48514851485148514</v>
+        <f>(D16-E16)/D16</f>
+        <v>0.48725637181409298</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>365</v>
+        <v>54</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>667</v>
+        <v>101</v>
       </c>
       <c r="E17">
-        <v>342</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.48725637181409298</v>
+        <f>(D17-E17)/D17</f>
+        <v>0.48514851485148514</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -897,7 +893,7 @@
         <v>241</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
+        <f>(D18-E18)/D18</f>
         <v>0.46205357142857145</v>
       </c>
       <c r="G18" s="1"/>
@@ -919,7 +915,7 @@
         <v>363</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
+        <f>(D19-E19)/D19</f>
         <v>0.46062407132243682</v>
       </c>
       <c r="G19" s="1"/>
@@ -941,7 +937,7 @@
         <v>151</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
+        <f>(D20-E20)/D20</f>
         <v>0.43018867924528303</v>
       </c>
       <c r="G20" s="1"/>
@@ -963,7 +959,7 @@
         <v>292</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f>(D21-E21)/D21</f>
         <v>0.38266384778012685</v>
       </c>
       <c r="G21" s="1"/>
@@ -985,7 +981,7 @@
         <v>168</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
+        <f>(D22-E22)/D22</f>
         <v>0.35135135135135137</v>
       </c>
       <c r="G22" s="1"/>
@@ -995,7 +991,7 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -1004,11 +1000,11 @@
         <v>362</v>
       </c>
       <c r="E23">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>0.28176795580110497</v>
+        <f>(D23-E23)/D23</f>
+        <v>0.27900552486187846</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1029,7 +1025,7 @@
         <v>447</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
+        <f>(D24-E24)/D24</f>
         <v>0.26960784313725489</v>
       </c>
       <c r="G24" s="1"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2362" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E695EF64-0A38-4011-BA14-75E84EE96D63}"/>
+  <xr:revisionPtr revIDLastSave="2373" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{527BB92B-FC9F-4447-854D-B3475F6C6A46}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -186,6 +186,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +754,7 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -759,11 +763,11 @@
         <v>179</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2">
         <f>(D12-E12)/D12</f>
-        <v>0.54748603351955305</v>
+        <v>0.54189944134078216</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -859,7 +863,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -868,11 +872,11 @@
         <v>101</v>
       </c>
       <c r="E17">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" s="2">
         <f>(D17-E17)/D17</f>
-        <v>0.48514851485148514</v>
+        <v>0.47524752475247523</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -969,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -978,11 +982,11 @@
         <v>259</v>
       </c>
       <c r="E22">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F22" s="2">
         <f>(D22-E22)/D22</f>
-        <v>0.35135135135135137</v>
+        <v>0.34749034749034752</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1070,7 +1074,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="iconSet" priority="63">
+    <cfRule type="iconSet" priority="65">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2373" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{527BB92B-FC9F-4447-854D-B3475F6C6A46}"/>
+  <xr:revisionPtr revIDLastSave="2376" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68389D38-13D2-4CE7-80D7-53A1070E7C41}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F24" si="0">(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -568,7 +568,7 @@
         <v>168</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.73626373626373631</v>
       </c>
       <c r="G3" s="1"/>
@@ -590,7 +590,7 @@
         <v>101</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.66885245901639345</v>
       </c>
       <c r="G4" s="1"/>
@@ -612,7 +612,7 @@
         <v>275</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.66340269277845776</v>
       </c>
       <c r="G5" s="1"/>
@@ -634,7 +634,7 @@
         <v>184</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="G6" s="1"/>
@@ -656,7 +656,7 @@
         <v>243</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="0"/>
         <v>0.59768211920529801</v>
       </c>
       <c r="G7" s="1"/>
@@ -678,7 +678,7 @@
         <v>239</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.58434782608695657</v>
       </c>
       <c r="G8" s="1"/>
@@ -700,7 +700,7 @@
         <v>270</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="0"/>
         <v>0.58074534161490687</v>
       </c>
       <c r="G9" s="1"/>
@@ -722,7 +722,7 @@
         <v>129</v>
       </c>
       <c r="F10" s="2">
-        <f>(D10-E10)/D10</f>
+        <f t="shared" si="0"/>
         <v>0.57284768211920534</v>
       </c>
       <c r="G10" s="1"/>
@@ -744,7 +744,7 @@
         <v>283</v>
       </c>
       <c r="F11" s="2">
-        <f>(D11-E11)/D11</f>
+        <f t="shared" si="0"/>
         <v>0.55007949125596189</v>
       </c>
       <c r="G11" s="1"/>
@@ -766,7 +766,7 @@
         <v>82</v>
       </c>
       <c r="F12" s="2">
-        <f>(D12-E12)/D12</f>
+        <f t="shared" si="0"/>
         <v>0.54189944134078216</v>
       </c>
       <c r="G12" s="1"/>
@@ -788,7 +788,7 @@
         <v>166</v>
       </c>
       <c r="F13" s="2">
-        <f>(D13-E13)/D13</f>
+        <f t="shared" si="0"/>
         <v>0.54143646408839774</v>
       </c>
       <c r="G13" s="1"/>
@@ -798,20 +798,20 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E14">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F14" s="2">
-        <f>(D14-E14)/D14</f>
-        <v>0.54042553191489362</v>
+        <f t="shared" si="0"/>
+        <v>0.53813559322033899</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
         <v>90</v>
       </c>
       <c r="F15" s="2">
-        <f>(D15-E15)/D15</f>
+        <f t="shared" si="0"/>
         <v>0.52127659574468088</v>
       </c>
       <c r="G15" s="1"/>
@@ -853,7 +853,7 @@
         <v>342</v>
       </c>
       <c r="F16" s="2">
-        <f>(D16-E16)/D16</f>
+        <f t="shared" si="0"/>
         <v>0.48725637181409298</v>
       </c>
       <c r="G16" s="1"/>
@@ -875,7 +875,7 @@
         <v>53</v>
       </c>
       <c r="F17" s="2">
-        <f>(D17-E17)/D17</f>
+        <f t="shared" si="0"/>
         <v>0.47524752475247523</v>
       </c>
       <c r="G17" s="1"/>
@@ -897,7 +897,7 @@
         <v>241</v>
       </c>
       <c r="F18" s="2">
-        <f>(D18-E18)/D18</f>
+        <f t="shared" si="0"/>
         <v>0.46205357142857145</v>
       </c>
       <c r="G18" s="1"/>
@@ -919,7 +919,7 @@
         <v>363</v>
       </c>
       <c r="F19" s="2">
-        <f>(D19-E19)/D19</f>
+        <f t="shared" si="0"/>
         <v>0.46062407132243682</v>
       </c>
       <c r="G19" s="1"/>
@@ -941,7 +941,7 @@
         <v>151</v>
       </c>
       <c r="F20" s="2">
-        <f>(D20-E20)/D20</f>
+        <f t="shared" si="0"/>
         <v>0.43018867924528303</v>
       </c>
       <c r="G20" s="1"/>
@@ -963,7 +963,7 @@
         <v>292</v>
       </c>
       <c r="F21" s="2">
-        <f>(D21-E21)/D21</f>
+        <f t="shared" si="0"/>
         <v>0.38266384778012685</v>
       </c>
       <c r="G21" s="1"/>
@@ -985,7 +985,7 @@
         <v>169</v>
       </c>
       <c r="F22" s="2">
-        <f>(D22-E22)/D22</f>
+        <f t="shared" si="0"/>
         <v>0.34749034749034752</v>
       </c>
       <c r="G22" s="1"/>
@@ -1007,7 +1007,7 @@
         <v>261</v>
       </c>
       <c r="F23" s="2">
-        <f>(D23-E23)/D23</f>
+        <f t="shared" si="0"/>
         <v>0.27900552486187846</v>
       </c>
       <c r="G23" s="1"/>
@@ -1029,7 +1029,7 @@
         <v>447</v>
       </c>
       <c r="F24" s="2">
-        <f>(D24-E24)/D24</f>
+        <f t="shared" si="0"/>
         <v>0.26960784313725489</v>
       </c>
       <c r="G24" s="1"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2376" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68389D38-13D2-4CE7-80D7-53A1070E7C41}"/>
+  <xr:revisionPtr revIDLastSave="2382" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32EA9FF7-6853-4CEA-8DD8-79E7A79A89A4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19305" windowHeight="17130" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,20 +644,20 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E7">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.59768211920529801</v>
+        <v>0.59802306425041185</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -929,20 +929,20 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E20">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.43018867924528303</v>
+        <v>0.43071161048689138</v>
       </c>
       <c r="G20" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2382" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32EA9FF7-6853-4CEA-8DD8-79E7A79A89A4}"/>
+  <xr:revisionPtr revIDLastSave="2387" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9DAF971-FEF9-4C48-AADA-B45E90730520}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19305" windowHeight="17130" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,20 +710,20 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.57284768211920534</v>
+        <v>0.57516339869281041</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1064,8 +1064,8 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F2:F24">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="F36">
+    <cfRule type="iconSet" priority="66">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1073,8 +1073,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="iconSet" priority="65">
+  <conditionalFormatting sqref="F2:F24">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2387" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9DAF971-FEF9-4C48-AADA-B45E90730520}"/>
+  <xr:revisionPtr revIDLastSave="2389" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA10B4B2-2458-439F-92F7-E95E44167877}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -982,11 +982,11 @@
         <v>259</v>
       </c>
       <c r="E22">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.34749034749034752</v>
+        <v>0.34362934362934361</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1064,8 +1064,8 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="iconSet" priority="66">
+  <conditionalFormatting sqref="F2:F24">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1073,8 +1073,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F24">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="F36">
+    <cfRule type="iconSet" priority="66">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2389" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA10B4B2-2458-439F-92F7-E95E44167877}"/>
+  <xr:revisionPtr revIDLastSave="2400" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A004F302-510F-45DA-8D56-D9165758F460}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,20 +644,20 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E7">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.59802306425041185</v>
+        <v>0.59703947368421051</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C13">
         <v>14</v>
@@ -785,11 +785,11 @@
         <v>362</v>
       </c>
       <c r="E13">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.54143646408839774</v>
+        <v>0.53867403314917128</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -995,20 +995,20 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E23">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.27900552486187846</v>
+        <v>0.27548209366391185</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1073,15 +1073,6 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="iconSet" priority="66">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2400" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A004F302-510F-45DA-8D56-D9165758F460}"/>
+  <xr:revisionPtr revIDLastSave="2408" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{572B977A-3EB4-4E70-A1E5-4ED8B146375F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,20 +710,20 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E10">
         <v>130</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.57516339869281041</v>
+        <v>0.57792207792207795</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -754,20 +754,20 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E12">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.54189944134078216</v>
+        <v>0.54143646408839774</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -798,20 +798,20 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E14">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.53813559322033899</v>
+        <v>0.53781512605042014</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2408" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{572B977A-3EB4-4E70-A1E5-4ED8B146375F}"/>
+  <xr:revisionPtr revIDLastSave="2410" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2902B95F-C25B-454F-A019-80E63D4FF5B6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="19305" windowHeight="17130" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -193,9 +193,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -233,7 +233,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -339,7 +339,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -481,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +688,7 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -697,11 +697,11 @@
         <v>644</v>
       </c>
       <c r="E9">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.58074534161490687</v>
+        <v>0.57919254658385089</v>
       </c>
       <c r="G9" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2410" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2902B95F-C25B-454F-A019-80E63D4FF5B6}"/>
+  <xr:revisionPtr revIDLastSave="2413" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30AFCE35-A3CF-40B6-AABA-F430AD984EF1}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="19305" windowHeight="17130" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="19305" windowHeight="17130" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,20 +995,20 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E23">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.27548209366391185</v>
+        <v>0.27472527472527475</v>
       </c>
       <c r="G23" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2413" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30AFCE35-A3CF-40B6-AABA-F430AD984EF1}"/>
+  <xr:revisionPtr revIDLastSave="2445" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CF281A1-FD29-47F3-AB53-1B126EA40F2D}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="19305" windowHeight="17130" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="4005" yWindow="4215" windowWidth="28800" windowHeight="15285" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +644,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -653,11 +653,11 @@
         <v>608</v>
       </c>
       <c r="E7">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.59703947368421051</v>
+        <v>0.59539473684210531</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -688,20 +688,20 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C9">
         <v>30</v>
       </c>
       <c r="D9">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="E9">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.57919254658385089</v>
+        <v>0.58024691358024694</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -754,20 +754,20 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E12">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.54143646408839774</v>
+        <v>0.54594594594594592</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -776,20 +776,20 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C13">
         <v>14</v>
       </c>
       <c r="D13">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E13">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.53867403314917128</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -798,20 +798,20 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E14">
         <v>110</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.53781512605042014</v>
+        <v>0.53974895397489542</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -863,20 +863,20 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E17">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0.47524752475247523</v>
+        <v>0.46601941747572817</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -907,20 +907,20 @@
         <v>11</v>
       </c>
       <c r="B19">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C19">
         <v>14</v>
       </c>
       <c r="D19">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="E19">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>0.46062407132243682</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -929,20 +929,20 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E20">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.43071161048689138</v>
+        <v>0.43122676579925651</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -973,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -982,11 +982,11 @@
         <v>259</v>
       </c>
       <c r="E22">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.34362934362934361</v>
+        <v>0.33976833976833976</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -995,20 +995,20 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E23">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.27472527472527475</v>
+        <v>0.27595628415300544</v>
       </c>
       <c r="G23" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2445" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CF281A1-FD29-47F3-AB53-1B126EA40F2D}"/>
+  <xr:revisionPtr revIDLastSave="2449" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94BFFBCF-1DFB-4C78-9A4F-2E9D14C5D71F}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="4215" windowWidth="28800" windowHeight="15285" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,20 +495,20 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -529,7 +529,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -551,7 +551,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -573,7 +573,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C5">
         <v>49</v>
@@ -609,15 +609,15 @@
         <v>817</v>
       </c>
       <c r="E5">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66340269277845776</v>
+        <v>0.66095471236230108</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -661,12 +661,12 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -675,15 +675,15 @@
         <v>575</v>
       </c>
       <c r="E8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.58434782608695657</v>
+        <v>0.58260869565217388</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -705,7 +705,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -749,7 +749,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -793,7 +793,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0.53974895397489542</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -836,7 +836,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -858,7 +858,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -880,7 +880,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -902,7 +902,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -924,7 +924,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -946,7 +946,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -968,7 +968,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -990,7 +990,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1034,28 +1034,28 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2449" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94BFFBCF-1DFB-4C78-9A4F-2E9D14C5D71F}"/>
+  <xr:revisionPtr revIDLastSave="2470" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AFD563B-4169-4045-89CE-A2D2155D5B6D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,20 +644,20 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="E7">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.59539473684210531</v>
+        <v>0.59609120521172643</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -688,20 +688,20 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C9">
         <v>30</v>
       </c>
       <c r="D9">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E9">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.58024691358024694</v>
+        <v>0.57846153846153847</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -710,20 +710,20 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.57792207792207795</v>
+        <v>0.58146964856230032</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -754,20 +754,20 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E12">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.54594594594594592</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -929,20 +929,20 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E20">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.43122676579925651</v>
+        <v>0.43173431734317341</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -973,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -982,11 +982,11 @@
         <v>259</v>
       </c>
       <c r="E22">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.33976833976833976</v>
+        <v>0.33204633204633205</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -995,20 +995,20 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E23">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.27595628415300544</v>
+        <v>0.27642276422764228</v>
       </c>
       <c r="G23" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2470" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AFD563B-4169-4045-89CE-A2D2155D5B6D}"/>
+  <xr:revisionPtr revIDLastSave="2488" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79633CF5-1E7E-4E8D-9F41-D9394518CBE7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,20 +495,20 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -529,7 +529,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -551,7 +551,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -573,7 +573,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -595,7 +595,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -617,7 +617,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -661,7 +661,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -683,7 +683,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -705,7 +705,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -749,72 +749,72 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E12">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.54255319148936165</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C13">
         <v>14</v>
       </c>
       <c r="D13">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E13">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.53846153846153844</v>
+        <v>0.53551912568306015</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E14">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.53974895397489542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.54132231404958675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -836,7 +836,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -858,29 +858,29 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E17">
         <v>55</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0.46601941747572817</v>
+        <v>0.48598130841121495</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -902,12 +902,12 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -916,20 +916,20 @@
         <v>676</v>
       </c>
       <c r="E19">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>0.46153846153846156</v>
+        <v>0.45857988165680474</v>
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -938,15 +938,15 @@
         <v>271</v>
       </c>
       <c r="E20">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.43173431734317341</v>
+        <v>0.4280442804428044</v>
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -968,7 +968,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -990,7 +990,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1034,28 +1034,28 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2488" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79633CF5-1E7E-4E8D-9F41-D9394518CBE7}"/>
+  <xr:revisionPtr revIDLastSave="2497" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1DDF959-3D16-4492-A338-85CD2EF16DD5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,20 +495,20 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -529,7 +529,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -546,12 +546,12 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F24" si="0">(D2-E2)/D2</f>
+        <f>(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -568,12 +568,12 @@
         <v>168</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f>(D3-E3)/D3</f>
         <v>0.73626373626373631</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -590,12 +590,12 @@
         <v>101</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>(D4-E4)/D4</f>
         <v>0.66885245901639345</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -612,12 +612,12 @@
         <v>277</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f>(D5-E5)/D5</f>
         <v>0.66095471236230108</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -634,12 +634,12 @@
         <v>184</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f>(D6-E6)/D6</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -656,78 +656,78 @@
         <v>248</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f>(D7-E7)/D7</f>
         <v>0.59609120521172643</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>152</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>317</v>
+      </c>
+      <c r="E8">
+        <v>131</v>
+      </c>
+      <c r="F8" s="2">
+        <f>(D8-E8)/D8</f>
+        <v>0.58675078864353314</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>277</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>24</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>575</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>240</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
+      <c r="F9" s="2">
+        <f>(D9-E9)/D9</f>
         <v>0.58260869565217388</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>306</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>30</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>650</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>274</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
+      <c r="F10" s="2">
+        <f>(D10-E10)/D10</f>
         <v>0.57846153846153847</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>151</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>313</v>
-      </c>
-      <c r="E10">
-        <v>131</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58146964856230032</v>
-      </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -744,12 +744,12 @@
         <v>283</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f>(D11-E11)/D11</f>
         <v>0.55007949125596189</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -766,55 +766,55 @@
         <v>86</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
+        <f>(D12-E12)/D12</f>
         <v>0.54255319148936165</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>127</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>242</v>
+      </c>
+      <c r="E13">
+        <v>111</v>
+      </c>
+      <c r="F13" s="2">
+        <f>(D13-E13)/D13</f>
+        <v>0.54132231404958675</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>190</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>14</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>366</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>170</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
+      <c r="F14" s="2">
+        <f>(D14-E14)/D14</f>
         <v>0.53551912568306015</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14">
-        <v>127</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>242</v>
-      </c>
-      <c r="E14">
-        <v>111</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54132231404958675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -831,12 +831,12 @@
         <v>90</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
+        <f>(D15-E15)/D15</f>
         <v>0.52127659574468088</v>
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -853,12 +853,12 @@
         <v>342</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
+        <f>(D16-E16)/D16</f>
         <v>0.48725637181409298</v>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -875,12 +875,12 @@
         <v>55</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
+        <f>(D17-E17)/D17</f>
         <v>0.48598130841121495</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -897,12 +897,12 @@
         <v>241</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
+        <f>(D18-E18)/D18</f>
         <v>0.46205357142857145</v>
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -919,12 +919,12 @@
         <v>366</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
+        <f>(D19-E19)/D19</f>
         <v>0.45857988165680474</v>
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -941,12 +941,12 @@
         <v>155</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
+        <f>(D20-E20)/D20</f>
         <v>0.4280442804428044</v>
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -963,17 +963,17 @@
         <v>292</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f>(D21-E21)/D21</f>
         <v>0.38266384778012685</v>
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -982,37 +982,37 @@
         <v>259</v>
       </c>
       <c r="E22">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.33204633204633205</v>
+        <f>(D22-E22)/D22</f>
+        <v>0.3281853281853282</v>
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E23">
         <v>267</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>0.27642276422764228</v>
+        <f>(D23-E23)/D23</f>
+        <v>0.28609625668449196</v>
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1029,33 +1029,33 @@
         <v>447</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
+        <f>(D24-E24)/D24</f>
         <v>0.26960784313725489</v>
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2497" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1DDF959-3D16-4492-A338-85CD2EF16DD5}"/>
+  <xr:revisionPtr revIDLastSave="2511" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ACDFD0F-6544-4AE3-ABC9-D1F704045596}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,17 +495,17 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -546,7 +546,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F24" si="0">(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -568,7 +568,7 @@
         <v>168</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.73626373626373631</v>
       </c>
       <c r="G3" s="1"/>
@@ -590,7 +590,7 @@
         <v>101</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.66885245901639345</v>
       </c>
       <c r="G4" s="1"/>
@@ -612,7 +612,7 @@
         <v>277</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.66095471236230108</v>
       </c>
       <c r="G5" s="1"/>
@@ -634,7 +634,7 @@
         <v>184</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="G6" s="1"/>
@@ -644,20 +644,20 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E7">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
-        <v>0.59609120521172643</v>
+        <f t="shared" si="0"/>
+        <v>0.59512195121951217</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -678,7 +678,7 @@
         <v>131</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.58675078864353314</v>
       </c>
       <c r="G8" s="1"/>
@@ -700,7 +700,7 @@
         <v>240</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="0"/>
         <v>0.58260869565217388</v>
       </c>
       <c r="G9" s="1"/>
@@ -710,7 +710,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -719,11 +719,11 @@
         <v>650</v>
       </c>
       <c r="E10">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F10" s="2">
-        <f>(D10-E10)/D10</f>
-        <v>0.57846153846153847</v>
+        <f t="shared" si="0"/>
+        <v>0.57692307692307687</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -744,7 +744,7 @@
         <v>283</v>
       </c>
       <c r="F11" s="2">
-        <f>(D11-E11)/D11</f>
+        <f t="shared" si="0"/>
         <v>0.55007949125596189</v>
       </c>
       <c r="G11" s="1"/>
@@ -766,7 +766,7 @@
         <v>86</v>
       </c>
       <c r="F12" s="2">
-        <f>(D12-E12)/D12</f>
+        <f t="shared" si="0"/>
         <v>0.54255319148936165</v>
       </c>
       <c r="G12" s="1"/>
@@ -788,7 +788,7 @@
         <v>111</v>
       </c>
       <c r="F13" s="2">
-        <f>(D13-E13)/D13</f>
+        <f t="shared" si="0"/>
         <v>0.54132231404958675</v>
       </c>
       <c r="G13" s="1"/>
@@ -810,7 +810,7 @@
         <v>170</v>
       </c>
       <c r="F14" s="2">
-        <f>(D14-E14)/D14</f>
+        <f t="shared" si="0"/>
         <v>0.53551912568306015</v>
       </c>
     </row>
@@ -831,7 +831,7 @@
         <v>90</v>
       </c>
       <c r="F15" s="2">
-        <f>(D15-E15)/D15</f>
+        <f t="shared" si="0"/>
         <v>0.52127659574468088</v>
       </c>
       <c r="G15" s="1"/>
@@ -853,7 +853,7 @@
         <v>342</v>
       </c>
       <c r="F16" s="2">
-        <f>(D16-E16)/D16</f>
+        <f t="shared" si="0"/>
         <v>0.48725637181409298</v>
       </c>
       <c r="G16" s="1"/>
@@ -863,7 +863,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -872,11 +872,11 @@
         <v>107</v>
       </c>
       <c r="E17">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="2">
-        <f>(D17-E17)/D17</f>
-        <v>0.48598130841121495</v>
+        <f t="shared" si="0"/>
+        <v>0.47663551401869159</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -897,7 +897,7 @@
         <v>241</v>
       </c>
       <c r="F18" s="2">
-        <f>(D18-E18)/D18</f>
+        <f t="shared" si="0"/>
         <v>0.46205357142857145</v>
       </c>
       <c r="G18" s="1"/>
@@ -919,7 +919,7 @@
         <v>366</v>
       </c>
       <c r="F19" s="2">
-        <f>(D19-E19)/D19</f>
+        <f t="shared" si="0"/>
         <v>0.45857988165680474</v>
       </c>
       <c r="G19" s="1"/>
@@ -929,20 +929,20 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E20">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F20" s="2">
-        <f>(D20-E20)/D20</f>
-        <v>0.4280442804428044</v>
+        <f t="shared" si="0"/>
+        <v>0.4264705882352941</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -963,7 +963,7 @@
         <v>292</v>
       </c>
       <c r="F21" s="2">
-        <f>(D21-E21)/D21</f>
+        <f t="shared" si="0"/>
         <v>0.38266384778012685</v>
       </c>
       <c r="G21" s="1"/>
@@ -985,7 +985,7 @@
         <v>174</v>
       </c>
       <c r="F22" s="2">
-        <f>(D22-E22)/D22</f>
+        <f t="shared" si="0"/>
         <v>0.3281853281853282</v>
       </c>
       <c r="G22" s="1"/>
@@ -995,20 +995,20 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C23">
         <v>8</v>
       </c>
       <c r="D23">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E23">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F23" s="2">
-        <f>(D23-E23)/D23</f>
-        <v>0.28609625668449196</v>
+        <f t="shared" si="0"/>
+        <v>0.28723404255319152</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1029,7 +1029,7 @@
         <v>447</v>
       </c>
       <c r="F24" s="2">
-        <f>(D24-E24)/D24</f>
+        <f t="shared" si="0"/>
         <v>0.26960784313725489</v>
       </c>
       <c r="G24" s="1"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2511" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ACDFD0F-6544-4AE3-ABC9-D1F704045596}"/>
+  <xr:revisionPtr revIDLastSave="2514" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25A06A46-4E4F-454E-8494-26F09293D5CF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,20 +754,20 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E12">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.54255319148936165</v>
+        <v>0.54210526315789476</v>
       </c>
       <c r="G12" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2514" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25A06A46-4E4F-454E-8494-26F09293D5CF}"/>
+  <xr:revisionPtr revIDLastSave="2524" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93692B26-AC1B-470A-B28C-E40B91CB3A7B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,17 +495,17 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -666,20 +666,20 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.58675078864353314</v>
+        <v>0.58878504672897192</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -776,20 +776,20 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E13">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.54132231404958675</v>
+        <v>0.53909465020576131</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -798,20 +798,20 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C14">
         <v>14</v>
       </c>
       <c r="D14">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E14">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.53551912568306015</v>
+        <v>0.53908355795148244</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2524" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93692B26-AC1B-470A-B28C-E40B91CB3A7B}"/>
+  <xr:revisionPtr revIDLastSave="2529" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E72C982-F222-46AF-BC53-148010EA8917}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,20 +495,20 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -529,7 +529,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -551,7 +551,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -573,7 +573,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -595,7 +595,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -617,7 +617,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -661,7 +661,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -683,7 +683,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -705,7 +705,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -749,7 +749,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -771,29 +771,29 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="B13">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E13">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.53909465020576131</v>
+        <v>0.53688524590163933</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0.53908355795148244</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -836,7 +836,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -858,7 +858,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -880,7 +880,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -902,7 +902,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -924,7 +924,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -946,7 +946,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -968,7 +968,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -990,12 +990,12 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -1004,15 +1004,15 @@
         <v>376</v>
       </c>
       <c r="E23">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.28723404255319152</v>
+        <v>0.28457446808510639</v>
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1034,28 +1034,28 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2529" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E72C982-F222-46AF-BC53-148010EA8917}"/>
+  <xr:revisionPtr revIDLastSave="2532" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{338DF6B4-CBA0-4B0B-AB74-2D254DB7B3F7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,20 +973,20 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E22">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.3281853281853282</v>
+        <v>0.32950191570881227</v>
       </c>
       <c r="G22" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2532" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{338DF6B4-CBA0-4B0B-AB74-2D254DB7B3F7}"/>
+  <xr:revisionPtr revIDLastSave="2547" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{633E7791-AFDE-4DA1-8C8B-7976DD7DFB6F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,20 +644,20 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="E7">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.59512195121951217</v>
+        <v>0.59546925566343045</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -688,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C9">
         <v>24</v>
@@ -697,11 +697,11 @@
         <v>575</v>
       </c>
       <c r="E9">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.58260869565217388</v>
+        <v>0.5808695652173913</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -754,20 +754,20 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E12">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.54210526315789476</v>
+        <v>0.54639175257731953</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -913,14 +913,14 @@
         <v>14</v>
       </c>
       <c r="D19">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="E19">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>0.45857988165680474</v>
+        <v>0.45949926362297494</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -929,20 +929,20 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E20">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.4264705882352941</v>
+        <v>0.42909090909090908</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -995,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -1004,11 +1004,11 @@
         <v>376</v>
       </c>
       <c r="E23">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.28457446808510639</v>
+        <v>0.28191489361702127</v>
       </c>
       <c r="G23" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2547" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{633E7791-AFDE-4DA1-8C8B-7976DD7DFB6F}"/>
+  <xr:revisionPtr revIDLastSave="2550" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CE043F8-0A1C-4865-A6F9-9D489AC4879A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="4710" yWindow="4710" windowWidth="28800" windowHeight="15345" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,20 +798,20 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C14">
         <v>14</v>
       </c>
       <c r="D14">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E14">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.53908355795148244</v>
+        <v>0.54255319148936165</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2550" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CE043F8-0A1C-4865-A6F9-9D489AC4879A}"/>
+  <xr:revisionPtr revIDLastSave="2552" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02680AA9-2F70-4316-B118-FF52AAF46F0C}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="4710" windowWidth="28800" windowHeight="15345" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -1004,11 +1004,11 @@
         <v>376</v>
       </c>
       <c r="E23">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.28191489361702127</v>
+        <v>0.27925531914893614</v>
       </c>
       <c r="G23" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2552" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02680AA9-2F70-4316-B118-FF52AAF46F0C}"/>
+  <xr:revisionPtr revIDLastSave="2560" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A7DA2D6-7606-4FC4-976E-BDFCCB02D1B2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F24" si="0">(D2-E2)/D2</f>
+        <f>(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -568,7 +568,7 @@
         <v>168</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f>(D3-E3)/D3</f>
         <v>0.73626373626373631</v>
       </c>
       <c r="G3" s="1"/>
@@ -590,7 +590,7 @@
         <v>101</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>(D4-E4)/D4</f>
         <v>0.66885245901639345</v>
       </c>
       <c r="G4" s="1"/>
@@ -612,7 +612,7 @@
         <v>277</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f>(D5-E5)/D5</f>
         <v>0.66095471236230108</v>
       </c>
       <c r="G5" s="1"/>
@@ -634,7 +634,7 @@
         <v>184</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f>(D6-E6)/D6</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="G6" s="1"/>
@@ -656,7 +656,7 @@
         <v>250</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f>(D7-E7)/D7</f>
         <v>0.59546925566343045</v>
       </c>
       <c r="G7" s="1"/>
@@ -678,7 +678,7 @@
         <v>132</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f>(D8-E8)/D8</f>
         <v>0.58878504672897192</v>
       </c>
       <c r="G8" s="1"/>
@@ -700,7 +700,7 @@
         <v>241</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
+        <f>(D9-E9)/D9</f>
         <v>0.5808695652173913</v>
       </c>
       <c r="G9" s="1"/>
@@ -722,7 +722,7 @@
         <v>275</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
+        <f>(D10-E10)/D10</f>
         <v>0.57692307692307687</v>
       </c>
       <c r="G10" s="1"/>
@@ -744,7 +744,7 @@
         <v>283</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f>(D11-E11)/D11</f>
         <v>0.55007949125596189</v>
       </c>
       <c r="G11" s="1"/>
@@ -766,52 +766,52 @@
         <v>88</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
+        <f>(D12-E12)/D12</f>
         <v>0.54639175257731953</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>244</v>
+        <v>376</v>
       </c>
       <c r="E13">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.53688524590163933</v>
+        <f>(D13-E13)/D13</f>
+        <v>0.54255319148936165</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>376</v>
+        <v>245</v>
       </c>
       <c r="E14">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54255319148936165</v>
+        <f>(D14-E14)/D14</f>
+        <v>0.53469387755102038</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
         <v>90</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
+        <f>(D15-E15)/D15</f>
         <v>0.52127659574468088</v>
       </c>
       <c r="G15" s="1"/>
@@ -853,7 +853,7 @@
         <v>342</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
+        <f>(D16-E16)/D16</f>
         <v>0.48725637181409298</v>
       </c>
       <c r="G16" s="1"/>
@@ -875,7 +875,7 @@
         <v>56</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
+        <f>(D17-E17)/D17</f>
         <v>0.47663551401869159</v>
       </c>
       <c r="G17" s="1"/>
@@ -897,7 +897,7 @@
         <v>241</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
+        <f>(D18-E18)/D18</f>
         <v>0.46205357142857145</v>
       </c>
       <c r="G18" s="1"/>
@@ -907,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B19">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -916,11 +916,11 @@
         <v>679</v>
       </c>
       <c r="E19">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.45949926362297494</v>
+        <f>(D19-E19)/D19</f>
+        <v>0.45802650957290131</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -941,7 +941,7 @@
         <v>157</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
+        <f>(D20-E20)/D20</f>
         <v>0.42909090909090908</v>
       </c>
       <c r="G20" s="1"/>
@@ -963,7 +963,7 @@
         <v>292</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f>(D21-E21)/D21</f>
         <v>0.38266384778012685</v>
       </c>
       <c r="G21" s="1"/>
@@ -973,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -982,11 +982,11 @@
         <v>261</v>
       </c>
       <c r="E22">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.32950191570881227</v>
+        <f>(D22-E22)/D22</f>
+        <v>0.32567049808429116</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1007,7 +1007,7 @@
         <v>271</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
+        <f>(D23-E23)/D23</f>
         <v>0.27925531914893614</v>
       </c>
       <c r="G23" s="1"/>
@@ -1029,7 +1029,7 @@
         <v>447</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
+        <f>(D24-E24)/D24</f>
         <v>0.26960784313725489</v>
       </c>
       <c r="G24" s="1"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2560" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A7DA2D6-7606-4FC4-976E-BDFCCB02D1B2}"/>
+  <xr:revisionPtr revIDLastSave="2583" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F3F6EFE-BD6B-408B-A8BC-DC9FCEDFD0EE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,20 +495,20 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -529,7 +529,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -546,12 +546,12 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F24" si="0">(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -568,12 +568,12 @@
         <v>168</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.73626373626373631</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -590,12 +590,12 @@
         <v>101</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.66885245901639345</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -612,12 +612,12 @@
         <v>277</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.66095471236230108</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -634,56 +634,56 @@
         <v>184</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E7">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
-        <v>0.59546925566343045</v>
+        <f t="shared" si="0"/>
+        <v>0.59450726978998381</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
-        <v>0.58878504672897192</v>
+        <f t="shared" si="0"/>
+        <v>0.59076923076923082</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -700,12 +700,12 @@
         <v>241</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="0"/>
         <v>0.5808695652173913</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -722,12 +722,12 @@
         <v>275</v>
       </c>
       <c r="F10" s="2">
-        <f>(D10-E10)/D10</f>
+        <f t="shared" si="0"/>
         <v>0.57692307692307687</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -744,99 +744,99 @@
         <v>283</v>
       </c>
       <c r="F11" s="2">
-        <f>(D11-E11)/D11</f>
+        <f t="shared" si="0"/>
         <v>0.55007949125596189</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E12">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" s="2">
-        <f>(D12-E12)/D12</f>
-        <v>0.54639175257731953</v>
+        <f t="shared" si="0"/>
+        <v>0.55276381909547734</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C13">
         <v>14</v>
       </c>
       <c r="D13">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E13">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F13" s="2">
-        <f>(D13-E13)/D13</f>
-        <v>0.54255319148936165</v>
+        <f t="shared" si="0"/>
+        <v>0.54473684210526319</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E14">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F14" s="2">
-        <f>(D14-E14)/D14</f>
-        <v>0.53469387755102038</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.5381526104417671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E15">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F15" s="2">
-        <f>(D15-E15)/D15</f>
-        <v>0.52127659574468088</v>
+        <f t="shared" si="0"/>
+        <v>0.52105263157894732</v>
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -853,12 +853,12 @@
         <v>342</v>
       </c>
       <c r="F16" s="2">
-        <f>(D16-E16)/D16</f>
+        <f t="shared" si="0"/>
         <v>0.48725637181409298</v>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -875,12 +875,12 @@
         <v>56</v>
       </c>
       <c r="F17" s="2">
-        <f>(D17-E17)/D17</f>
+        <f t="shared" si="0"/>
         <v>0.47663551401869159</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -897,12 +897,12 @@
         <v>241</v>
       </c>
       <c r="F18" s="2">
-        <f>(D18-E18)/D18</f>
+        <f t="shared" si="0"/>
         <v>0.46205357142857145</v>
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -919,34 +919,34 @@
         <v>368</v>
       </c>
       <c r="F19" s="2">
-        <f>(D19-E19)/D19</f>
+        <f t="shared" si="0"/>
         <v>0.45802650957290131</v>
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E20">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F20" s="2">
-        <f>(D20-E20)/D20</f>
-        <v>0.42909090909090908</v>
+        <f t="shared" si="0"/>
+        <v>0.42753623188405798</v>
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -963,12 +963,12 @@
         <v>292</v>
       </c>
       <c r="F21" s="2">
-        <f>(D21-E21)/D21</f>
+        <f t="shared" si="0"/>
         <v>0.38266384778012685</v>
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -985,12 +985,12 @@
         <v>176</v>
       </c>
       <c r="F22" s="2">
-        <f>(D22-E22)/D22</f>
+        <f t="shared" si="0"/>
         <v>0.32567049808429116</v>
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1007,12 +1007,12 @@
         <v>271</v>
       </c>
       <c r="F23" s="2">
-        <f>(D23-E23)/D23</f>
+        <f t="shared" si="0"/>
         <v>0.27925531914893614</v>
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1029,33 +1029,33 @@
         <v>447</v>
       </c>
       <c r="F24" s="2">
-        <f>(D24-E24)/D24</f>
+        <f t="shared" si="0"/>
         <v>0.26960784313725489</v>
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2583" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F3F6EFE-BD6B-408B-A8BC-DC9FCEDFD0EE}"/>
+  <xr:revisionPtr revIDLastSave="2594" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{505BC3F1-76DC-4AA3-AA47-06819ED533C6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,20 +495,20 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -529,7 +529,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -551,7 +551,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -573,7 +573,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -595,7 +595,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -617,7 +617,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -661,7 +661,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -683,7 +683,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -705,7 +705,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -749,7 +749,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -793,7 +793,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -814,29 +814,29 @@
         <v>0.5381526104417671</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E15">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0.52105263157894732</v>
+        <v>0.52577319587628868</v>
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -858,29 +858,29 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E17">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0.47663551401869159</v>
+        <v>0.48181818181818181</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -902,7 +902,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -924,29 +924,29 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E20">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.42753623188405798</v>
+        <v>0.42805755395683454</v>
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -968,7 +968,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -990,7 +990,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1034,28 +1034,28 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2594" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{505BC3F1-76DC-4AA3-AA47-06819ED533C6}"/>
+  <xr:revisionPtr revIDLastSave="2616" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E2B9872-27C3-4236-A0AA-226724FE8A84}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,20 +644,20 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="E7">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.59450726978998381</v>
+        <v>0.59485530546623799</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -666,20 +666,20 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.59076923076923082</v>
+        <v>0.58895705521472397</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -754,20 +754,20 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E12">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.55276381909547734</v>
+        <v>0.55223880597014929</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -776,20 +776,20 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C13">
         <v>14</v>
       </c>
       <c r="D13">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E13">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.54473684210526319</v>
+        <v>0.54330708661417326</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -798,20 +798,20 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E14">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.5381526104417671</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -819,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -828,11 +828,11 @@
         <v>194</v>
       </c>
       <c r="E15">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0.52577319587628868</v>
+        <v>0.52061855670103097</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -907,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B19">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -916,11 +916,11 @@
         <v>679</v>
       </c>
       <c r="E19">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>0.45802650957290131</v>
+        <v>0.45508100147275404</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -995,20 +995,20 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C23">
         <v>8</v>
       </c>
       <c r="D23">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E23">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.27925531914893614</v>
+        <v>0.27851458885941643</v>
       </c>
       <c r="G23" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2616" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E2B9872-27C3-4236-A0AA-226724FE8A84}"/>
+  <xr:revisionPtr revIDLastSave="2627" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E20A88C8-BAF5-426E-A5EC-92FB79FBB96C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,20 +495,20 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -529,7 +529,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -551,7 +551,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -573,7 +573,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -595,7 +595,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -617,7 +617,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -661,7 +661,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -683,7 +683,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -705,29 +705,29 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C10">
         <v>30</v>
       </c>
       <c r="D10">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E10">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.57692307692307687</v>
+        <v>0.57668711656441718</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -749,7 +749,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -793,7 +793,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -836,7 +836,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -858,29 +858,29 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E17">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0.48181818181818181</v>
+        <v>0.48214285714285715</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -902,7 +902,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -924,7 +924,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -946,7 +946,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -968,34 +968,34 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E22">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.32567049808429116</v>
+        <v>0.32575757575757575</v>
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -1004,15 +1004,15 @@
         <v>377</v>
       </c>
       <c r="E23">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.27851458885941643</v>
+        <v>0.27586206896551724</v>
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1034,28 +1034,28 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2627" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E20A88C8-BAF5-426E-A5EC-92FB79FBB96C}"/>
+  <xr:revisionPtr revIDLastSave="2656" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03B5D192-6450-4572-81F0-0D1EDC4F0809}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,20 +666,20 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="E8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.58895705521472397</v>
+        <v>0.59214501510574014</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -710,20 +710,20 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C10">
         <v>30</v>
       </c>
       <c r="D10">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E10">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.57668711656441718</v>
+        <v>0.57645259938837923</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -754,20 +754,20 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E12">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.55223880597014929</v>
+        <v>0.55392156862745101</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -798,7 +798,7 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -807,11 +807,11 @@
         <v>250</v>
       </c>
       <c r="E14">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.53600000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -819,20 +819,20 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E15">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0.52061855670103097</v>
+        <v>0.52040816326530615</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -863,20 +863,20 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E17">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0.48214285714285715</v>
+        <v>0.48245614035087719</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -907,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B19">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -916,11 +916,11 @@
         <v>679</v>
       </c>
       <c r="E19">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>0.45508100147275404</v>
+        <v>0.45360824742268041</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -929,20 +929,20 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E20">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.42805755395683454</v>
+        <v>0.4265232974910394</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -973,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -982,11 +982,11 @@
         <v>264</v>
       </c>
       <c r="E22">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.32575757575757575</v>
+        <v>0.32196969696969696</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -995,20 +995,20 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C23">
         <v>8</v>
       </c>
       <c r="D23">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E23">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.27586206896551724</v>
+        <v>0.27513227513227512</v>
       </c>
       <c r="G23" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2656" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03B5D192-6450-4572-81F0-0D1EDC4F0809}"/>
+  <xr:revisionPtr revIDLastSave="2725" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{125B4178-4EBF-412E-8C48-BB8C1E6758BD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,20 +495,20 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -529,7 +529,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -551,7 +551,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -573,7 +573,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -595,7 +595,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -617,7 +617,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -639,161 +639,161 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E7">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.59485530546623799</v>
+        <v>0.5906902086677368</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E8">
         <v>135</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.59214501510574014</v>
+        <v>0.58715596330275233</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C9">
         <v>24</v>
       </c>
       <c r="D9">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E9">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.5808695652173913</v>
+        <v>0.57986111111111116</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C10">
         <v>30</v>
       </c>
       <c r="D10">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="E10">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.57645259938837923</v>
+        <v>0.5781487101669196</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>328</v>
+        <v>200</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>629</v>
+        <v>405</v>
       </c>
       <c r="E11">
-        <v>283</v>
+        <v>177</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.55007949125596189</v>
+        <v>0.562962962962963</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
+        <v>102</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>219</v>
+      </c>
+      <c r="E12">
         <v>96</v>
       </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>204</v>
-      </c>
-      <c r="E12">
-        <v>91</v>
-      </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.55392156862745101</v>
+        <v>0.56164383561643838</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>194</v>
+        <v>328</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>381</v>
+        <v>629</v>
       </c>
       <c r="E13">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.54330708661417326</v>
+        <v>0.55007949125596189</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -814,29 +814,29 @@
         <v>0.53200000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E15">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0.52040816326530615</v>
+        <v>0.49746192893401014</v>
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -858,29 +858,29 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E17">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0.48245614035087719</v>
+        <v>0.48305084745762711</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -902,7 +902,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -924,29 +924,29 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E20">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.4265232974910394</v>
+        <v>0.42105263157894735</v>
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -968,94 +968,94 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E22">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.32196969696969696</v>
+        <v>0.30337078651685395</v>
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>456</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>612</v>
+      </c>
+      <c r="E23">
+        <v>447</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>12</v>
       </c>
-      <c r="B23">
-        <v>286</v>
-      </c>
-      <c r="C23">
+      <c r="B24">
+        <v>290</v>
+      </c>
+      <c r="C24">
         <v>8</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>378</v>
       </c>
-      <c r="E23">
-        <v>274</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>0.27513227513227512</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>456</v>
-      </c>
-      <c r="C24">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>612</v>
-      </c>
       <c r="E24">
-        <v>447</v>
+        <v>278</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>0.26960784313725489</v>
+        <v>0.26455026455026454</v>
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2725" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{125B4178-4EBF-412E-8C48-BB8C1E6758BD}"/>
+  <xr:revisionPtr revIDLastSave="2731" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8DB21D5-B7E7-4A33-946F-A8C09374FCEB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -495,20 +495,20 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -529,7 +529,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -551,7 +551,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -573,7 +573,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -595,7 +595,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -617,7 +617,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -661,7 +661,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -683,7 +683,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -705,7 +705,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -749,7 +749,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -793,7 +793,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -814,29 +814,29 @@
         <v>0.53200000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E15">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0.49746192893401014</v>
+        <v>0.49748743718592964</v>
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -858,7 +858,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -880,7 +880,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -902,7 +902,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -924,7 +924,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -946,7 +946,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -968,29 +968,29 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E22">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.30337078651685395</v>
+        <v>0.30996309963099633</v>
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1034,28 +1034,28 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2731" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8DB21D5-B7E7-4A33-946F-A8C09374FCEB}"/>
+  <xr:revisionPtr revIDLastSave="2775" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70B161A1-70A5-4A6F-9C78-B61EFCC47E38}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>WINS</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>Marion Bartoli (FRANCE)</t>
+  </si>
+  <si>
+    <t>Ana Ivanović (SERBIA)</t>
+  </si>
+  <si>
+    <t>Barbora Krejčíková (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Iga Świątek (POLAND)</t>
+  </si>
+  <si>
+    <t>Jeļena Ostapenko (LATVIA)</t>
   </si>
 </sst>
 </file>
@@ -495,20 +507,20 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A21" activeCellId="1" sqref="A13:A14 A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -529,7 +541,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -546,525 +558,601 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F24" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F28" si="0">(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>104</v>
+      </c>
+      <c r="C3">
         <v>22</v>
       </c>
-      <c r="B3">
+      <c r="D3">
+        <v>328</v>
+      </c>
+      <c r="E3">
+        <v>73</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.77743902439024393</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
         <v>218</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>36</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>637</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>168</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>0.73626373626373631</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>125</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>305</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>101</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>0.66885245901639345</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>340</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>49</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>817</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>277</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>0.66095471236230108</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>221</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>506</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>184</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>0.63636363636363635</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>291</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>21</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>623</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>0.5906902086677368</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
-        <v>157</v>
-      </c>
-      <c r="C8">
+      <c r="B9">
+        <v>159</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="D8">
-        <v>327</v>
-      </c>
-      <c r="E8">
-        <v>135</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58715596330275233</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D9">
+        <v>331</v>
+      </c>
+      <c r="E9">
+        <v>136</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58912386706948638</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>279</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>24</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>576</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>242</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>0.57986111111111116</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>312</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>30</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>659</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>278</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>0.5781487101669196</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-      <c r="C11">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>405</v>
-      </c>
-      <c r="E11">
-        <v>177</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.562962962962963</v>
-      </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>223</v>
+      </c>
+      <c r="E12">
+        <v>97</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56502242152466364</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>201</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>407</v>
+      </c>
+      <c r="E13">
+        <v>179</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56019656019656017</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="B14">
+        <v>328</v>
+      </c>
+      <c r="C14">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>629</v>
+      </c>
+      <c r="E14">
+        <v>283</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.55007949125596189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>133</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+      <c r="E15">
+        <v>117</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>239</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>464</v>
+      </c>
+      <c r="E16">
         <v>219</v>
       </c>
-      <c r="E12">
-        <v>96</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.56164383561643838</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.52801724137931039</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>112</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>199</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.49748743718592964</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>66</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>121</v>
+      </c>
+      <c r="E18">
+        <v>61</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.49586776859504134</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>365</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>667</v>
+      </c>
+      <c r="E19">
+        <v>342</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.48725637181409298</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>258</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>448</v>
+      </c>
+      <c r="E20">
+        <v>241</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46205357142857145</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>394</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>679</v>
+      </c>
+      <c r="E21">
+        <v>371</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45360824742268041</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>239</v>
+      </c>
+      <c r="C22">
         <v>8</v>
       </c>
-      <c r="B13">
-        <v>328</v>
-      </c>
-      <c r="C13">
-        <v>31</v>
-      </c>
-      <c r="D13">
-        <v>629</v>
-      </c>
-      <c r="E13">
-        <v>283</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.55007949125596189</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14">
-        <v>133</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>250</v>
-      </c>
-      <c r="E14">
-        <v>117</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.53200000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>112</v>
-      </c>
-      <c r="C15">
+      <c r="D22">
+        <v>397</v>
+      </c>
+      <c r="E22">
+        <v>219</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44836272040302266</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="D15">
-        <v>199</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.49748743718592964</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>365</v>
-      </c>
-      <c r="C16">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>667</v>
-      </c>
-      <c r="E16">
-        <v>342</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.48725637181409298</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>65</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>118</v>
-      </c>
-      <c r="E17">
-        <v>61</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.48305084745762711</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>258</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>448</v>
-      </c>
-      <c r="E18">
-        <v>241</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.46205357142857145</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <v>394</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>679</v>
-      </c>
-      <c r="E19">
-        <v>371</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.45360824742268041</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20">
+      <c r="B23">
         <v>178</v>
       </c>
-      <c r="C20">
+      <c r="C23">
         <v>7</v>
       </c>
-      <c r="D20">
+      <c r="D23">
         <v>285</v>
       </c>
-      <c r="E20">
+      <c r="E23">
         <v>165</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F23" s="2">
         <f t="shared" si="0"/>
         <v>0.42105263157894735</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21">
-        <v>311</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>473</v>
-      </c>
-      <c r="E21">
-        <v>292</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.38266384778012685</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>196</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>271</v>
-      </c>
-      <c r="E22">
-        <v>187</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.30996309963099633</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>456</v>
-      </c>
-      <c r="C23">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>612</v>
-      </c>
-      <c r="E23">
-        <v>447</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>0.26960784313725489</v>
-      </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="C24">
         <v>8</v>
       </c>
       <c r="D24">
+        <v>373</v>
+      </c>
+      <c r="E24">
+        <v>227</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.39142091152815012</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>311</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>473</v>
+      </c>
+      <c r="E25">
+        <v>292</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.38266384778012685</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>196</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>271</v>
+      </c>
+      <c r="E26">
+        <v>187</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30996309963099633</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>456</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>612</v>
+      </c>
+      <c r="E27">
+        <v>447</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>290</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
         <v>378</v>
       </c>
-      <c r="E24">
+      <c r="E28">
         <v>278</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F28" s="2">
         <f t="shared" si="0"/>
         <v>0.26455026455026454</v>
       </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{886A4C9F-69C7-4226-BCD2-6825075A697E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F24">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F2:F24">
+  <conditionalFormatting sqref="F2:F28">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2775" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70B161A1-70A5-4A6F-9C78-B61EFCC47E38}"/>
+  <xr:revisionPtr revIDLastSave="2784" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C868943-01ED-4427-B7DE-A88AC5278BEE}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" activeCellId="1" sqref="A13:A14 A21"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,20 +678,20 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C8">
         <v>21</v>
       </c>
       <c r="D8">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.5906902086677368</v>
+        <v>0.58974358974358976</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -1029,20 +1029,20 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C24">
         <v>8</v>
       </c>
       <c r="D24">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E24">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>0.39142091152815012</v>
+        <v>0.39037433155080214</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1073,20 +1073,20 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E26">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>0.30996309963099633</v>
+        <v>0.31021897810218979</v>
       </c>
       <c r="G26" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2784" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C868943-01ED-4427-B7DE-A88AC5278BEE}"/>
+  <xr:revisionPtr revIDLastSave="2821" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9B287B2-5DF9-4964-A11E-A5A713519138}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15285" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886A4C9F-69C7-4226-BCD2-6825075A697E}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G32"/>
@@ -558,7 +558,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F28" si="0">(D2-E2)/D2</f>
+        <f>(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -580,7 +580,7 @@
         <v>73</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f>(D3-E3)/D3</f>
         <v>0.77743902439024393</v>
       </c>
       <c r="G3" s="1"/>
@@ -602,7 +602,7 @@
         <v>168</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>(D4-E4)/D4</f>
         <v>0.73626373626373631</v>
       </c>
       <c r="G4" s="1"/>
@@ -624,7 +624,7 @@
         <v>101</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f>(D5-E5)/D5</f>
         <v>0.66885245901639345</v>
       </c>
       <c r="G5" s="1"/>
@@ -646,7 +646,7 @@
         <v>277</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f>(D6-E6)/D6</f>
         <v>0.66095471236230108</v>
       </c>
       <c r="G6" s="1"/>
@@ -668,7 +668,7 @@
         <v>184</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f>(D7-E7)/D7</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="G7" s="1"/>
@@ -678,20 +678,20 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C8">
         <v>21</v>
       </c>
       <c r="D8">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58974358974358976</v>
+        <f>(D8-E8)/D8</f>
+        <v>0.58560000000000001</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -700,20 +700,20 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="E9">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58912386706948638</v>
+        <f>(D9-E9)/D9</f>
+        <v>0.58944281524926689</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -722,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C10">
         <v>24</v>
@@ -731,11 +731,11 @@
         <v>576</v>
       </c>
       <c r="E10">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.57986111111111116</v>
+        <f>(D10-E10)/D10</f>
+        <v>0.57638888888888884</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -756,52 +756,52 @@
         <v>278</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f>(D11-E11)/D11</f>
         <v>0.5781487101669196</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>223</v>
+        <v>419</v>
       </c>
       <c r="E12">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.56502242152466364</v>
+        <f>(D12-E12)/D12</f>
+        <v>0.56563245823389019</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>407</v>
+        <v>227</v>
       </c>
       <c r="E13">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.56019656019656017</v>
+        <f>(D13-E13)/D13</f>
+        <v>0.55947136563876654</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -810,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C14">
         <v>31</v>
@@ -819,11 +819,11 @@
         <v>629</v>
       </c>
       <c r="E14">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.55007949125596189</v>
+        <f>(D14-E14)/D14</f>
+        <v>0.54848966613672501</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -831,20 +831,20 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E15">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.53200000000000003</v>
+        <f>(D15-E15)/D15</f>
+        <v>0.52569169960474305</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -865,7 +865,7 @@
         <v>219</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
+        <f>(D16-E16)/D16</f>
         <v>0.52801724137931039</v>
       </c>
       <c r="G16" s="1"/>
@@ -887,52 +887,52 @@
         <v>100</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
+        <f>(D17-E17)/D17</f>
         <v>0.49748743718592964</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>66</v>
+        <v>365</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>121</v>
+        <v>667</v>
       </c>
       <c r="E18">
-        <v>61</v>
+        <v>342</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.49586776859504134</v>
+        <f>(D18-E18)/D18</f>
+        <v>0.48725637181409298</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>365</v>
+        <v>71</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>667</v>
+        <v>124</v>
       </c>
       <c r="E19">
-        <v>342</v>
+        <v>66</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.48725637181409298</v>
+        <f>(D19-E19)/D19</f>
+        <v>0.46774193548387094</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -953,7 +953,7 @@
         <v>241</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
+        <f>(D20-E20)/D20</f>
         <v>0.46205357142857145</v>
       </c>
       <c r="G20" s="1"/>
@@ -975,7 +975,7 @@
         <v>371</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f>(D21-E21)/D21</f>
         <v>0.45360824742268041</v>
       </c>
       <c r="G21" s="1"/>
@@ -997,7 +997,7 @@
         <v>219</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
+        <f>(D22-E22)/D22</f>
         <v>0.44836272040302266</v>
       </c>
       <c r="G22" s="1"/>
@@ -1007,20 +1007,20 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E23">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>0.42105263157894735</v>
+        <f>(D23-E23)/D23</f>
+        <v>0.42611683848797249</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1029,20 +1029,20 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C24">
         <v>8</v>
       </c>
       <c r="D24">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E24">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.39037433155080214</v>
+        <f>(D24-E24)/D24</f>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1063,7 +1063,7 @@
         <v>292</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="0"/>
+        <f>(D25-E25)/D25</f>
         <v>0.38266384778012685</v>
       </c>
       <c r="G25" s="1"/>
@@ -1073,20 +1073,20 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E26">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="0"/>
-        <v>0.31021897810218979</v>
+        <f>(D26-E26)/D26</f>
+        <v>0.31316725978647686</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1107,7 +1107,7 @@
         <v>447</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="0"/>
+        <f>(D27-E27)/D27</f>
         <v>0.26960784313725489</v>
       </c>
       <c r="G27" s="1"/>
@@ -1117,7 +1117,7 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -1126,11 +1126,11 @@
         <v>378</v>
       </c>
       <c r="E28">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="0"/>
-        <v>0.26455026455026454</v>
+        <f>(D28-E28)/D28</f>
+        <v>0.25396825396825395</v>
       </c>
       <c r="G28" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2821" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9B287B2-5DF9-4964-A11E-A5A713519138}"/>
+  <xr:revisionPtr revIDLastSave="2865" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F834AE69-2DF8-468C-B93B-95915AAC602C}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15285" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="WTA YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>WINS</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Jeļena Ostapenko (LATVIA)</t>
+  </si>
+  <si>
+    <t>Kim Clijsters (BELGIUM)</t>
+  </si>
+  <si>
+    <t>Madison Keys (USA)</t>
   </si>
 </sst>
 </file>
@@ -507,7 +513,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +564,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F30" si="0">(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -568,130 +574,130 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>22</v>
       </c>
       <c r="D3">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="E3">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
-        <v>0.77743902439024393</v>
+        <f t="shared" si="0"/>
+        <v>0.77167630057803471</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>637</v>
+        <v>518</v>
       </c>
       <c r="E4">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
-        <v>0.73626373626373631</v>
+        <f t="shared" si="0"/>
+        <v>0.75096525096525102</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>305</v>
+        <v>637</v>
       </c>
       <c r="E5">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
-        <v>0.66885245901639345</v>
+        <f t="shared" si="0"/>
+        <v>0.73626373626373631</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>340</v>
+        <v>125</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>817</v>
+        <v>305</v>
       </c>
       <c r="E6">
-        <v>277</v>
+        <v>101</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
-        <v>0.66095471236230108</v>
+        <f t="shared" si="0"/>
+        <v>0.66885245901639345</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>506</v>
+        <v>817</v>
       </c>
       <c r="E7">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
-        <v>0.63636363636363635</v>
+        <f t="shared" si="0"/>
+        <v>0.66095471236230108</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>295</v>
+        <v>221</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>625</v>
+        <v>506</v>
       </c>
       <c r="E8">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
-        <v>0.58560000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.63636363636363635</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -700,42 +706,42 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E9">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9-E9)/D9</f>
-        <v>0.58944281524926689</v>
+        <f t="shared" si="0"/>
+        <v>0.58840579710144925</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>576</v>
+        <v>625</v>
       </c>
       <c r="E10">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="F10" s="2">
-        <f>(D10-E10)/D10</f>
-        <v>0.57638888888888884</v>
+        <f t="shared" si="0"/>
+        <v>0.58560000000000001</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -756,95 +762,95 @@
         <v>278</v>
       </c>
       <c r="F11" s="2">
-        <f>(D11-E11)/D11</f>
+        <f t="shared" si="0"/>
         <v>0.5781487101669196</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>419</v>
+        <v>576</v>
       </c>
       <c r="E12">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="F12" s="2">
-        <f>(D12-E12)/D12</f>
-        <v>0.56563245823389019</v>
+        <f t="shared" si="0"/>
+        <v>0.57638888888888884</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>227</v>
+        <v>431</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="F13" s="2">
-        <f>(D13-E13)/D13</f>
-        <v>0.55947136563876654</v>
+        <f t="shared" si="0"/>
+        <v>0.57076566125290018</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>329</v>
+        <v>109</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>629</v>
+        <v>232</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>103</v>
       </c>
       <c r="F14" s="2">
-        <f>(D14-E14)/D14</f>
-        <v>0.54848966613672501</v>
+        <f t="shared" si="0"/>
+        <v>0.55603448275862066</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>136</v>
+        <v>330</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>253</v>
+        <v>624</v>
       </c>
       <c r="E15">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="F15" s="2">
-        <f>(D15-E15)/D15</f>
-        <v>0.52569169960474305</v>
+        <f t="shared" si="0"/>
+        <v>0.54326923076923073</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -865,279 +871,317 @@
         <v>219</v>
       </c>
       <c r="F16" s="2">
-        <f>(D16-E16)/D16</f>
+        <f t="shared" si="0"/>
         <v>0.52801724137931039</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F17" s="2">
-        <f>(D17-E17)/D17</f>
-        <v>0.49748743718592964</v>
+        <f t="shared" si="0"/>
+        <v>0.52569169960474305</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>365</v>
+        <v>113</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>667</v>
+        <v>199</v>
       </c>
       <c r="E18">
-        <v>342</v>
+        <v>101</v>
       </c>
       <c r="F18" s="2">
-        <f>(D18-E18)/D18</f>
-        <v>0.48725637181409298</v>
+        <f t="shared" si="0"/>
+        <v>0.49246231155778897</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>71</v>
+        <v>365</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>124</v>
+        <v>667</v>
       </c>
       <c r="E19">
-        <v>66</v>
+        <v>342</v>
       </c>
       <c r="F19" s="2">
-        <f>(D19-E19)/D19</f>
-        <v>0.46774193548387094</v>
+        <f t="shared" si="0"/>
+        <v>0.48725637181409298</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>448</v>
+        <v>127</v>
       </c>
       <c r="E20">
-        <v>241</v>
+        <v>68</v>
       </c>
       <c r="F20" s="2">
-        <f>(D20-E20)/D20</f>
-        <v>0.46205357142857145</v>
+        <f t="shared" si="0"/>
+        <v>0.46456692913385828</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>394</v>
+        <v>258</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>679</v>
+        <v>448</v>
       </c>
       <c r="E21">
-        <v>371</v>
+        <v>241</v>
       </c>
       <c r="F21" s="2">
-        <f>(D21-E21)/D21</f>
-        <v>0.45360824742268041</v>
+        <f t="shared" si="0"/>
+        <v>0.46205357142857145</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>239</v>
+        <v>394</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>397</v>
+        <v>679</v>
       </c>
       <c r="E22">
-        <v>219</v>
+        <v>371</v>
       </c>
       <c r="F22" s="2">
-        <f>(D22-E22)/D22</f>
-        <v>0.44836272040302266</v>
+        <f t="shared" si="0"/>
+        <v>0.45360824742268041</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>291</v>
+        <v>397</v>
       </c>
       <c r="E23">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="F23" s="2">
-        <f>(D23-E23)/D23</f>
-        <v>0.42611683848797249</v>
+        <f t="shared" si="0"/>
+        <v>0.44836272040302266</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="E24">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F24" s="2">
-        <f>(D24-E24)/D24</f>
-        <v>0.3888888888888889</v>
+        <f t="shared" si="0"/>
+        <v>0.43846153846153846</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>311</v>
+        <v>182</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>473</v>
+        <v>294</v>
       </c>
       <c r="E25">
-        <v>292</v>
+        <v>169</v>
       </c>
       <c r="F25" s="2">
-        <f>(D25-E25)/D25</f>
-        <v>0.38266384778012685</v>
+        <f t="shared" si="0"/>
+        <v>0.42517006802721086</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>281</v>
+        <v>384</v>
       </c>
       <c r="E26">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="F26" s="2">
-        <f>(D26-E26)/D26</f>
-        <v>0.31316725978647686</v>
+        <f t="shared" si="0"/>
+        <v>0.390625</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>456</v>
+        <v>311</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>612</v>
+        <v>473</v>
       </c>
       <c r="E27">
-        <v>447</v>
+        <v>292</v>
       </c>
       <c r="F27" s="2">
-        <f>(D27-E27)/D27</f>
-        <v>0.26960784313725489</v>
+        <f t="shared" si="0"/>
+        <v>0.38266384778012685</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>205</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>289</v>
+      </c>
+      <c r="E28">
+        <v>196</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3217993079584775</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>456</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>612</v>
+      </c>
+      <c r="E29">
+        <v>447</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>12</v>
       </c>
-      <c r="B28">
+      <c r="B30">
         <v>294</v>
       </c>
-      <c r="C28">
+      <c r="C30">
         <v>8</v>
       </c>
-      <c r="D28">
+      <c r="D30">
         <v>378</v>
       </c>
-      <c r="E28">
+      <c r="E30">
         <v>282</v>
       </c>
-      <c r="F28" s="2">
-        <f>(D28-E28)/D28</f>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
         <v>0.25396825396825395</v>
       </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1148,11 +1192,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{886A4C9F-69C7-4226-BCD2-6825075A697E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F2:F28">
+  <conditionalFormatting sqref="F2:F30">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2865" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F834AE69-2DF8-468C-B93B-95915AAC602C}"/>
+  <xr:revisionPtr revIDLastSave="2913" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAA29D07-6BFD-4F3F-B5A4-A3A1416707BA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -204,10 +204,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,7 +509,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +560,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F30" si="0">(D2-E2)/D2</f>
+        <f>(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -574,20 +570,20 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="E3">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.77167630057803471</v>
+        <f>(D3-E3)/D3</f>
+        <v>0.77322404371584696</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -608,7 +604,7 @@
         <v>129</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>(D4-E4)/D4</f>
         <v>0.75096525096525102</v>
       </c>
       <c r="G4" s="1"/>
@@ -630,7 +626,7 @@
         <v>168</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f>(D5-E5)/D5</f>
         <v>0.73626373626373631</v>
       </c>
       <c r="G5" s="1"/>
@@ -652,7 +648,7 @@
         <v>101</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f>(D6-E6)/D6</f>
         <v>0.66885245901639345</v>
       </c>
       <c r="G6" s="1"/>
@@ -674,7 +670,7 @@
         <v>277</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f>(D7-E7)/D7</f>
         <v>0.66095471236230108</v>
       </c>
       <c r="G7" s="1"/>
@@ -696,7 +692,7 @@
         <v>184</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f>(D8-E8)/D8</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="G8" s="1"/>
@@ -706,20 +702,20 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="E9">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58840579710144925</v>
+        <f>(D9-E9)/D9</f>
+        <v>0.58774373259052926</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -728,86 +724,86 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="E10">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58560000000000001</v>
+        <f>(D10-E10)/D10</f>
+        <v>0.57977883096366511</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>659</v>
+        <v>453</v>
       </c>
       <c r="E11">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5781487101669196</v>
+        <f>(D11-E11)/D11</f>
+        <v>0.58278145695364236</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>576</v>
+        <v>659</v>
       </c>
       <c r="E12">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.57638888888888884</v>
+        <f>(D12-E12)/D12</f>
+        <v>0.5781487101669196</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>208</v>
+        <v>281</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>431</v>
+        <v>576</v>
       </c>
       <c r="E13">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.57076566125290018</v>
+        <f>(D13-E13)/D13</f>
+        <v>0.57638888888888884</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -816,20 +812,20 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E14">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.55603448275862066</v>
+        <f>(D14-E14)/D14</f>
+        <v>0.57028112449799195</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -837,20 +833,20 @@
         <v>8</v>
       </c>
       <c r="B15">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C15">
         <v>31</v>
       </c>
       <c r="D15">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E15">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54326923076923073</v>
+        <f>(D15-E15)/D15</f>
+        <v>0.53759999999999997</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -871,7 +867,7 @@
         <v>219</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
+        <f>(D16-E16)/D16</f>
         <v>0.52801724137931039</v>
       </c>
       <c r="G16" s="1"/>
@@ -881,64 +877,64 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E17">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.52569169960474305</v>
+        <f>(D17-E17)/D17</f>
+        <v>0.53256704980842917</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>113</v>
+        <v>365</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>199</v>
+        <v>667</v>
       </c>
       <c r="E18">
-        <v>101</v>
+        <v>342</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.49246231155778897</v>
+        <f>(D18-E18)/D18</f>
+        <v>0.48725637181409298</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>365</v>
+        <v>119</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>667</v>
+        <v>205</v>
       </c>
       <c r="E19">
-        <v>342</v>
+        <v>107</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.48725637181409298</v>
+        <f>(D19-E19)/D19</f>
+        <v>0.47804878048780486</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -947,20 +943,20 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E20">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.46456692913385828</v>
+        <f>(D20-E20)/D20</f>
+        <v>0.46043165467625902</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -981,7 +977,7 @@
         <v>241</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f>(D21-E21)/D21</f>
         <v>0.46205357142857145</v>
       </c>
       <c r="G21" s="1"/>
@@ -1003,7 +999,7 @@
         <v>371</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
+        <f>(D22-E22)/D22</f>
         <v>0.45360824742268041</v>
       </c>
       <c r="G22" s="1"/>
@@ -1013,20 +1009,20 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C23">
         <v>8</v>
       </c>
       <c r="D23">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E23">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>0.44836272040302266</v>
+        <f>(D23-E23)/D23</f>
+        <v>0.44527363184079605</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1035,20 +1031,20 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="E24">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.43846153846153846</v>
+        <f>(D24-E24)/D24</f>
+        <v>0.44029850746268656</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1057,20 +1053,20 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C25">
         <v>7</v>
       </c>
       <c r="D25">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="E25">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="0"/>
-        <v>0.42517006802721086</v>
+        <f>(D25-E25)/D25</f>
+        <v>0.42622950819672129</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1079,20 +1075,20 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C26">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E26">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="0"/>
-        <v>0.390625</v>
+        <f>(D26-E26)/D26</f>
+        <v>0.38402061855670105</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1113,7 +1109,7 @@
         <v>292</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="0"/>
+        <f>(D27-E27)/D27</f>
         <v>0.38266384778012685</v>
       </c>
       <c r="G27" s="1"/>
@@ -1123,20 +1119,20 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C28">
         <v>5</v>
       </c>
       <c r="D28">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E28">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="0"/>
-        <v>0.3217993079584775</v>
+        <f>(D28-E28)/D28</f>
+        <v>0.31525423728813562</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1157,7 +1153,7 @@
         <v>447</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="0"/>
+        <f>(D29-E29)/D29</f>
         <v>0.26960784313725489</v>
       </c>
       <c r="G29" s="1"/>
@@ -1179,7 +1175,7 @@
         <v>282</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="0"/>
+        <f>(D30-E30)/D30</f>
         <v>0.25396825396825395</v>
       </c>
       <c r="G30" s="1"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2913" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAA29D07-6BFD-4F3F-B5A4-A3A1416707BA}"/>
+  <xr:revisionPtr revIDLastSave="2962" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B94A05A0-8405-4ACD-BB90-AB74C6F1C1E0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,20 +570,20 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="E3">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2">
         <f>(D3-E3)/D3</f>
-        <v>0.77322404371584696</v>
+        <v>0.77453580901856767</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -658,20 +658,20 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C7">
         <v>49</v>
       </c>
       <c r="D7">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E7">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F7" s="2">
         <f>(D7-E7)/D7</f>
-        <v>0.66095471236230108</v>
+        <v>0.66014669926650371</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -699,67 +699,67 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>359</v>
+        <v>462</v>
       </c>
       <c r="E9">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F9" s="2">
         <f>(D9-E9)/D9</f>
-        <v>0.58774373259052926</v>
+        <v>0.58874458874458879</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>302</v>
+        <v>177</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>633</v>
+        <v>372</v>
       </c>
       <c r="E10">
-        <v>266</v>
+        <v>152</v>
       </c>
       <c r="F10" s="2">
         <f>(D10-E10)/D10</f>
-        <v>0.57977883096366511</v>
+        <v>0.59139784946236562</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>453</v>
+        <v>634</v>
       </c>
       <c r="E11">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="F11" s="2">
         <f>(D11-E11)/D11</f>
-        <v>0.58278145695364236</v>
+        <v>0.57886435331230279</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -812,20 +812,20 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E14">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F14" s="2">
         <f>(D14-E14)/D14</f>
-        <v>0.57028112449799195</v>
+        <v>0.5703125</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
         <v>8</v>
       </c>
       <c r="B15">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C15">
         <v>31</v>
@@ -842,55 +842,55 @@
         <v>625</v>
       </c>
       <c r="E15">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F15" s="2">
         <f>(D15-E15)/D15</f>
-        <v>0.53759999999999997</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>464</v>
+        <v>267</v>
       </c>
       <c r="E16">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="F16" s="2">
         <f>(D16-E16)/D16</f>
-        <v>0.52801724137931039</v>
+        <v>0.53558052434456926</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17">
-        <v>139</v>
+        <v>239</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>261</v>
+        <v>464</v>
       </c>
       <c r="E17">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="F17" s="2">
         <f>(D17-E17)/D17</f>
-        <v>0.53256704980842917</v>
+        <v>0.52801724137931039</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -921,64 +921,64 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E19">
         <v>107</v>
       </c>
       <c r="F19" s="2">
         <f>(D19-E19)/D19</f>
-        <v>0.47804878048780486</v>
+        <v>0.48058252427184467</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>139</v>
+        <v>448</v>
       </c>
       <c r="E20">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="F20" s="2">
         <f>(D20-E20)/D20</f>
-        <v>0.46043165467625902</v>
+        <v>0.46205357142857145</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>448</v>
+        <v>147</v>
       </c>
       <c r="E21">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="F21" s="2">
         <f>(D21-E21)/D21</f>
-        <v>0.46205357142857145</v>
+        <v>0.46258503401360546</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1009,20 +1009,20 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C23">
         <v>8</v>
       </c>
       <c r="D23">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="E23">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F23" s="2">
         <f>(D23-E23)/D23</f>
-        <v>0.44527363184079605</v>
+        <v>0.44743276283618583</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1031,20 +1031,20 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="E24">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F24" s="2">
         <f>(D24-E24)/D24</f>
-        <v>0.44029850746268656</v>
+        <v>0.43980343980343978</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1053,20 +1053,20 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C25">
         <v>7</v>
       </c>
       <c r="D25">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E25">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F25" s="2">
         <f>(D25-E25)/D25</f>
-        <v>0.42622950819672129</v>
+        <v>0.43848580441640378</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1075,20 +1075,20 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C26">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E26">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F26" s="2">
         <f>(D26-E26)/D26</f>
-        <v>0.38402061855670105</v>
+        <v>0.37692307692307692</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1119,20 +1119,20 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C28">
         <v>5</v>
       </c>
       <c r="D28">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E28">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F28" s="2">
         <f>(D28-E28)/D28</f>
-        <v>0.31525423728813562</v>
+        <v>0.30405405405405406</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1163,7 +1163,7 @@
         <v>12</v>
       </c>
       <c r="B30">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -1172,11 +1172,11 @@
         <v>378</v>
       </c>
       <c r="E30">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F30" s="2">
         <f>(D30-E30)/D30</f>
-        <v>0.25396825396825395</v>
+        <v>0.25132275132275134</v>
       </c>
       <c r="G30" s="1"/>
     </row>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2962" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B94A05A0-8405-4ACD-BB90-AB74C6F1C1E0}"/>
+  <xr:revisionPtr revIDLastSave="2967" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED34E73C-29B8-4734-8CB8-0B0D205A943B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -204,6 +204,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,7 +513,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +564,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F30" si="0">(D2-E2)/D2</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
@@ -582,7 +586,7 @@
         <v>85</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.77453580901856767</v>
       </c>
       <c r="G3" s="1"/>
@@ -604,7 +608,7 @@
         <v>129</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.75096525096525102</v>
       </c>
       <c r="G4" s="1"/>
@@ -626,7 +630,7 @@
         <v>168</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.73626373626373631</v>
       </c>
       <c r="G5" s="1"/>
@@ -648,7 +652,7 @@
         <v>101</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.66885245901639345</v>
       </c>
       <c r="G6" s="1"/>
@@ -670,7 +674,7 @@
         <v>278</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="0"/>
         <v>0.66014669926650371</v>
       </c>
       <c r="G7" s="1"/>
@@ -692,7 +696,7 @@
         <v>184</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="G8" s="1"/>
@@ -714,7 +718,7 @@
         <v>190</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="0"/>
         <v>0.58874458874458879</v>
       </c>
       <c r="G9" s="1"/>
@@ -724,20 +728,20 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E10">
         <v>152</v>
       </c>
       <c r="F10" s="2">
-        <f>(D10-E10)/D10</f>
-        <v>0.59139784946236562</v>
+        <f t="shared" si="0"/>
+        <v>0.59249329758713132</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -758,7 +762,7 @@
         <v>267</v>
       </c>
       <c r="F11" s="2">
-        <f>(D11-E11)/D11</f>
+        <f t="shared" si="0"/>
         <v>0.57886435331230279</v>
       </c>
       <c r="G11" s="1"/>
@@ -780,7 +784,7 @@
         <v>278</v>
       </c>
       <c r="F12" s="2">
-        <f>(D12-E12)/D12</f>
+        <f t="shared" si="0"/>
         <v>0.5781487101669196</v>
       </c>
       <c r="G12" s="1"/>
@@ -802,7 +806,7 @@
         <v>244</v>
       </c>
       <c r="F13" s="2">
-        <f>(D13-E13)/D13</f>
+        <f t="shared" si="0"/>
         <v>0.57638888888888884</v>
       </c>
       <c r="G13" s="1"/>
@@ -824,7 +828,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="2">
-        <f>(D14-E14)/D14</f>
+        <f t="shared" si="0"/>
         <v>0.5703125</v>
       </c>
     </row>
@@ -845,7 +849,7 @@
         <v>290</v>
       </c>
       <c r="F15" s="2">
-        <f>(D15-E15)/D15</f>
+        <f t="shared" si="0"/>
         <v>0.53600000000000003</v>
       </c>
       <c r="G15" s="1"/>
@@ -867,7 +871,7 @@
         <v>124</v>
       </c>
       <c r="F16" s="2">
-        <f>(D16-E16)/D16</f>
+        <f t="shared" si="0"/>
         <v>0.53558052434456926</v>
       </c>
       <c r="G16" s="1"/>
@@ -889,7 +893,7 @@
         <v>219</v>
       </c>
       <c r="F17" s="2">
-        <f>(D17-E17)/D17</f>
+        <f t="shared" si="0"/>
         <v>0.52801724137931039</v>
       </c>
       <c r="G17" s="1"/>
@@ -911,7 +915,7 @@
         <v>342</v>
       </c>
       <c r="F18" s="2">
-        <f>(D18-E18)/D18</f>
+        <f t="shared" si="0"/>
         <v>0.48725637181409298</v>
       </c>
       <c r="G18" s="1"/>
@@ -933,7 +937,7 @@
         <v>107</v>
       </c>
       <c r="F19" s="2">
-        <f>(D19-E19)/D19</f>
+        <f t="shared" si="0"/>
         <v>0.48058252427184467</v>
       </c>
       <c r="G19" s="1"/>
@@ -955,7 +959,7 @@
         <v>241</v>
       </c>
       <c r="F20" s="2">
-        <f>(D20-E20)/D20</f>
+        <f t="shared" si="0"/>
         <v>0.46205357142857145</v>
       </c>
       <c r="G20" s="1"/>
@@ -965,20 +969,20 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E21">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" s="2">
-        <f>(D21-E21)/D21</f>
-        <v>0.46258503401360546</v>
+        <f t="shared" si="0"/>
+        <v>0.45945945945945948</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -999,7 +1003,7 @@
         <v>371</v>
       </c>
       <c r="F22" s="2">
-        <f>(D22-E22)/D22</f>
+        <f t="shared" si="0"/>
         <v>0.45360824742268041</v>
       </c>
       <c r="G22" s="1"/>
@@ -1021,7 +1025,7 @@
         <v>226</v>
       </c>
       <c r="F23" s="2">
-        <f>(D23-E23)/D23</f>
+        <f t="shared" si="0"/>
         <v>0.44743276283618583</v>
       </c>
       <c r="G23" s="1"/>
@@ -1043,7 +1047,7 @@
         <v>228</v>
       </c>
       <c r="F24" s="2">
-        <f>(D24-E24)/D24</f>
+        <f t="shared" si="0"/>
         <v>0.43980343980343978</v>
       </c>
       <c r="G24" s="1"/>
@@ -1065,7 +1069,7 @@
         <v>178</v>
       </c>
       <c r="F25" s="2">
-        <f>(D25-E25)/D25</f>
+        <f t="shared" si="0"/>
         <v>0.43848580441640378</v>
       </c>
       <c r="G25" s="1"/>
@@ -1087,7 +1091,7 @@
         <v>243</v>
       </c>
       <c r="F26" s="2">
-        <f>(D26-E26)/D26</f>
+        <f t="shared" si="0"/>
         <v>0.37692307692307692</v>
       </c>
       <c r="G26" s="1"/>
@@ -1109,7 +1113,7 @@
         <v>292</v>
       </c>
       <c r="F27" s="2">
-        <f>(D27-E27)/D27</f>
+        <f t="shared" si="0"/>
         <v>0.38266384778012685</v>
       </c>
       <c r="G27" s="1"/>
@@ -1131,7 +1135,7 @@
         <v>206</v>
       </c>
       <c r="F28" s="2">
-        <f>(D28-E28)/D28</f>
+        <f t="shared" si="0"/>
         <v>0.30405405405405406</v>
       </c>
       <c r="G28" s="1"/>
@@ -1153,7 +1157,7 @@
         <v>447</v>
       </c>
       <c r="F29" s="2">
-        <f>(D29-E29)/D29</f>
+        <f t="shared" si="0"/>
         <v>0.26960784313725489</v>
       </c>
       <c r="G29" s="1"/>
@@ -1175,7 +1179,7 @@
         <v>283</v>
       </c>
       <c r="F30" s="2">
-        <f>(D30-E30)/D30</f>
+        <f t="shared" si="0"/>
         <v>0.25132275132275134</v>
       </c>
       <c r="G30" s="1"/>

--- a/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/WTA Tour/WTA YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2967" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED34E73C-29B8-4734-8CB8-0B0D205A943B}"/>
+  <xr:revisionPtr revIDLastSave="2970" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60E55EC3-CC08-41CE-8E18-29B66B65CF22}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,20 +574,20 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E3">
         <v>85</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>0.77453580901856767</v>
+        <v>0.7769028871391076</v>
       </c>
       <c r="G3" s="1"/>
     </row>
